--- a/New_Suivi_PRI.xlsx
+++ b/New_Suivi_PRI.xlsx
@@ -49,12 +49,21 @@
     <t>Date Debut Dplt</t>
   </si>
   <si>
+    <t>Date Affectationcdp</t>
+  </si>
+  <si>
+    <t>Date Cr Lien BDSID</t>
+  </si>
+  <si>
     <t>Date Installation Client</t>
   </si>
   <si>
     <t>Date Mise En Service</t>
   </si>
   <si>
+    <t>Date Mef</t>
+  </si>
+  <si>
     <t>Date Engagement</t>
   </si>
   <si>
@@ -62,15 +71,6 @@
   </si>
   <si>
     <t>Date_Min_Lien_BDSID</t>
-  </si>
-  <si>
-    <t>Date Cr Lien BDSID</t>
-  </si>
-  <si>
-    <t>Date Mef</t>
-  </si>
-  <si>
-    <t>Date Affectationcdp</t>
   </si>
   <si>
     <t>0000000009868407</t>
@@ -3216,23 +3216,23 @@
       <c r="K2" s="2">
         <v>43570</v>
       </c>
+      <c r="L2" s="2">
+        <v>43570</v>
+      </c>
       <c r="M2" s="2">
+        <v>43992</v>
+      </c>
+      <c r="O2" s="2">
         <v>44067.70075231481</v>
       </c>
-      <c r="O2">
+      <c r="P2" s="2">
+        <v>44267</v>
+      </c>
+      <c r="R2">
         <v>480</v>
       </c>
-      <c r="P2" s="2">
+      <c r="S2" s="2">
         <v>43572</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>43992</v>
-      </c>
-      <c r="R2" s="2">
-        <v>44267</v>
-      </c>
-      <c r="S2" s="2">
-        <v>43570</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3269,23 +3269,23 @@
       <c r="K3" s="2">
         <v>43775</v>
       </c>
+      <c r="L3" s="2">
+        <v>43781</v>
+      </c>
       <c r="M3" s="2">
+        <v>44028</v>
+      </c>
+      <c r="O3" s="2">
         <v>44264</v>
       </c>
-      <c r="O3">
+      <c r="P3" s="2">
+        <v>44264</v>
+      </c>
+      <c r="R3">
         <v>337</v>
       </c>
-      <c r="P3" s="2">
+      <c r="S3" s="2">
         <v>43787</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>44028</v>
-      </c>
-      <c r="R3" s="2">
-        <v>44264</v>
-      </c>
-      <c r="S3" s="2">
-        <v>43781</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3322,23 +3322,23 @@
       <c r="K4" s="2">
         <v>43929</v>
       </c>
+      <c r="L4" s="2">
+        <v>43930</v>
+      </c>
       <c r="M4" s="2">
+        <v>44195</v>
+      </c>
+      <c r="O4" s="2">
         <v>44246.55105324074</v>
       </c>
-      <c r="O4">
+      <c r="P4" s="2">
+        <v>44263</v>
+      </c>
+      <c r="R4">
         <v>229</v>
       </c>
-      <c r="P4" s="2">
+      <c r="S4" s="2">
         <v>43962</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>44195</v>
-      </c>
-      <c r="R4" s="2">
-        <v>44263</v>
-      </c>
-      <c r="S4" s="2">
-        <v>43930</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3372,23 +3372,23 @@
       <c r="K5" s="2">
         <v>43977</v>
       </c>
+      <c r="L5" s="2">
+        <v>43977</v>
+      </c>
       <c r="M5" s="2">
+        <v>44125</v>
+      </c>
+      <c r="O5" s="2">
         <v>44256</v>
       </c>
-      <c r="O5">
+      <c r="P5" s="2">
+        <v>44260</v>
+      </c>
+      <c r="R5">
         <v>198</v>
       </c>
-      <c r="P5" s="2">
+      <c r="S5" s="2">
         <v>44111</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>44125</v>
-      </c>
-      <c r="R5" s="2">
-        <v>44260</v>
-      </c>
-      <c r="S5" s="2">
-        <v>43977</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3425,20 +3425,20 @@
       <c r="K6" s="2">
         <v>43998</v>
       </c>
+      <c r="L6" s="2">
+        <v>43998</v>
+      </c>
       <c r="M6" s="2">
+        <v>44161</v>
+      </c>
+      <c r="O6" s="2">
         <v>44274.54297453703</v>
       </c>
-      <c r="O6">
+      <c r="P6" s="2">
+        <v>44277</v>
+      </c>
+      <c r="R6">
         <v>195</v>
-      </c>
-      <c r="P6" s="2">
-        <v>43998</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>44161</v>
-      </c>
-      <c r="R6" s="2">
-        <v>44277</v>
       </c>
       <c r="S6" s="2">
         <v>43998</v>
@@ -3478,23 +3478,23 @@
       <c r="K7" s="2">
         <v>43999</v>
       </c>
+      <c r="L7" s="2">
+        <v>43999</v>
+      </c>
       <c r="M7" s="2">
+        <v>44272</v>
+      </c>
+      <c r="O7" s="2">
         <v>44281.49770833334</v>
       </c>
-      <c r="O7">
+      <c r="P7" s="2">
+        <v>44284</v>
+      </c>
+      <c r="R7">
         <v>199</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>44001</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>44272</v>
-      </c>
-      <c r="R7" s="2">
-        <v>44284</v>
-      </c>
-      <c r="S7" s="2">
-        <v>43999</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -3531,23 +3531,23 @@
       <c r="K8" s="2">
         <v>44006</v>
       </c>
+      <c r="L8" s="2">
+        <v>44007</v>
+      </c>
       <c r="M8" s="2">
+        <v>44089</v>
+      </c>
+      <c r="O8" s="2">
         <v>44256.60519675926</v>
       </c>
-      <c r="O8">
+      <c r="P8" s="2">
+        <v>44258</v>
+      </c>
+      <c r="R8">
         <v>176</v>
       </c>
-      <c r="P8" s="2">
+      <c r="S8" s="2">
         <v>44039</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>44089</v>
-      </c>
-      <c r="R8" s="2">
-        <v>44258</v>
-      </c>
-      <c r="S8" s="2">
-        <v>44007</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -3584,20 +3584,20 @@
       <c r="K9" s="2">
         <v>44014</v>
       </c>
+      <c r="L9" s="2">
+        <v>44014</v>
+      </c>
       <c r="M9" s="2">
+        <v>44040</v>
+      </c>
+      <c r="O9" s="2">
         <v>44258</v>
       </c>
-      <c r="O9">
+      <c r="P9" s="2">
+        <v>44259</v>
+      </c>
+      <c r="R9">
         <v>171</v>
-      </c>
-      <c r="P9" s="2">
-        <v>44014</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>44040</v>
-      </c>
-      <c r="R9" s="2">
-        <v>44259</v>
       </c>
       <c r="S9" s="2">
         <v>44014</v>
@@ -3637,23 +3637,23 @@
       <c r="K10" s="2">
         <v>44014</v>
       </c>
+      <c r="L10" s="2">
+        <v>44014</v>
+      </c>
       <c r="M10" s="2">
+        <v>44179</v>
+      </c>
+      <c r="O10" s="2">
         <v>44243</v>
       </c>
-      <c r="O10">
+      <c r="P10" s="2">
+        <v>44285</v>
+      </c>
+      <c r="R10">
         <v>189</v>
       </c>
-      <c r="P10" s="2">
+      <c r="S10" s="2">
         <v>44019</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>44179</v>
-      </c>
-      <c r="R10" s="2">
-        <v>44285</v>
-      </c>
-      <c r="S10" s="2">
-        <v>44014</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -3690,23 +3690,23 @@
       <c r="K11" s="2">
         <v>44014</v>
       </c>
+      <c r="L11" s="2">
+        <v>44014</v>
+      </c>
       <c r="M11" s="2">
+        <v>44035</v>
+      </c>
+      <c r="O11" s="2">
         <v>44273</v>
       </c>
-      <c r="O11">
+      <c r="P11" s="2">
+        <v>44274</v>
+      </c>
+      <c r="R11">
         <v>182</v>
       </c>
-      <c r="P11" s="2">
+      <c r="S11" s="2">
         <v>44018</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>44035</v>
-      </c>
-      <c r="R11" s="2">
-        <v>44274</v>
-      </c>
-      <c r="S11" s="2">
-        <v>44014</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -3743,20 +3743,20 @@
       <c r="K12" s="2">
         <v>44015</v>
       </c>
+      <c r="L12" s="2">
+        <v>44015</v>
+      </c>
       <c r="M12" s="2">
+        <v>44200</v>
+      </c>
+      <c r="O12" s="2">
         <v>44260</v>
       </c>
-      <c r="O12">
+      <c r="P12" s="2">
+        <v>44264</v>
+      </c>
+      <c r="R12">
         <v>173</v>
-      </c>
-      <c r="P12" s="2">
-        <v>44015</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>44200</v>
-      </c>
-      <c r="R12" s="2">
-        <v>44264</v>
       </c>
       <c r="S12" s="2">
         <v>44015</v>
@@ -3793,23 +3793,23 @@
       <c r="K13" s="2">
         <v>44027</v>
       </c>
+      <c r="L13" s="2">
+        <v>44028</v>
+      </c>
       <c r="M13" s="2">
+        <v>44088</v>
+      </c>
+      <c r="O13" s="2">
         <v>44252.58606481482</v>
       </c>
-      <c r="O13">
+      <c r="P13" s="2">
+        <v>44256</v>
+      </c>
+      <c r="R13">
         <v>160</v>
       </c>
-      <c r="P13" s="2">
+      <c r="S13" s="2">
         <v>44061</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>44088</v>
-      </c>
-      <c r="R13" s="2">
-        <v>44256</v>
-      </c>
-      <c r="S13" s="2">
-        <v>44028</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -3843,23 +3843,23 @@
       <c r="K14" s="2">
         <v>44027</v>
       </c>
+      <c r="L14" s="2">
+        <v>44028</v>
+      </c>
       <c r="M14" s="2">
+        <v>44081</v>
+      </c>
+      <c r="O14" s="2">
         <v>44252.58605324074</v>
       </c>
-      <c r="O14">
+      <c r="P14" s="2">
+        <v>44265</v>
+      </c>
+      <c r="R14">
         <v>167</v>
       </c>
-      <c r="P14" s="2">
+      <c r="S14" s="2">
         <v>44061</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>44081</v>
-      </c>
-      <c r="R14" s="2">
-        <v>44265</v>
-      </c>
-      <c r="S14" s="2">
-        <v>44028</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -3896,20 +3896,20 @@
       <c r="K15" s="2">
         <v>44042</v>
       </c>
-      <c r="M15" s="2">
+      <c r="L15" s="2">
+        <v>44042</v>
+      </c>
+      <c r="O15" s="2">
         <v>44273.71376157407</v>
       </c>
-      <c r="O15">
+      <c r="P15" s="2">
+        <v>44274</v>
+      </c>
+      <c r="R15">
         <v>163</v>
       </c>
-      <c r="P15" s="2">
+      <c r="S15" s="2">
         <v>44047</v>
-      </c>
-      <c r="R15" s="2">
-        <v>44274</v>
-      </c>
-      <c r="S15" s="2">
-        <v>44042</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -3946,23 +3946,23 @@
       <c r="K16" s="2">
         <v>44063</v>
       </c>
+      <c r="L16" s="2">
+        <v>44063</v>
+      </c>
       <c r="M16" s="2">
+        <v>44183</v>
+      </c>
+      <c r="O16" s="2">
         <v>44272</v>
       </c>
-      <c r="O16">
+      <c r="P16" s="2">
+        <v>44277</v>
+      </c>
+      <c r="R16">
         <v>149</v>
       </c>
-      <c r="P16" s="2">
+      <c r="S16" s="2">
         <v>44068</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>44183</v>
-      </c>
-      <c r="R16" s="2">
-        <v>44277</v>
-      </c>
-      <c r="S16" s="2">
-        <v>44063</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -3999,20 +3999,20 @@
       <c r="K17" s="2">
         <v>44082</v>
       </c>
+      <c r="L17" s="2">
+        <v>44085</v>
+      </c>
       <c r="M17" s="2">
+        <v>44112</v>
+      </c>
+      <c r="O17" s="2">
         <v>44221</v>
       </c>
-      <c r="O17">
+      <c r="P17" s="2">
+        <v>44256</v>
+      </c>
+      <c r="R17">
         <v>121</v>
-      </c>
-      <c r="P17" s="2">
-        <v>44085</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>44112</v>
-      </c>
-      <c r="R17" s="2">
-        <v>44256</v>
       </c>
       <c r="S17" s="2">
         <v>44085</v>
@@ -4052,23 +4052,23 @@
       <c r="K18" s="2">
         <v>44090</v>
       </c>
+      <c r="L18" s="2">
+        <v>44090</v>
+      </c>
       <c r="M18" s="2">
+        <v>44100</v>
+      </c>
+      <c r="O18" s="2">
         <v>44256</v>
       </c>
-      <c r="O18">
+      <c r="P18" s="2">
+        <v>44266</v>
+      </c>
+      <c r="R18">
         <v>123</v>
       </c>
-      <c r="P18" s="2">
+      <c r="S18" s="2">
         <v>44091</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>44100</v>
-      </c>
-      <c r="R18" s="2">
-        <v>44266</v>
-      </c>
-      <c r="S18" s="2">
-        <v>44090</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -4105,23 +4105,23 @@
       <c r="K19" s="2">
         <v>44102</v>
       </c>
+      <c r="L19" s="2">
+        <v>44102</v>
+      </c>
       <c r="M19" s="2">
+        <v>44125</v>
+      </c>
+      <c r="O19" s="2">
         <v>44257.5893287037</v>
       </c>
-      <c r="O19">
+      <c r="P19" s="2">
+        <v>44258</v>
+      </c>
+      <c r="R19">
         <v>109</v>
       </c>
-      <c r="P19" s="2">
+      <c r="S19" s="2">
         <v>44103</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>44125</v>
-      </c>
-      <c r="R19" s="2">
-        <v>44258</v>
-      </c>
-      <c r="S19" s="2">
-        <v>44102</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -4158,23 +4158,23 @@
       <c r="K20" s="2">
         <v>44105</v>
       </c>
+      <c r="L20" s="2">
+        <v>44105</v>
+      </c>
       <c r="M20" s="2">
+        <v>44138</v>
+      </c>
+      <c r="O20" s="2">
         <v>44273</v>
       </c>
-      <c r="O20">
+      <c r="P20" s="2">
+        <v>44274</v>
+      </c>
+      <c r="R20">
         <v>118</v>
       </c>
-      <c r="P20" s="2">
+      <c r="S20" s="2">
         <v>44132</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>44138</v>
-      </c>
-      <c r="R20" s="2">
-        <v>44274</v>
-      </c>
-      <c r="S20" s="2">
-        <v>44105</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -4208,20 +4208,20 @@
       <c r="K21" s="2">
         <v>44109</v>
       </c>
+      <c r="L21" s="2">
+        <v>44109</v>
+      </c>
       <c r="M21" s="2">
+        <v>44169</v>
+      </c>
+      <c r="O21" s="2">
         <v>44259</v>
       </c>
-      <c r="O21">
+      <c r="P21" s="2">
+        <v>44260</v>
+      </c>
+      <c r="R21">
         <v>106</v>
-      </c>
-      <c r="P21" s="2">
-        <v>44109</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>44169</v>
-      </c>
-      <c r="R21" s="2">
-        <v>44260</v>
       </c>
       <c r="S21" s="2">
         <v>44109</v>
@@ -4258,23 +4258,23 @@
       <c r="K22" s="2">
         <v>44109</v>
       </c>
+      <c r="L22" s="2">
+        <v>44109</v>
+      </c>
       <c r="M22" s="2">
+        <v>44204</v>
+      </c>
+      <c r="O22" s="2">
         <v>44281</v>
       </c>
-      <c r="O22">
+      <c r="P22" s="2">
+        <v>44281</v>
+      </c>
+      <c r="R22">
         <v>121</v>
       </c>
-      <c r="P22" s="2">
+      <c r="S22" s="2">
         <v>44110</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>44204</v>
-      </c>
-      <c r="R22" s="2">
-        <v>44281</v>
-      </c>
-      <c r="S22" s="2">
-        <v>44109</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -4311,23 +4311,23 @@
       <c r="K23" s="2">
         <v>44109</v>
       </c>
+      <c r="L23" s="2">
+        <v>44109</v>
+      </c>
       <c r="M23" s="2">
+        <v>44125</v>
+      </c>
+      <c r="O23" s="2">
         <v>44272</v>
       </c>
-      <c r="O23">
+      <c r="P23" s="2">
+        <v>44273</v>
+      </c>
+      <c r="R23">
         <v>115</v>
       </c>
-      <c r="P23" s="2">
+      <c r="S23" s="2">
         <v>44110</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>44125</v>
-      </c>
-      <c r="R23" s="2">
-        <v>44273</v>
-      </c>
-      <c r="S23" s="2">
-        <v>44109</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -4361,23 +4361,23 @@
       <c r="K24" s="2">
         <v>44109</v>
       </c>
+      <c r="L24" s="2">
+        <v>44111</v>
+      </c>
       <c r="M24" s="2">
+        <v>44124</v>
+      </c>
+      <c r="O24" s="2">
         <v>44260</v>
       </c>
-      <c r="O24">
+      <c r="P24" s="2">
+        <v>44263</v>
+      </c>
+      <c r="R24">
         <v>107</v>
       </c>
-      <c r="P24" s="2">
+      <c r="S24" s="2">
         <v>44109</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>44124</v>
-      </c>
-      <c r="R24" s="2">
-        <v>44263</v>
-      </c>
-      <c r="S24" s="2">
-        <v>44111</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -4411,23 +4411,23 @@
       <c r="K25" s="2">
         <v>44109</v>
       </c>
+      <c r="L25" s="2">
+        <v>44111</v>
+      </c>
       <c r="M25" s="2">
+        <v>44175</v>
+      </c>
+      <c r="O25" s="2">
         <v>44259.56361111111</v>
       </c>
-      <c r="O25">
+      <c r="P25" s="2">
+        <v>44260</v>
+      </c>
+      <c r="R25">
         <v>106</v>
       </c>
-      <c r="P25" s="2">
+      <c r="S25" s="2">
         <v>44109</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>44175</v>
-      </c>
-      <c r="R25" s="2">
-        <v>44260</v>
-      </c>
-      <c r="S25" s="2">
-        <v>44111</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -4461,20 +4461,20 @@
       <c r="K26" s="2">
         <v>44117</v>
       </c>
+      <c r="L26" s="2">
+        <v>44117</v>
+      </c>
       <c r="M26" s="2">
+        <v>44175</v>
+      </c>
+      <c r="O26" s="2">
         <v>44259</v>
       </c>
-      <c r="O26">
+      <c r="P26" s="2">
+        <v>44260</v>
+      </c>
+      <c r="R26">
         <v>100</v>
-      </c>
-      <c r="P26" s="2">
-        <v>44117</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>44175</v>
-      </c>
-      <c r="R26" s="2">
-        <v>44260</v>
       </c>
       <c r="S26" s="2">
         <v>44117</v>
@@ -4514,23 +4514,23 @@
       <c r="K27" s="2">
         <v>44123</v>
       </c>
+      <c r="L27" s="2">
+        <v>44124</v>
+      </c>
       <c r="M27" s="2">
+        <v>44155</v>
+      </c>
+      <c r="O27" s="2">
         <v>44280.75336805556</v>
       </c>
-      <c r="O27">
+      <c r="P27" s="2">
+        <v>44281</v>
+      </c>
+      <c r="R27">
         <v>111</v>
       </c>
-      <c r="P27" s="2">
+      <c r="S27" s="2">
         <v>44123</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>44155</v>
-      </c>
-      <c r="R27" s="2">
-        <v>44281</v>
-      </c>
-      <c r="S27" s="2">
-        <v>44124</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -4564,20 +4564,20 @@
       <c r="K28" s="2">
         <v>44125</v>
       </c>
+      <c r="L28" s="2">
+        <v>44125</v>
+      </c>
       <c r="M28" s="2">
+        <v>44173</v>
+      </c>
+      <c r="O28" s="2">
         <v>44260</v>
       </c>
-      <c r="O28">
+      <c r="P28" s="2">
+        <v>44263</v>
+      </c>
+      <c r="R28">
         <v>95</v>
-      </c>
-      <c r="P28" s="2">
-        <v>44125</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>44173</v>
-      </c>
-      <c r="R28" s="2">
-        <v>44263</v>
       </c>
       <c r="S28" s="2">
         <v>44125</v>
@@ -4617,23 +4617,23 @@
       <c r="K29" s="2">
         <v>44130</v>
       </c>
+      <c r="L29" s="2">
+        <v>44130</v>
+      </c>
       <c r="M29" s="2">
+        <v>44201</v>
+      </c>
+      <c r="O29" s="2">
         <v>44216.46243055556</v>
       </c>
-      <c r="O29">
+      <c r="P29" s="2">
+        <v>44265</v>
+      </c>
+      <c r="R29">
         <v>94</v>
       </c>
-      <c r="P29" s="2">
+      <c r="S29" s="2">
         <v>44134</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>44201</v>
-      </c>
-      <c r="R29" s="2">
-        <v>44265</v>
-      </c>
-      <c r="S29" s="2">
-        <v>44130</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -4670,20 +4670,20 @@
       <c r="K30" s="2">
         <v>44130</v>
       </c>
+      <c r="L30" s="2">
+        <v>44131</v>
+      </c>
       <c r="M30" s="2">
+        <v>44161</v>
+      </c>
+      <c r="O30" s="2">
         <v>44258</v>
       </c>
-      <c r="O30">
+      <c r="P30" s="2">
+        <v>44259</v>
+      </c>
+      <c r="R30">
         <v>90</v>
-      </c>
-      <c r="P30" s="2">
-        <v>44131</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>44161</v>
-      </c>
-      <c r="R30" s="2">
-        <v>44259</v>
       </c>
       <c r="S30" s="2">
         <v>44131</v>
@@ -4723,20 +4723,20 @@
       <c r="K31" s="2">
         <v>44134</v>
       </c>
+      <c r="L31" s="2">
+        <v>44137</v>
+      </c>
       <c r="M31" s="2">
+        <v>44267</v>
+      </c>
+      <c r="O31" s="2">
         <v>44267.64200231482</v>
       </c>
-      <c r="O31">
+      <c r="P31" s="2">
+        <v>44270</v>
+      </c>
+      <c r="R31">
         <v>93</v>
-      </c>
-      <c r="P31" s="2">
-        <v>44137</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>44267</v>
-      </c>
-      <c r="R31" s="2">
-        <v>44270</v>
       </c>
       <c r="S31" s="2">
         <v>44137</v>
@@ -4773,23 +4773,23 @@
       <c r="K32" s="2">
         <v>44145</v>
       </c>
+      <c r="L32" s="2">
+        <v>44145</v>
+      </c>
       <c r="M32" s="2">
+        <v>44244</v>
+      </c>
+      <c r="O32" s="2">
         <v>44272.54326388889</v>
       </c>
-      <c r="O32">
+      <c r="P32" s="2">
+        <v>44273</v>
+      </c>
+      <c r="R32">
         <v>89</v>
       </c>
-      <c r="P32" s="2">
+      <c r="S32" s="2">
         <v>44208</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>44244</v>
-      </c>
-      <c r="R32" s="2">
-        <v>44273</v>
-      </c>
-      <c r="S32" s="2">
-        <v>44145</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -4826,20 +4826,20 @@
       <c r="K33" s="2">
         <v>44147</v>
       </c>
+      <c r="L33" s="2">
+        <v>44147</v>
+      </c>
       <c r="M33" s="2">
+        <v>44235</v>
+      </c>
+      <c r="O33" s="2">
         <v>44260</v>
       </c>
-      <c r="O33">
+      <c r="P33" s="2">
+        <v>44265</v>
+      </c>
+      <c r="R33">
         <v>82</v>
-      </c>
-      <c r="P33" s="2">
-        <v>44147</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>44235</v>
-      </c>
-      <c r="R33" s="2">
-        <v>44265</v>
       </c>
       <c r="S33" s="2">
         <v>44147</v>
@@ -4879,20 +4879,20 @@
       <c r="K34" s="2">
         <v>44151</v>
       </c>
+      <c r="L34" s="2">
+        <v>44151</v>
+      </c>
       <c r="M34" s="2">
+        <v>44168</v>
+      </c>
+      <c r="O34" s="2">
         <v>44266</v>
       </c>
-      <c r="O34">
+      <c r="P34" s="2">
+        <v>44270</v>
+      </c>
+      <c r="R34">
         <v>83</v>
-      </c>
-      <c r="P34" s="2">
-        <v>44151</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>44168</v>
-      </c>
-      <c r="R34" s="2">
-        <v>44270</v>
       </c>
       <c r="S34" s="2">
         <v>44151</v>
@@ -4932,23 +4932,23 @@
       <c r="K35" s="2">
         <v>44151</v>
       </c>
+      <c r="L35" s="2">
+        <v>44151</v>
+      </c>
       <c r="M35" s="2">
+        <v>44174</v>
+      </c>
+      <c r="O35" s="2">
         <v>44250.77815972222</v>
       </c>
-      <c r="O35">
+      <c r="P35" s="2">
+        <v>44259</v>
+      </c>
+      <c r="R35">
         <v>76</v>
       </c>
-      <c r="P35" s="2">
+      <c r="S35" s="2">
         <v>44152</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>44174</v>
-      </c>
-      <c r="R35" s="2">
-        <v>44259</v>
-      </c>
-      <c r="S35" s="2">
-        <v>44151</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -4985,23 +4985,23 @@
       <c r="K36" s="2">
         <v>44151</v>
       </c>
+      <c r="L36" s="2">
+        <v>44151</v>
+      </c>
       <c r="M36" s="2">
+        <v>44180</v>
+      </c>
+      <c r="O36" s="2">
         <v>44259.56361111111</v>
       </c>
-      <c r="O36">
+      <c r="P36" s="2">
+        <v>44260</v>
+      </c>
+      <c r="R36">
         <v>77</v>
       </c>
-      <c r="P36" s="2">
+      <c r="S36" s="2">
         <v>44152</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>44180</v>
-      </c>
-      <c r="R36" s="2">
-        <v>44260</v>
-      </c>
-      <c r="S36" s="2">
-        <v>44151</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -5038,23 +5038,23 @@
       <c r="K37" s="2">
         <v>44152</v>
       </c>
+      <c r="L37" s="2">
+        <v>44152</v>
+      </c>
       <c r="M37" s="2">
+        <v>44200</v>
+      </c>
+      <c r="O37" s="2">
         <v>44265</v>
       </c>
-      <c r="O37">
+      <c r="P37" s="2">
+        <v>44266</v>
+      </c>
+      <c r="R37">
         <v>80</v>
       </c>
-      <c r="P37" s="2">
+      <c r="S37" s="2">
         <v>44158</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>44200</v>
-      </c>
-      <c r="R37" s="2">
-        <v>44266</v>
-      </c>
-      <c r="S37" s="2">
-        <v>44152</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -5091,14 +5091,14 @@
       <c r="K38" s="2">
         <v>44152</v>
       </c>
-      <c r="O38">
+      <c r="L38" s="2">
+        <v>44152</v>
+      </c>
+      <c r="P38" s="2">
+        <v>44259</v>
+      </c>
+      <c r="R38">
         <v>75</v>
-      </c>
-      <c r="R38" s="2">
-        <v>44259</v>
-      </c>
-      <c r="S38" s="2">
-        <v>44152</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -5135,20 +5135,20 @@
       <c r="K39" s="2">
         <v>44152</v>
       </c>
+      <c r="L39" s="2">
+        <v>44152</v>
+      </c>
       <c r="M39" s="2">
+        <v>44222</v>
+      </c>
+      <c r="O39" s="2">
         <v>44253</v>
       </c>
-      <c r="O39">
+      <c r="P39" s="2">
+        <v>44256</v>
+      </c>
+      <c r="R39">
         <v>72</v>
-      </c>
-      <c r="P39" s="2">
-        <v>44152</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>44222</v>
-      </c>
-      <c r="R39" s="2">
-        <v>44256</v>
       </c>
       <c r="S39" s="2">
         <v>44152</v>
@@ -5188,23 +5188,23 @@
       <c r="K40" s="2">
         <v>44152</v>
       </c>
+      <c r="L40" s="2">
+        <v>44152</v>
+      </c>
       <c r="M40" s="2">
+        <v>44200</v>
+      </c>
+      <c r="O40" s="2">
         <v>44252</v>
       </c>
-      <c r="O40">
+      <c r="P40" s="2">
+        <v>44256</v>
+      </c>
+      <c r="R40">
         <v>72</v>
       </c>
-      <c r="P40" s="2">
+      <c r="S40" s="2">
         <v>44155</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>44200</v>
-      </c>
-      <c r="R40" s="2">
-        <v>44256</v>
-      </c>
-      <c r="S40" s="2">
-        <v>44152</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -5241,23 +5241,23 @@
       <c r="K41" s="2">
         <v>44154</v>
       </c>
+      <c r="L41" s="2">
+        <v>44154</v>
+      </c>
       <c r="M41" s="2">
+        <v>44193</v>
+      </c>
+      <c r="O41" s="2">
         <v>44250</v>
       </c>
-      <c r="O41">
+      <c r="P41" s="2">
+        <v>44256</v>
+      </c>
+      <c r="R41">
         <v>70</v>
       </c>
-      <c r="P41" s="2">
+      <c r="S41" s="2">
         <v>44155</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>44193</v>
-      </c>
-      <c r="R41" s="2">
-        <v>44256</v>
-      </c>
-      <c r="S41" s="2">
-        <v>44154</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -5294,23 +5294,23 @@
       <c r="K42" s="2">
         <v>44154</v>
       </c>
+      <c r="L42" s="2">
+        <v>44154</v>
+      </c>
       <c r="M42" s="2">
+        <v>44200</v>
+      </c>
+      <c r="O42" s="2">
         <v>44250</v>
       </c>
-      <c r="O42">
+      <c r="P42" s="2">
+        <v>44256</v>
+      </c>
+      <c r="R42">
         <v>70</v>
       </c>
-      <c r="P42" s="2">
+      <c r="S42" s="2">
         <v>44155</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>44200</v>
-      </c>
-      <c r="R42" s="2">
-        <v>44256</v>
-      </c>
-      <c r="S42" s="2">
-        <v>44154</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -5347,20 +5347,20 @@
       <c r="K43" s="2">
         <v>44155</v>
       </c>
+      <c r="L43" s="2">
+        <v>44155</v>
+      </c>
       <c r="M43" s="2">
+        <v>44169</v>
+      </c>
+      <c r="O43" s="2">
         <v>44270</v>
       </c>
-      <c r="O43">
+      <c r="P43" s="2">
+        <v>44271</v>
+      </c>
+      <c r="R43">
         <v>80</v>
-      </c>
-      <c r="P43" s="2">
-        <v>44155</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>44169</v>
-      </c>
-      <c r="R43" s="2">
-        <v>44271</v>
       </c>
       <c r="S43" s="2">
         <v>44155</v>
@@ -5400,23 +5400,23 @@
       <c r="K44" s="2">
         <v>44158</v>
       </c>
+      <c r="L44" s="2">
+        <v>44158</v>
+      </c>
       <c r="M44" s="2">
+        <v>44173</v>
+      </c>
+      <c r="O44" s="2">
         <v>44224.49606481481</v>
       </c>
-      <c r="O44">
+      <c r="P44" s="2">
+        <v>44258</v>
+      </c>
+      <c r="R44">
         <v>70</v>
       </c>
-      <c r="P44" s="2">
+      <c r="S44" s="2">
         <v>44159</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>44173</v>
-      </c>
-      <c r="R44" s="2">
-        <v>44258</v>
-      </c>
-      <c r="S44" s="2">
-        <v>44158</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -5453,23 +5453,23 @@
       <c r="K45" s="2">
         <v>44158</v>
       </c>
+      <c r="L45" s="2">
+        <v>44158</v>
+      </c>
       <c r="M45" s="2">
+        <v>44216</v>
+      </c>
+      <c r="O45" s="2">
         <v>44228.61960648148</v>
       </c>
-      <c r="O45">
+      <c r="P45" s="2">
+        <v>44270</v>
+      </c>
+      <c r="R45">
         <v>78</v>
       </c>
-      <c r="P45" s="2">
+      <c r="S45" s="2">
         <v>44173</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>44216</v>
-      </c>
-      <c r="R45" s="2">
-        <v>44270</v>
-      </c>
-      <c r="S45" s="2">
-        <v>44158</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -5503,23 +5503,23 @@
       <c r="K46" s="2">
         <v>44158</v>
       </c>
+      <c r="L46" s="2">
+        <v>44158</v>
+      </c>
       <c r="M46" s="2">
+        <v>44207</v>
+      </c>
+      <c r="O46" s="2">
         <v>44218.61270833333</v>
       </c>
-      <c r="O46">
+      <c r="P46" s="2">
+        <v>44265</v>
+      </c>
+      <c r="R46">
         <v>75</v>
       </c>
-      <c r="P46" s="2">
+      <c r="S46" s="2">
         <v>44168</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>44207</v>
-      </c>
-      <c r="R46" s="2">
-        <v>44265</v>
-      </c>
-      <c r="S46" s="2">
-        <v>44158</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -5556,23 +5556,23 @@
       <c r="K47" s="2">
         <v>44158</v>
       </c>
+      <c r="L47" s="2">
+        <v>44158</v>
+      </c>
       <c r="M47" s="2">
+        <v>44187</v>
+      </c>
+      <c r="O47" s="2">
         <v>44200.69179398148</v>
       </c>
-      <c r="O47">
+      <c r="P47" s="2">
+        <v>44272</v>
+      </c>
+      <c r="R47">
         <v>80</v>
       </c>
-      <c r="P47" s="2">
+      <c r="S47" s="2">
         <v>44168</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>44187</v>
-      </c>
-      <c r="R47" s="2">
-        <v>44272</v>
-      </c>
-      <c r="S47" s="2">
-        <v>44158</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -5606,23 +5606,23 @@
       <c r="K48" s="2">
         <v>44158</v>
       </c>
+      <c r="L48" s="2">
+        <v>44158</v>
+      </c>
       <c r="M48" s="2">
+        <v>44186</v>
+      </c>
+      <c r="O48" s="2">
         <v>44249.46659722222</v>
       </c>
-      <c r="O48">
+      <c r="P48" s="2">
+        <v>44260</v>
+      </c>
+      <c r="R48">
         <v>72</v>
       </c>
-      <c r="P48" s="2">
+      <c r="S48" s="2">
         <v>44168</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>44186</v>
-      </c>
-      <c r="R48" s="2">
-        <v>44260</v>
-      </c>
-      <c r="S48" s="2">
-        <v>44158</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -5659,23 +5659,23 @@
       <c r="K49" s="2">
         <v>44158</v>
       </c>
+      <c r="L49" s="2">
+        <v>44158</v>
+      </c>
       <c r="M49" s="2">
+        <v>44175</v>
+      </c>
+      <c r="O49" s="2">
         <v>44188.50403935185</v>
       </c>
-      <c r="O49">
+      <c r="P49" s="2">
+        <v>44272</v>
+      </c>
+      <c r="R49">
         <v>80</v>
       </c>
-      <c r="P49" s="2">
+      <c r="S49" s="2">
         <v>44168</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>44175</v>
-      </c>
-      <c r="R49" s="2">
-        <v>44272</v>
-      </c>
-      <c r="S49" s="2">
-        <v>44158</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -5712,20 +5712,20 @@
       <c r="K50" s="2">
         <v>44159</v>
       </c>
+      <c r="L50" s="2">
+        <v>44162</v>
+      </c>
       <c r="M50" s="2">
+        <v>44208</v>
+      </c>
+      <c r="O50" s="2">
         <v>44252</v>
       </c>
-      <c r="O50">
+      <c r="P50" s="2">
+        <v>44260</v>
+      </c>
+      <c r="R50">
         <v>71</v>
-      </c>
-      <c r="P50" s="2">
-        <v>44162</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>44208</v>
-      </c>
-      <c r="R50" s="2">
-        <v>44260</v>
       </c>
       <c r="S50" s="2">
         <v>44162</v>
@@ -5765,23 +5765,23 @@
       <c r="K51" s="2">
         <v>44159</v>
       </c>
+      <c r="L51" s="2">
+        <v>44173</v>
+      </c>
       <c r="M51" s="2">
+        <v>44235</v>
+      </c>
+      <c r="O51" s="2">
         <v>44270</v>
       </c>
-      <c r="O51">
+      <c r="P51" s="2">
+        <v>44271</v>
+      </c>
+      <c r="R51">
         <v>78</v>
       </c>
-      <c r="P51" s="2">
+      <c r="S51" s="2">
         <v>44159</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>44235</v>
-      </c>
-      <c r="R51" s="2">
-        <v>44271</v>
-      </c>
-      <c r="S51" s="2">
-        <v>44173</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -5818,23 +5818,23 @@
       <c r="K52" s="2">
         <v>44160</v>
       </c>
+      <c r="L52" s="2">
+        <v>44160</v>
+      </c>
       <c r="M52" s="2">
+        <v>44201</v>
+      </c>
+      <c r="O52" s="2">
         <v>44267.5234375</v>
       </c>
-      <c r="O52">
+      <c r="P52" s="2">
+        <v>44273</v>
+      </c>
+      <c r="R52">
         <v>79</v>
       </c>
-      <c r="P52" s="2">
+      <c r="S52" s="2">
         <v>44161</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>44201</v>
-      </c>
-      <c r="R52" s="2">
-        <v>44273</v>
-      </c>
-      <c r="S52" s="2">
-        <v>44160</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -5871,23 +5871,23 @@
       <c r="K53" s="2">
         <v>44162</v>
       </c>
+      <c r="L53" s="2">
+        <v>44162</v>
+      </c>
       <c r="M53" s="2">
+        <v>44180</v>
+      </c>
+      <c r="O53" s="2">
         <v>44272</v>
       </c>
-      <c r="O53">
+      <c r="P53" s="2">
+        <v>44277</v>
+      </c>
+      <c r="R53">
         <v>79</v>
       </c>
-      <c r="P53" s="2">
+      <c r="S53" s="2">
         <v>44163</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>44180</v>
-      </c>
-      <c r="R53" s="2">
-        <v>44277</v>
-      </c>
-      <c r="S53" s="2">
-        <v>44162</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -5924,23 +5924,23 @@
       <c r="K54" s="2">
         <v>44165</v>
       </c>
+      <c r="L54" s="2">
+        <v>44165</v>
+      </c>
       <c r="M54" s="2">
+        <v>44245</v>
+      </c>
+      <c r="O54" s="2">
         <v>44253.57833333333</v>
       </c>
-      <c r="O54">
+      <c r="P54" s="2">
+        <v>44256</v>
+      </c>
+      <c r="R54">
         <v>63</v>
       </c>
-      <c r="P54" s="2">
+      <c r="S54" s="2">
         <v>44166</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>44245</v>
-      </c>
-      <c r="R54" s="2">
-        <v>44256</v>
-      </c>
-      <c r="S54" s="2">
-        <v>44165</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -5977,23 +5977,23 @@
       <c r="K55" s="2">
         <v>44165</v>
       </c>
+      <c r="L55" s="2">
+        <v>44165</v>
+      </c>
       <c r="M55" s="2">
+        <v>44182</v>
+      </c>
+      <c r="O55" s="2">
         <v>44267.69123842593</v>
       </c>
-      <c r="O55">
+      <c r="P55" s="2">
+        <v>44271</v>
+      </c>
+      <c r="R55">
         <v>74</v>
       </c>
-      <c r="P55" s="2">
+      <c r="S55" s="2">
         <v>44169</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>44182</v>
-      </c>
-      <c r="R55" s="2">
-        <v>44271</v>
-      </c>
-      <c r="S55" s="2">
-        <v>44165</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -6030,20 +6030,20 @@
       <c r="K56" s="2">
         <v>44165</v>
       </c>
-      <c r="O56">
+      <c r="L56" s="2">
+        <v>44165</v>
+      </c>
+      <c r="M56" s="2">
+        <v>44210</v>
+      </c>
+      <c r="P56" s="2">
+        <v>44280</v>
+      </c>
+      <c r="R56">
         <v>81</v>
       </c>
-      <c r="P56" s="2">
+      <c r="S56" s="2">
         <v>44166</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>44210</v>
-      </c>
-      <c r="R56" s="2">
-        <v>44280</v>
-      </c>
-      <c r="S56" s="2">
-        <v>44165</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -6080,17 +6080,17 @@
       <c r="K57" s="2">
         <v>44168</v>
       </c>
-      <c r="M57" s="2">
+      <c r="L57" s="2">
+        <v>44172</v>
+      </c>
+      <c r="O57" s="2">
         <v>44257</v>
       </c>
-      <c r="O57">
+      <c r="P57" s="2">
+        <v>44257</v>
+      </c>
+      <c r="R57">
         <v>61</v>
-      </c>
-      <c r="R57" s="2">
-        <v>44257</v>
-      </c>
-      <c r="S57" s="2">
-        <v>44172</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -6127,20 +6127,20 @@
       <c r="K58" s="2">
         <v>44169</v>
       </c>
+      <c r="L58" s="2">
+        <v>44169</v>
+      </c>
       <c r="M58" s="2">
+        <v>44183</v>
+      </c>
+      <c r="O58" s="2">
         <v>44251</v>
       </c>
-      <c r="O58">
+      <c r="P58" s="2">
+        <v>44256</v>
+      </c>
+      <c r="R58">
         <v>59</v>
-      </c>
-      <c r="P58" s="2">
-        <v>44169</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>44183</v>
-      </c>
-      <c r="R58" s="2">
-        <v>44256</v>
       </c>
       <c r="S58" s="2">
         <v>44169</v>
@@ -6180,23 +6180,23 @@
       <c r="K59" s="2">
         <v>44169</v>
       </c>
+      <c r="L59" s="2">
+        <v>44173</v>
+      </c>
       <c r="M59" s="2">
+        <v>44209</v>
+      </c>
+      <c r="O59" s="2">
         <v>44252.7380787037</v>
       </c>
-      <c r="O59">
+      <c r="P59" s="2">
+        <v>44256</v>
+      </c>
+      <c r="R59">
         <v>59</v>
       </c>
-      <c r="P59" s="2">
+      <c r="S59" s="2">
         <v>44176</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>44209</v>
-      </c>
-      <c r="R59" s="2">
-        <v>44256</v>
-      </c>
-      <c r="S59" s="2">
-        <v>44173</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -6233,23 +6233,23 @@
       <c r="K60" s="2">
         <v>44169</v>
       </c>
+      <c r="L60" s="2">
+        <v>44172</v>
+      </c>
       <c r="M60" s="2">
+        <v>44242</v>
+      </c>
+      <c r="O60" s="2">
         <v>44263.44934027778</v>
       </c>
-      <c r="O60">
+      <c r="P60" s="2">
+        <v>44263</v>
+      </c>
+      <c r="R60">
         <v>64</v>
       </c>
-      <c r="P60" s="2">
+      <c r="S60" s="2">
         <v>44229</v>
-      </c>
-      <c r="Q60" s="2">
-        <v>44242</v>
-      </c>
-      <c r="R60" s="2">
-        <v>44263</v>
-      </c>
-      <c r="S60" s="2">
-        <v>44172</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -6286,23 +6286,23 @@
       <c r="K61" s="2">
         <v>44173</v>
       </c>
+      <c r="L61" s="2">
+        <v>44174</v>
+      </c>
       <c r="M61" s="2">
+        <v>44193</v>
+      </c>
+      <c r="O61" s="2">
         <v>44258</v>
       </c>
-      <c r="O61">
+      <c r="P61" s="2">
+        <v>44259</v>
+      </c>
+      <c r="R61">
         <v>60</v>
       </c>
-      <c r="P61" s="2">
+      <c r="S61" s="2">
         <v>44173</v>
-      </c>
-      <c r="Q61" s="2">
-        <v>44193</v>
-      </c>
-      <c r="R61" s="2">
-        <v>44259</v>
-      </c>
-      <c r="S61" s="2">
-        <v>44174</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -6339,20 +6339,20 @@
       <c r="K62" s="2">
         <v>44173</v>
       </c>
+      <c r="L62" s="2">
+        <v>44173</v>
+      </c>
       <c r="M62" s="2">
+        <v>44216</v>
+      </c>
+      <c r="O62" s="2">
         <v>44280</v>
       </c>
-      <c r="O62">
+      <c r="P62" s="2">
+        <v>44281</v>
+      </c>
+      <c r="R62">
         <v>76</v>
-      </c>
-      <c r="P62" s="2">
-        <v>44173</v>
-      </c>
-      <c r="Q62" s="2">
-        <v>44216</v>
-      </c>
-      <c r="R62" s="2">
-        <v>44281</v>
       </c>
       <c r="S62" s="2">
         <v>44173</v>
@@ -6392,23 +6392,23 @@
       <c r="K63" s="2">
         <v>44174</v>
       </c>
+      <c r="L63" s="2">
+        <v>44174</v>
+      </c>
       <c r="M63" s="2">
+        <v>44211</v>
+      </c>
+      <c r="O63" s="2">
         <v>44235.68040509259</v>
       </c>
-      <c r="O63">
+      <c r="P63" s="2">
+        <v>44257</v>
+      </c>
+      <c r="R63">
         <v>57</v>
       </c>
-      <c r="P63" s="2">
+      <c r="S63" s="2">
         <v>44175</v>
-      </c>
-      <c r="Q63" s="2">
-        <v>44211</v>
-      </c>
-      <c r="R63" s="2">
-        <v>44257</v>
-      </c>
-      <c r="S63" s="2">
-        <v>44174</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -6445,23 +6445,23 @@
       <c r="K64" s="2">
         <v>44174</v>
       </c>
+      <c r="L64" s="2">
+        <v>44174</v>
+      </c>
       <c r="M64" s="2">
+        <v>44211</v>
+      </c>
+      <c r="O64" s="2">
         <v>44256.70974537037</v>
       </c>
-      <c r="O64">
+      <c r="P64" s="2">
+        <v>44257</v>
+      </c>
+      <c r="R64">
         <v>57</v>
       </c>
-      <c r="P64" s="2">
+      <c r="S64" s="2">
         <v>44175</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>44211</v>
-      </c>
-      <c r="R64" s="2">
-        <v>44257</v>
-      </c>
-      <c r="S64" s="2">
-        <v>44174</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -6498,20 +6498,20 @@
       <c r="K65" s="2">
         <v>44174</v>
       </c>
+      <c r="L65" s="2">
+        <v>44174</v>
+      </c>
       <c r="M65" s="2">
+        <v>44249</v>
+      </c>
+      <c r="O65" s="2">
         <v>44271</v>
       </c>
-      <c r="O65">
+      <c r="P65" s="2">
+        <v>44274</v>
+      </c>
+      <c r="R65">
         <v>70</v>
-      </c>
-      <c r="P65" s="2">
-        <v>44174</v>
-      </c>
-      <c r="Q65" s="2">
-        <v>44249</v>
-      </c>
-      <c r="R65" s="2">
-        <v>44274</v>
       </c>
       <c r="S65" s="2">
         <v>44174</v>
@@ -6551,23 +6551,23 @@
       <c r="K66" s="2">
         <v>44174</v>
       </c>
+      <c r="L66" s="2">
+        <v>44175</v>
+      </c>
       <c r="M66" s="2">
+        <v>44204</v>
+      </c>
+      <c r="O66" s="2">
         <v>44264</v>
       </c>
-      <c r="O66">
+      <c r="P66" s="2">
+        <v>44265</v>
+      </c>
+      <c r="R66">
         <v>63</v>
       </c>
-      <c r="P66" s="2">
+      <c r="S66" s="2">
         <v>44174</v>
-      </c>
-      <c r="Q66" s="2">
-        <v>44204</v>
-      </c>
-      <c r="R66" s="2">
-        <v>44265</v>
-      </c>
-      <c r="S66" s="2">
-        <v>44175</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -6604,23 +6604,23 @@
       <c r="K67" s="2">
         <v>44174</v>
       </c>
+      <c r="L67" s="2">
+        <v>44175</v>
+      </c>
       <c r="M67" s="2">
+        <v>44201</v>
+      </c>
+      <c r="O67" s="2">
         <v>44264</v>
       </c>
-      <c r="O67">
+      <c r="P67" s="2">
+        <v>44265</v>
+      </c>
+      <c r="R67">
         <v>63</v>
       </c>
-      <c r="P67" s="2">
+      <c r="S67" s="2">
         <v>44174</v>
-      </c>
-      <c r="Q67" s="2">
-        <v>44201</v>
-      </c>
-      <c r="R67" s="2">
-        <v>44265</v>
-      </c>
-      <c r="S67" s="2">
-        <v>44175</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -6657,23 +6657,23 @@
       <c r="K68" s="2">
         <v>44174</v>
       </c>
+      <c r="L68" s="2">
+        <v>44175</v>
+      </c>
       <c r="M68" s="2">
+        <v>44200</v>
+      </c>
+      <c r="O68" s="2">
         <v>44281</v>
       </c>
-      <c r="O68">
+      <c r="P68" s="2">
+        <v>44284</v>
+      </c>
+      <c r="R68">
         <v>76</v>
       </c>
-      <c r="P68" s="2">
+      <c r="S68" s="2">
         <v>44174</v>
-      </c>
-      <c r="Q68" s="2">
-        <v>44200</v>
-      </c>
-      <c r="R68" s="2">
-        <v>44284</v>
-      </c>
-      <c r="S68" s="2">
-        <v>44175</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -6710,23 +6710,23 @@
       <c r="K69" s="2">
         <v>44174</v>
       </c>
+      <c r="L69" s="2">
+        <v>44175</v>
+      </c>
       <c r="M69" s="2">
+        <v>44210</v>
+      </c>
+      <c r="O69" s="2">
         <v>44281.54559027778</v>
       </c>
-      <c r="O69">
+      <c r="P69" s="2">
+        <v>44284</v>
+      </c>
+      <c r="R69">
         <v>76</v>
       </c>
-      <c r="P69" s="2">
+      <c r="S69" s="2">
         <v>44174</v>
-      </c>
-      <c r="Q69" s="2">
-        <v>44210</v>
-      </c>
-      <c r="R69" s="2">
-        <v>44284</v>
-      </c>
-      <c r="S69" s="2">
-        <v>44175</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -6763,23 +6763,23 @@
       <c r="K70" s="2">
         <v>44174</v>
       </c>
+      <c r="L70" s="2">
+        <v>44174</v>
+      </c>
       <c r="M70" s="2">
+        <v>44200</v>
+      </c>
+      <c r="O70" s="2">
         <v>44252.46796296296</v>
       </c>
-      <c r="O70">
+      <c r="P70" s="2">
+        <v>44256</v>
+      </c>
+      <c r="R70">
         <v>56</v>
       </c>
-      <c r="P70" s="2">
+      <c r="S70" s="2">
         <v>44176</v>
-      </c>
-      <c r="Q70" s="2">
-        <v>44200</v>
-      </c>
-      <c r="R70" s="2">
-        <v>44256</v>
-      </c>
-      <c r="S70" s="2">
-        <v>44174</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -6813,20 +6813,20 @@
       <c r="K71" s="2">
         <v>44174</v>
       </c>
+      <c r="L71" s="2">
+        <v>44174</v>
+      </c>
       <c r="M71" s="2">
+        <v>44224</v>
+      </c>
+      <c r="O71" s="2">
         <v>44266.60719907407</v>
       </c>
-      <c r="O71">
+      <c r="P71" s="2">
+        <v>44270</v>
+      </c>
+      <c r="R71">
         <v>66</v>
-      </c>
-      <c r="P71" s="2">
-        <v>44174</v>
-      </c>
-      <c r="Q71" s="2">
-        <v>44224</v>
-      </c>
-      <c r="R71" s="2">
-        <v>44270</v>
       </c>
       <c r="S71" s="2">
         <v>44174</v>
@@ -6866,23 +6866,23 @@
       <c r="K72" s="2">
         <v>44176</v>
       </c>
+      <c r="L72" s="2">
+        <v>44179</v>
+      </c>
       <c r="M72" s="2">
+        <v>44201</v>
+      </c>
+      <c r="O72" s="2">
         <v>44274</v>
       </c>
-      <c r="O72">
+      <c r="P72" s="2">
+        <v>44277</v>
+      </c>
+      <c r="R72">
         <v>69</v>
       </c>
-      <c r="P72" s="2">
+      <c r="S72" s="2">
         <v>44176</v>
-      </c>
-      <c r="Q72" s="2">
-        <v>44201</v>
-      </c>
-      <c r="R72" s="2">
-        <v>44277</v>
-      </c>
-      <c r="S72" s="2">
-        <v>44179</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -6919,23 +6919,23 @@
       <c r="K73" s="2">
         <v>44180</v>
       </c>
+      <c r="L73" s="2">
+        <v>44181</v>
+      </c>
       <c r="M73" s="2">
+        <v>44208</v>
+      </c>
+      <c r="O73" s="2">
         <v>44281.56648148148</v>
       </c>
-      <c r="O73">
+      <c r="P73" s="2">
+        <v>44284</v>
+      </c>
+      <c r="R73">
         <v>72</v>
       </c>
-      <c r="P73" s="2">
+      <c r="S73" s="2">
         <v>44180</v>
-      </c>
-      <c r="Q73" s="2">
-        <v>44208</v>
-      </c>
-      <c r="R73" s="2">
-        <v>44284</v>
-      </c>
-      <c r="S73" s="2">
-        <v>44181</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -6972,23 +6972,23 @@
       <c r="K74" s="2">
         <v>44180</v>
       </c>
+      <c r="L74" s="2">
+        <v>44181</v>
+      </c>
       <c r="M74" s="2">
+        <v>44203</v>
+      </c>
+      <c r="O74" s="2">
         <v>44250.52288194445</v>
       </c>
-      <c r="O74">
+      <c r="P74" s="2">
+        <v>44256</v>
+      </c>
+      <c r="R74">
         <v>52</v>
       </c>
-      <c r="P74" s="2">
+      <c r="S74" s="2">
         <v>44180</v>
-      </c>
-      <c r="Q74" s="2">
-        <v>44203</v>
-      </c>
-      <c r="R74" s="2">
-        <v>44256</v>
-      </c>
-      <c r="S74" s="2">
-        <v>44181</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -7025,23 +7025,23 @@
       <c r="K75" s="2">
         <v>44180</v>
       </c>
+      <c r="L75" s="2">
+        <v>44183</v>
+      </c>
       <c r="M75" s="2">
+        <v>44209</v>
+      </c>
+      <c r="O75" s="2">
         <v>44280</v>
       </c>
-      <c r="O75">
+      <c r="P75" s="2">
+        <v>44284</v>
+      </c>
+      <c r="R75">
         <v>72</v>
       </c>
-      <c r="P75" s="2">
+      <c r="S75" s="2">
         <v>44180</v>
-      </c>
-      <c r="Q75" s="2">
-        <v>44209</v>
-      </c>
-      <c r="R75" s="2">
-        <v>44284</v>
-      </c>
-      <c r="S75" s="2">
-        <v>44183</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -7078,23 +7078,23 @@
       <c r="K76" s="2">
         <v>44180</v>
       </c>
+      <c r="L76" s="2">
+        <v>44183</v>
+      </c>
       <c r="M76" s="2">
+        <v>44200</v>
+      </c>
+      <c r="O76" s="2">
         <v>44229.61144675926</v>
       </c>
-      <c r="O76">
+      <c r="P76" s="2">
+        <v>44258</v>
+      </c>
+      <c r="R76">
         <v>54</v>
       </c>
-      <c r="P76" s="2">
+      <c r="S76" s="2">
         <v>44180</v>
-      </c>
-      <c r="Q76" s="2">
-        <v>44200</v>
-      </c>
-      <c r="R76" s="2">
-        <v>44258</v>
-      </c>
-      <c r="S76" s="2">
-        <v>44183</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -7131,20 +7131,20 @@
       <c r="K77" s="2">
         <v>44181</v>
       </c>
+      <c r="L77" s="2">
+        <v>44181</v>
+      </c>
       <c r="M77" s="2">
+        <v>44224</v>
+      </c>
+      <c r="O77" s="2">
         <v>44253.61651620371</v>
       </c>
-      <c r="O77">
+      <c r="P77" s="2">
+        <v>44260</v>
+      </c>
+      <c r="R77">
         <v>55</v>
-      </c>
-      <c r="P77" s="2">
-        <v>44181</v>
-      </c>
-      <c r="Q77" s="2">
-        <v>44224</v>
-      </c>
-      <c r="R77" s="2">
-        <v>44260</v>
       </c>
       <c r="S77" s="2">
         <v>44181</v>
@@ -7184,23 +7184,23 @@
       <c r="K78" s="2">
         <v>44182</v>
       </c>
+      <c r="L78" s="2">
+        <v>44183</v>
+      </c>
       <c r="M78" s="2">
+        <v>44271</v>
+      </c>
+      <c r="O78" s="2">
         <v>44281.77756944444</v>
       </c>
-      <c r="O78">
+      <c r="P78" s="2">
+        <v>44284</v>
+      </c>
+      <c r="R78">
         <v>70</v>
       </c>
-      <c r="P78" s="2">
+      <c r="S78" s="2">
         <v>44182</v>
-      </c>
-      <c r="Q78" s="2">
-        <v>44271</v>
-      </c>
-      <c r="R78" s="2">
-        <v>44284</v>
-      </c>
-      <c r="S78" s="2">
-        <v>44183</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -7237,23 +7237,23 @@
       <c r="K79" s="2">
         <v>44186</v>
       </c>
+      <c r="L79" s="2">
+        <v>44189</v>
+      </c>
       <c r="M79" s="2">
+        <v>44215</v>
+      </c>
+      <c r="O79" s="2">
         <v>44263.59090277777</v>
       </c>
-      <c r="O79">
+      <c r="P79" s="2">
+        <v>44265</v>
+      </c>
+      <c r="R79">
         <v>55</v>
       </c>
-      <c r="P79" s="2">
+      <c r="S79" s="2">
         <v>44186</v>
-      </c>
-      <c r="Q79" s="2">
-        <v>44215</v>
-      </c>
-      <c r="R79" s="2">
-        <v>44265</v>
-      </c>
-      <c r="S79" s="2">
-        <v>44189</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -7290,20 +7290,20 @@
       <c r="K80" s="2">
         <v>44186</v>
       </c>
+      <c r="L80" s="2">
+        <v>44186</v>
+      </c>
       <c r="M80" s="2">
+        <v>44238</v>
+      </c>
+      <c r="O80" s="2">
         <v>44256.93991898148</v>
       </c>
-      <c r="O80">
+      <c r="P80" s="2">
+        <v>44263</v>
+      </c>
+      <c r="R80">
         <v>53</v>
-      </c>
-      <c r="P80" s="2">
-        <v>44186</v>
-      </c>
-      <c r="Q80" s="2">
-        <v>44238</v>
-      </c>
-      <c r="R80" s="2">
-        <v>44263</v>
       </c>
       <c r="S80" s="2">
         <v>44186</v>
@@ -7343,23 +7343,23 @@
       <c r="K81" s="2">
         <v>44186</v>
       </c>
+      <c r="L81" s="2">
+        <v>44187</v>
+      </c>
       <c r="M81" s="2">
+        <v>44210</v>
+      </c>
+      <c r="O81" s="2">
         <v>44230.60927083333</v>
       </c>
-      <c r="O81">
+      <c r="P81" s="2">
+        <v>44272</v>
+      </c>
+      <c r="R81">
         <v>60</v>
       </c>
-      <c r="P81" s="2">
+      <c r="S81" s="2">
         <v>44186</v>
-      </c>
-      <c r="Q81" s="2">
-        <v>44210</v>
-      </c>
-      <c r="R81" s="2">
-        <v>44272</v>
-      </c>
-      <c r="S81" s="2">
-        <v>44187</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -7396,20 +7396,20 @@
       <c r="K82" s="2">
         <v>44186</v>
       </c>
+      <c r="L82" s="2">
+        <v>44186</v>
+      </c>
       <c r="M82" s="2">
+        <v>44202</v>
+      </c>
+      <c r="O82" s="2">
         <v>44270</v>
       </c>
-      <c r="O82">
+      <c r="P82" s="2">
+        <v>44272</v>
+      </c>
+      <c r="R82">
         <v>60</v>
-      </c>
-      <c r="P82" s="2">
-        <v>44186</v>
-      </c>
-      <c r="Q82" s="2">
-        <v>44202</v>
-      </c>
-      <c r="R82" s="2">
-        <v>44272</v>
       </c>
       <c r="S82" s="2">
         <v>44186</v>
@@ -7449,23 +7449,23 @@
       <c r="K83" s="2">
         <v>44186</v>
       </c>
+      <c r="L83" s="2">
+        <v>44186</v>
+      </c>
       <c r="M83" s="2">
+        <v>44210</v>
+      </c>
+      <c r="O83" s="2">
         <v>44271</v>
       </c>
-      <c r="O83">
+      <c r="P83" s="2">
+        <v>44272</v>
+      </c>
+      <c r="R83">
         <v>60</v>
       </c>
-      <c r="P83" s="2">
+      <c r="S83" s="2">
         <v>44188</v>
-      </c>
-      <c r="Q83" s="2">
-        <v>44210</v>
-      </c>
-      <c r="R83" s="2">
-        <v>44272</v>
-      </c>
-      <c r="S83" s="2">
-        <v>44186</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -7502,20 +7502,20 @@
       <c r="K84" s="2">
         <v>44186</v>
       </c>
+      <c r="L84" s="2">
+        <v>44186</v>
+      </c>
       <c r="M84" s="2">
+        <v>44202</v>
+      </c>
+      <c r="O84" s="2">
         <v>44271.56446759259</v>
       </c>
-      <c r="O84">
+      <c r="P84" s="2">
+        <v>44272</v>
+      </c>
+      <c r="R84">
         <v>60</v>
-      </c>
-      <c r="P84" s="2">
-        <v>44186</v>
-      </c>
-      <c r="Q84" s="2">
-        <v>44202</v>
-      </c>
-      <c r="R84" s="2">
-        <v>44272</v>
       </c>
       <c r="S84" s="2">
         <v>44186</v>
@@ -7555,20 +7555,20 @@
       <c r="K85" s="2">
         <v>44186</v>
       </c>
+      <c r="L85" s="2">
+        <v>44186</v>
+      </c>
       <c r="M85" s="2">
+        <v>44202</v>
+      </c>
+      <c r="O85" s="2">
         <v>44270</v>
       </c>
-      <c r="O85">
+      <c r="P85" s="2">
+        <v>44272</v>
+      </c>
+      <c r="R85">
         <v>60</v>
-      </c>
-      <c r="P85" s="2">
-        <v>44186</v>
-      </c>
-      <c r="Q85" s="2">
-        <v>44202</v>
-      </c>
-      <c r="R85" s="2">
-        <v>44272</v>
       </c>
       <c r="S85" s="2">
         <v>44186</v>
@@ -7608,20 +7608,20 @@
       <c r="K86" s="2">
         <v>44186</v>
       </c>
+      <c r="L86" s="2">
+        <v>44186</v>
+      </c>
       <c r="M86" s="2">
+        <v>44208</v>
+      </c>
+      <c r="O86" s="2">
         <v>44271.54359953704</v>
       </c>
-      <c r="O86">
+      <c r="P86" s="2">
+        <v>44272</v>
+      </c>
+      <c r="R86">
         <v>60</v>
-      </c>
-      <c r="P86" s="2">
-        <v>44186</v>
-      </c>
-      <c r="Q86" s="2">
-        <v>44208</v>
-      </c>
-      <c r="R86" s="2">
-        <v>44272</v>
       </c>
       <c r="S86" s="2">
         <v>44186</v>
@@ -7661,23 +7661,23 @@
       <c r="K87" s="2">
         <v>44187</v>
       </c>
+      <c r="L87" s="2">
+        <v>44189</v>
+      </c>
       <c r="M87" s="2">
+        <v>44249</v>
+      </c>
+      <c r="O87" s="2">
         <v>44256.658125</v>
       </c>
-      <c r="O87">
+      <c r="P87" s="2">
+        <v>44260</v>
+      </c>
+      <c r="R87">
         <v>51</v>
       </c>
-      <c r="P87" s="2">
+      <c r="S87" s="2">
         <v>44187</v>
-      </c>
-      <c r="Q87" s="2">
-        <v>44249</v>
-      </c>
-      <c r="R87" s="2">
-        <v>44260</v>
-      </c>
-      <c r="S87" s="2">
-        <v>44189</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -7714,23 +7714,23 @@
       <c r="K88" s="2">
         <v>44187</v>
       </c>
+      <c r="L88" s="2">
+        <v>44189</v>
+      </c>
       <c r="M88" s="2">
+        <v>44223</v>
+      </c>
+      <c r="O88" s="2">
         <v>44285</v>
       </c>
-      <c r="O88">
+      <c r="P88" s="2">
+        <v>44286</v>
+      </c>
+      <c r="R88">
         <v>69</v>
       </c>
-      <c r="P88" s="2">
+      <c r="S88" s="2">
         <v>44187</v>
-      </c>
-      <c r="Q88" s="2">
-        <v>44223</v>
-      </c>
-      <c r="R88" s="2">
-        <v>44286</v>
-      </c>
-      <c r="S88" s="2">
-        <v>44189</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -7767,20 +7767,20 @@
       <c r="K89" s="2">
         <v>44187</v>
       </c>
+      <c r="L89" s="2">
+        <v>44187</v>
+      </c>
       <c r="M89" s="2">
+        <v>44203</v>
+      </c>
+      <c r="O89" s="2">
         <v>44258</v>
       </c>
-      <c r="O89">
+      <c r="P89" s="2">
+        <v>44259</v>
+      </c>
+      <c r="R89">
         <v>50</v>
-      </c>
-      <c r="P89" s="2">
-        <v>44187</v>
-      </c>
-      <c r="Q89" s="2">
-        <v>44203</v>
-      </c>
-      <c r="R89" s="2">
-        <v>44259</v>
       </c>
       <c r="S89" s="2">
         <v>44187</v>
@@ -7820,20 +7820,20 @@
       <c r="K90" s="2">
         <v>44187</v>
       </c>
+      <c r="L90" s="2">
+        <v>44187</v>
+      </c>
       <c r="M90" s="2">
+        <v>44257</v>
+      </c>
+      <c r="O90" s="2">
         <v>44258.56028935185</v>
       </c>
-      <c r="O90">
+      <c r="P90" s="2">
+        <v>44258</v>
+      </c>
+      <c r="R90">
         <v>49</v>
-      </c>
-      <c r="P90" s="2">
-        <v>44187</v>
-      </c>
-      <c r="Q90" s="2">
-        <v>44257</v>
-      </c>
-      <c r="R90" s="2">
-        <v>44258</v>
       </c>
       <c r="S90" s="2">
         <v>44187</v>
@@ -7873,20 +7873,20 @@
       <c r="K91" s="2">
         <v>44187</v>
       </c>
+      <c r="L91" s="2">
+        <v>44187</v>
+      </c>
       <c r="M91" s="2">
+        <v>44253</v>
+      </c>
+      <c r="O91" s="2">
         <v>44258.60202546296</v>
       </c>
-      <c r="O91">
+      <c r="P91" s="2">
+        <v>44258</v>
+      </c>
+      <c r="R91">
         <v>49</v>
-      </c>
-      <c r="P91" s="2">
-        <v>44187</v>
-      </c>
-      <c r="Q91" s="2">
-        <v>44253</v>
-      </c>
-      <c r="R91" s="2">
-        <v>44258</v>
       </c>
       <c r="S91" s="2">
         <v>44187</v>
@@ -7923,14 +7923,14 @@
       <c r="K92" s="2">
         <v>44193</v>
       </c>
-      <c r="O92">
+      <c r="L92" s="2">
+        <v>44194</v>
+      </c>
+      <c r="P92" s="2">
+        <v>44258</v>
+      </c>
+      <c r="R92">
         <v>46</v>
-      </c>
-      <c r="R92" s="2">
-        <v>44258</v>
-      </c>
-      <c r="S92" s="2">
-        <v>44194</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -7964,20 +7964,20 @@
       <c r="K93" s="2">
         <v>44194</v>
       </c>
+      <c r="L93" s="2">
+        <v>44194</v>
+      </c>
       <c r="M93" s="2">
+        <v>44218</v>
+      </c>
+      <c r="O93" s="2">
         <v>44263</v>
       </c>
-      <c r="O93">
+      <c r="P93" s="2">
+        <v>44264</v>
+      </c>
+      <c r="R93">
         <v>49</v>
-      </c>
-      <c r="P93" s="2">
-        <v>44194</v>
-      </c>
-      <c r="Q93" s="2">
-        <v>44218</v>
-      </c>
-      <c r="R93" s="2">
-        <v>44264</v>
       </c>
       <c r="S93" s="2">
         <v>44194</v>
@@ -8017,23 +8017,23 @@
       <c r="K94" s="2">
         <v>44195</v>
       </c>
+      <c r="L94" s="2">
+        <v>44196</v>
+      </c>
       <c r="M94" s="2">
+        <v>44208</v>
+      </c>
+      <c r="O94" s="2">
         <v>44258</v>
       </c>
-      <c r="O94">
+      <c r="P94" s="2">
+        <v>44260</v>
+      </c>
+      <c r="R94">
         <v>46</v>
       </c>
-      <c r="P94" s="2">
+      <c r="S94" s="2">
         <v>44195</v>
-      </c>
-      <c r="Q94" s="2">
-        <v>44208</v>
-      </c>
-      <c r="R94" s="2">
-        <v>44260</v>
-      </c>
-      <c r="S94" s="2">
-        <v>44196</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -8067,23 +8067,23 @@
       <c r="K95" s="2">
         <v>44200</v>
       </c>
+      <c r="L95" s="2">
+        <v>44200</v>
+      </c>
       <c r="M95" s="2">
+        <v>44271</v>
+      </c>
+      <c r="O95" s="2">
         <v>44279.72122685185</v>
       </c>
-      <c r="O95">
+      <c r="P95" s="2">
+        <v>44279</v>
+      </c>
+      <c r="R95">
         <v>57</v>
       </c>
-      <c r="P95" s="2">
+      <c r="S95" s="2">
         <v>44203</v>
-      </c>
-      <c r="Q95" s="2">
-        <v>44271</v>
-      </c>
-      <c r="R95" s="2">
-        <v>44279</v>
-      </c>
-      <c r="S95" s="2">
-        <v>44200</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -8120,23 +8120,23 @@
       <c r="K96" s="2">
         <v>44200</v>
       </c>
+      <c r="L96" s="2">
+        <v>44207</v>
+      </c>
       <c r="M96" s="2">
+        <v>44229</v>
+      </c>
+      <c r="O96" s="2">
         <v>44271.71231481482</v>
       </c>
-      <c r="O96">
+      <c r="P96" s="2">
+        <v>44273</v>
+      </c>
+      <c r="R96">
         <v>53</v>
       </c>
-      <c r="P96" s="2">
+      <c r="S96" s="2">
         <v>44200</v>
-      </c>
-      <c r="Q96" s="2">
-        <v>44229</v>
-      </c>
-      <c r="R96" s="2">
-        <v>44273</v>
-      </c>
-      <c r="S96" s="2">
-        <v>44207</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -8170,14 +8170,14 @@
       <c r="K97" s="2">
         <v>44201</v>
       </c>
-      <c r="O97">
+      <c r="L97" s="2">
+        <v>44203</v>
+      </c>
+      <c r="P97" s="2">
+        <v>44260</v>
+      </c>
+      <c r="R97">
         <v>43</v>
-      </c>
-      <c r="R97" s="2">
-        <v>44260</v>
-      </c>
-      <c r="S97" s="2">
-        <v>44203</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -8214,23 +8214,23 @@
       <c r="K98" s="2">
         <v>44201</v>
       </c>
+      <c r="L98" s="2">
+        <v>44201</v>
+      </c>
       <c r="M98" s="2">
+        <v>44271</v>
+      </c>
+      <c r="O98" s="2">
         <v>44271.7078125</v>
       </c>
-      <c r="O98">
+      <c r="P98" s="2">
+        <v>44271</v>
+      </c>
+      <c r="R98">
         <v>50</v>
       </c>
-      <c r="P98" s="2">
+      <c r="S98" s="2">
         <v>44203</v>
-      </c>
-      <c r="Q98" s="2">
-        <v>44271</v>
-      </c>
-      <c r="R98" s="2">
-        <v>44271</v>
-      </c>
-      <c r="S98" s="2">
-        <v>44201</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -8267,23 +8267,23 @@
       <c r="K99" s="2">
         <v>44201</v>
       </c>
+      <c r="L99" s="2">
+        <v>44201</v>
+      </c>
       <c r="M99" s="2">
+        <v>44235</v>
+      </c>
+      <c r="O99" s="2">
         <v>44267</v>
       </c>
-      <c r="O99">
+      <c r="P99" s="2">
+        <v>44273</v>
+      </c>
+      <c r="R99">
         <v>52</v>
       </c>
-      <c r="P99" s="2">
+      <c r="S99" s="2">
         <v>44204</v>
-      </c>
-      <c r="Q99" s="2">
-        <v>44235</v>
-      </c>
-      <c r="R99" s="2">
-        <v>44273</v>
-      </c>
-      <c r="S99" s="2">
-        <v>44201</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -8320,20 +8320,20 @@
       <c r="K100" s="2">
         <v>44202</v>
       </c>
+      <c r="L100" s="2">
+        <v>44202</v>
+      </c>
       <c r="M100" s="2">
+        <v>44225</v>
+      </c>
+      <c r="O100" s="2">
         <v>44265.73453703704</v>
       </c>
-      <c r="O100">
+      <c r="P100" s="2">
+        <v>44266</v>
+      </c>
+      <c r="R100">
         <v>46</v>
-      </c>
-      <c r="P100" s="2">
-        <v>44202</v>
-      </c>
-      <c r="Q100" s="2">
-        <v>44225</v>
-      </c>
-      <c r="R100" s="2">
-        <v>44266</v>
       </c>
       <c r="S100" s="2">
         <v>44202</v>
@@ -8373,23 +8373,23 @@
       <c r="K101" s="2">
         <v>44202</v>
       </c>
+      <c r="L101" s="2">
+        <v>44202</v>
+      </c>
       <c r="M101" s="2">
+        <v>44249</v>
+      </c>
+      <c r="O101" s="2">
         <v>44264</v>
       </c>
-      <c r="O101">
+      <c r="P101" s="2">
+        <v>44266</v>
+      </c>
+      <c r="R101">
         <v>46</v>
       </c>
-      <c r="P101" s="2">
+      <c r="S101" s="2">
         <v>44203</v>
-      </c>
-      <c r="Q101" s="2">
-        <v>44249</v>
-      </c>
-      <c r="R101" s="2">
-        <v>44266</v>
-      </c>
-      <c r="S101" s="2">
-        <v>44202</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -8426,23 +8426,23 @@
       <c r="K102" s="2">
         <v>44202</v>
       </c>
+      <c r="L102" s="2">
+        <v>44203</v>
+      </c>
       <c r="M102" s="2">
+        <v>44218</v>
+      </c>
+      <c r="O102" s="2">
         <v>44229.45686342593</v>
       </c>
-      <c r="O102">
+      <c r="P102" s="2">
+        <v>44281</v>
+      </c>
+      <c r="R102">
         <v>57</v>
       </c>
-      <c r="P102" s="2">
+      <c r="S102" s="2">
         <v>44202</v>
-      </c>
-      <c r="Q102" s="2">
-        <v>44218</v>
-      </c>
-      <c r="R102" s="2">
-        <v>44281</v>
-      </c>
-      <c r="S102" s="2">
-        <v>44203</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -8479,23 +8479,23 @@
       <c r="K103" s="2">
         <v>44203</v>
       </c>
+      <c r="L103" s="2">
+        <v>44204</v>
+      </c>
       <c r="M103" s="2">
+        <v>44222</v>
+      </c>
+      <c r="O103" s="2">
         <v>44239.60224537037</v>
       </c>
-      <c r="O103">
+      <c r="P103" s="2">
+        <v>44259</v>
+      </c>
+      <c r="R103">
         <v>40</v>
       </c>
-      <c r="P103" s="2">
+      <c r="S103" s="2">
         <v>44203</v>
-      </c>
-      <c r="Q103" s="2">
-        <v>44222</v>
-      </c>
-      <c r="R103" s="2">
-        <v>44259</v>
-      </c>
-      <c r="S103" s="2">
-        <v>44204</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -8532,23 +8532,23 @@
       <c r="K104" s="2">
         <v>44203</v>
       </c>
+      <c r="L104" s="2">
+        <v>44204</v>
+      </c>
       <c r="M104" s="2">
+        <v>44221</v>
+      </c>
+      <c r="O104" s="2">
         <v>44257.73560185185</v>
       </c>
-      <c r="O104">
+      <c r="P104" s="2">
+        <v>44258</v>
+      </c>
+      <c r="R104">
         <v>39</v>
       </c>
-      <c r="P104" s="2">
+      <c r="S104" s="2">
         <v>44203</v>
-      </c>
-      <c r="Q104" s="2">
-        <v>44221</v>
-      </c>
-      <c r="R104" s="2">
-        <v>44258</v>
-      </c>
-      <c r="S104" s="2">
-        <v>44204</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -8585,20 +8585,20 @@
       <c r="K105" s="2">
         <v>44203</v>
       </c>
+      <c r="L105" s="2">
+        <v>44203</v>
+      </c>
       <c r="M105" s="2">
+        <v>44239</v>
+      </c>
+      <c r="O105" s="2">
         <v>44256.45877314815</v>
       </c>
-      <c r="O105">
+      <c r="P105" s="2">
+        <v>44274</v>
+      </c>
+      <c r="R105">
         <v>51</v>
-      </c>
-      <c r="P105" s="2">
-        <v>44203</v>
-      </c>
-      <c r="Q105" s="2">
-        <v>44239</v>
-      </c>
-      <c r="R105" s="2">
-        <v>44274</v>
       </c>
       <c r="S105" s="2">
         <v>44203</v>
@@ -8638,23 +8638,23 @@
       <c r="K106" s="2">
         <v>44204</v>
       </c>
+      <c r="L106" s="2">
+        <v>44207</v>
+      </c>
       <c r="M106" s="2">
+        <v>44224</v>
+      </c>
+      <c r="O106" s="2">
         <v>44279</v>
       </c>
-      <c r="O106">
+      <c r="P106" s="2">
+        <v>44279</v>
+      </c>
+      <c r="R106">
         <v>53</v>
       </c>
-      <c r="P106" s="2">
+      <c r="S106" s="2">
         <v>44216</v>
-      </c>
-      <c r="Q106" s="2">
-        <v>44224</v>
-      </c>
-      <c r="R106" s="2">
-        <v>44279</v>
-      </c>
-      <c r="S106" s="2">
-        <v>44207</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -8688,14 +8688,14 @@
       <c r="K107" s="2">
         <v>44204</v>
       </c>
-      <c r="O107">
+      <c r="L107" s="2">
+        <v>44207</v>
+      </c>
+      <c r="P107" s="2">
+        <v>44273</v>
+      </c>
+      <c r="R107">
         <v>49</v>
-      </c>
-      <c r="R107" s="2">
-        <v>44273</v>
-      </c>
-      <c r="S107" s="2">
-        <v>44207</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -8732,23 +8732,23 @@
       <c r="K108" s="2">
         <v>44204</v>
       </c>
+      <c r="L108" s="2">
+        <v>44210</v>
+      </c>
       <c r="M108" s="2">
+        <v>44238</v>
+      </c>
+      <c r="O108" s="2">
         <v>44252.41491898148</v>
       </c>
-      <c r="O108">
+      <c r="P108" s="2">
+        <v>44258</v>
+      </c>
+      <c r="R108">
         <v>38</v>
       </c>
-      <c r="P108" s="2">
+      <c r="S108" s="2">
         <v>44211</v>
-      </c>
-      <c r="Q108" s="2">
-        <v>44238</v>
-      </c>
-      <c r="R108" s="2">
-        <v>44258</v>
-      </c>
-      <c r="S108" s="2">
-        <v>44210</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -8785,23 +8785,23 @@
       <c r="K109" s="2">
         <v>44204</v>
       </c>
+      <c r="L109" s="2">
+        <v>44204</v>
+      </c>
       <c r="M109" s="2">
+        <v>44225</v>
+      </c>
+      <c r="O109" s="2">
         <v>44249.52410879629</v>
       </c>
-      <c r="O109">
+      <c r="P109" s="2">
+        <v>44274</v>
+      </c>
+      <c r="R109">
         <v>50</v>
       </c>
-      <c r="P109" s="2">
+      <c r="S109" s="2">
         <v>44205</v>
-      </c>
-      <c r="Q109" s="2">
-        <v>44225</v>
-      </c>
-      <c r="R109" s="2">
-        <v>44274</v>
-      </c>
-      <c r="S109" s="2">
-        <v>44204</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -8838,23 +8838,23 @@
       <c r="K110" s="2">
         <v>44204</v>
       </c>
+      <c r="L110" s="2">
+        <v>44211</v>
+      </c>
       <c r="M110" s="2">
+        <v>44233</v>
+      </c>
+      <c r="O110" s="2">
         <v>44273.56706018518</v>
       </c>
-      <c r="O110">
+      <c r="P110" s="2">
+        <v>44274</v>
+      </c>
+      <c r="R110">
         <v>50</v>
       </c>
-      <c r="P110" s="2">
+      <c r="S110" s="2">
         <v>44204</v>
-      </c>
-      <c r="Q110" s="2">
-        <v>44233</v>
-      </c>
-      <c r="R110" s="2">
-        <v>44274</v>
-      </c>
-      <c r="S110" s="2">
-        <v>44211</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -8888,17 +8888,17 @@
       <c r="K111" s="2">
         <v>44207</v>
       </c>
-      <c r="M111" s="2">
+      <c r="L111" s="2">
+        <v>44207</v>
+      </c>
+      <c r="O111" s="2">
         <v>44264</v>
       </c>
-      <c r="O111">
+      <c r="P111" s="2">
+        <v>44264</v>
+      </c>
+      <c r="R111">
         <v>41</v>
-      </c>
-      <c r="R111" s="2">
-        <v>44264</v>
-      </c>
-      <c r="S111" s="2">
-        <v>44207</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -8935,23 +8935,23 @@
       <c r="K112" s="2">
         <v>44208</v>
       </c>
+      <c r="L112" s="2">
+        <v>44211</v>
+      </c>
       <c r="M112" s="2">
+        <v>44224</v>
+      </c>
+      <c r="O112" s="2">
         <v>44252</v>
       </c>
-      <c r="O112">
+      <c r="P112" s="2">
+        <v>44270</v>
+      </c>
+      <c r="R112">
         <v>44</v>
       </c>
-      <c r="P112" s="2">
+      <c r="S112" s="2">
         <v>44208</v>
-      </c>
-      <c r="Q112" s="2">
-        <v>44224</v>
-      </c>
-      <c r="R112" s="2">
-        <v>44270</v>
-      </c>
-      <c r="S112" s="2">
-        <v>44211</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -8988,23 +8988,23 @@
       <c r="K113" s="2">
         <v>44208</v>
       </c>
+      <c r="L113" s="2">
+        <v>44210</v>
+      </c>
       <c r="M113" s="2">
+        <v>44225</v>
+      </c>
+      <c r="O113" s="2">
         <v>44244</v>
       </c>
-      <c r="O113">
+      <c r="P113" s="2">
+        <v>44256</v>
+      </c>
+      <c r="R113">
         <v>34</v>
       </c>
-      <c r="P113" s="2">
+      <c r="S113" s="2">
         <v>44212</v>
-      </c>
-      <c r="Q113" s="2">
-        <v>44225</v>
-      </c>
-      <c r="R113" s="2">
-        <v>44256</v>
-      </c>
-      <c r="S113" s="2">
-        <v>44210</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -9038,17 +9038,17 @@
       <c r="K114" s="2">
         <v>44208</v>
       </c>
-      <c r="M114" s="2">
+      <c r="L114" s="2">
+        <v>44208</v>
+      </c>
+      <c r="O114" s="2">
         <v>44270</v>
       </c>
-      <c r="O114">
+      <c r="P114" s="2">
+        <v>44270</v>
+      </c>
+      <c r="R114">
         <v>44</v>
-      </c>
-      <c r="R114" s="2">
-        <v>44270</v>
-      </c>
-      <c r="S114" s="2">
-        <v>44208</v>
       </c>
     </row>
     <row r="115" spans="1:19">
@@ -9085,14 +9085,14 @@
       <c r="K115" s="2">
         <v>44208</v>
       </c>
-      <c r="O115">
+      <c r="L115" s="2">
+        <v>44209</v>
+      </c>
+      <c r="P115" s="2">
+        <v>44260</v>
+      </c>
+      <c r="R115">
         <v>38</v>
-      </c>
-      <c r="R115" s="2">
-        <v>44260</v>
-      </c>
-      <c r="S115" s="2">
-        <v>44209</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -9129,23 +9129,23 @@
       <c r="K116" s="2">
         <v>44208</v>
       </c>
+      <c r="L116" s="2">
+        <v>44208</v>
+      </c>
       <c r="M116" s="2">
+        <v>44228</v>
+      </c>
+      <c r="O116" s="2">
         <v>44260.450625</v>
       </c>
-      <c r="O116">
+      <c r="P116" s="2">
+        <v>44263</v>
+      </c>
+      <c r="R116">
         <v>39</v>
       </c>
-      <c r="P116" s="2">
+      <c r="S116" s="2">
         <v>44209</v>
-      </c>
-      <c r="Q116" s="2">
-        <v>44228</v>
-      </c>
-      <c r="R116" s="2">
-        <v>44263</v>
-      </c>
-      <c r="S116" s="2">
-        <v>44208</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -9182,23 +9182,23 @@
       <c r="K117" s="2">
         <v>44209</v>
       </c>
+      <c r="L117" s="2">
+        <v>44210</v>
+      </c>
       <c r="M117" s="2">
+        <v>44222</v>
+      </c>
+      <c r="O117" s="2">
         <v>44278.58498842592</v>
       </c>
-      <c r="O117">
+      <c r="P117" s="2">
+        <v>44279</v>
+      </c>
+      <c r="R117">
         <v>50</v>
       </c>
-      <c r="P117" s="2">
+      <c r="S117" s="2">
         <v>44209</v>
-      </c>
-      <c r="Q117" s="2">
-        <v>44222</v>
-      </c>
-      <c r="R117" s="2">
-        <v>44279</v>
-      </c>
-      <c r="S117" s="2">
-        <v>44210</v>
       </c>
     </row>
     <row r="118" spans="1:19">
@@ -9235,20 +9235,20 @@
       <c r="K118" s="2">
         <v>44209</v>
       </c>
+      <c r="L118" s="2">
+        <v>44209</v>
+      </c>
       <c r="M118" s="2">
+        <v>44224</v>
+      </c>
+      <c r="O118" s="2">
         <v>44250</v>
       </c>
-      <c r="O118">
+      <c r="P118" s="2">
+        <v>44257</v>
+      </c>
+      <c r="R118">
         <v>34</v>
-      </c>
-      <c r="P118" s="2">
-        <v>44209</v>
-      </c>
-      <c r="Q118" s="2">
-        <v>44224</v>
-      </c>
-      <c r="R118" s="2">
-        <v>44257</v>
       </c>
       <c r="S118" s="2">
         <v>44209</v>
@@ -9288,23 +9288,23 @@
       <c r="K119" s="2">
         <v>44209</v>
       </c>
+      <c r="L119" s="2">
+        <v>44210</v>
+      </c>
       <c r="M119" s="2">
+        <v>44243</v>
+      </c>
+      <c r="O119" s="2">
         <v>44250.4412962963</v>
       </c>
-      <c r="O119">
+      <c r="P119" s="2">
+        <v>44256</v>
+      </c>
+      <c r="R119">
         <v>33</v>
       </c>
-      <c r="P119" s="2">
+      <c r="S119" s="2">
         <v>44209</v>
-      </c>
-      <c r="Q119" s="2">
-        <v>44243</v>
-      </c>
-      <c r="R119" s="2">
-        <v>44256</v>
-      </c>
-      <c r="S119" s="2">
-        <v>44210</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -9341,23 +9341,23 @@
       <c r="K120" s="2">
         <v>44209</v>
       </c>
+      <c r="L120" s="2">
+        <v>44214</v>
+      </c>
       <c r="M120" s="2">
+        <v>44232</v>
+      </c>
+      <c r="O120" s="2">
         <v>44259</v>
       </c>
-      <c r="O120">
+      <c r="P120" s="2">
+        <v>44260</v>
+      </c>
+      <c r="R120">
         <v>37</v>
       </c>
-      <c r="P120" s="2">
+      <c r="S120" s="2">
         <v>44209</v>
-      </c>
-      <c r="Q120" s="2">
-        <v>44232</v>
-      </c>
-      <c r="R120" s="2">
-        <v>44260</v>
-      </c>
-      <c r="S120" s="2">
-        <v>44214</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -9394,20 +9394,20 @@
       <c r="K121" s="2">
         <v>44209</v>
       </c>
-      <c r="O121">
+      <c r="L121" s="2">
+        <v>44209</v>
+      </c>
+      <c r="M121" s="2">
+        <v>44250</v>
+      </c>
+      <c r="P121" s="2">
+        <v>44272</v>
+      </c>
+      <c r="R121">
         <v>45</v>
       </c>
-      <c r="P121" s="2">
+      <c r="S121" s="2">
         <v>44211</v>
-      </c>
-      <c r="Q121" s="2">
-        <v>44250</v>
-      </c>
-      <c r="R121" s="2">
-        <v>44272</v>
-      </c>
-      <c r="S121" s="2">
-        <v>44209</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -9444,23 +9444,23 @@
       <c r="K122" s="2">
         <v>44209</v>
       </c>
+      <c r="L122" s="2">
+        <v>44210</v>
+      </c>
       <c r="M122" s="2">
+        <v>44251</v>
+      </c>
+      <c r="O122" s="2">
         <v>44260.43951388889</v>
       </c>
-      <c r="O122">
+      <c r="P122" s="2">
+        <v>44271</v>
+      </c>
+      <c r="R122">
         <v>44</v>
       </c>
-      <c r="P122" s="2">
+      <c r="S122" s="2">
         <v>44237</v>
-      </c>
-      <c r="Q122" s="2">
-        <v>44251</v>
-      </c>
-      <c r="R122" s="2">
-        <v>44271</v>
-      </c>
-      <c r="S122" s="2">
-        <v>44210</v>
       </c>
     </row>
     <row r="123" spans="1:19">
@@ -9497,20 +9497,20 @@
       <c r="K123" s="2">
         <v>44209</v>
       </c>
+      <c r="L123" s="2">
+        <v>44209</v>
+      </c>
       <c r="M123" s="2">
+        <v>44221</v>
+      </c>
+      <c r="O123" s="2">
         <v>44271</v>
       </c>
-      <c r="O123">
+      <c r="P123" s="2">
+        <v>44272</v>
+      </c>
+      <c r="R123">
         <v>45</v>
-      </c>
-      <c r="P123" s="2">
-        <v>44209</v>
-      </c>
-      <c r="Q123" s="2">
-        <v>44221</v>
-      </c>
-      <c r="R123" s="2">
-        <v>44272</v>
       </c>
       <c r="S123" s="2">
         <v>44209</v>
@@ -9550,23 +9550,23 @@
       <c r="K124" s="2">
         <v>44210</v>
       </c>
+      <c r="L124" s="2">
+        <v>44215</v>
+      </c>
       <c r="M124" s="2">
+        <v>44222</v>
+      </c>
+      <c r="O124" s="2">
         <v>44266</v>
       </c>
-      <c r="O124">
+      <c r="P124" s="2">
+        <v>44273</v>
+      </c>
+      <c r="R124">
         <v>45</v>
       </c>
-      <c r="P124" s="2">
+      <c r="S124" s="2">
         <v>44210</v>
-      </c>
-      <c r="Q124" s="2">
-        <v>44222</v>
-      </c>
-      <c r="R124" s="2">
-        <v>44273</v>
-      </c>
-      <c r="S124" s="2">
-        <v>44215</v>
       </c>
     </row>
     <row r="125" spans="1:19">
@@ -9600,14 +9600,14 @@
       <c r="K125" s="2">
         <v>44210</v>
       </c>
-      <c r="O125">
+      <c r="L125" s="2">
+        <v>44211</v>
+      </c>
+      <c r="P125" s="2">
+        <v>44257</v>
+      </c>
+      <c r="R125">
         <v>33</v>
-      </c>
-      <c r="R125" s="2">
-        <v>44257</v>
-      </c>
-      <c r="S125" s="2">
-        <v>44211</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -9644,23 +9644,23 @@
       <c r="K126" s="2">
         <v>44210</v>
       </c>
+      <c r="L126" s="2">
+        <v>44211</v>
+      </c>
       <c r="M126" s="2">
+        <v>44278</v>
+      </c>
+      <c r="O126" s="2">
         <v>44278.51577546296</v>
       </c>
-      <c r="O126">
+      <c r="P126" s="2">
+        <v>44279</v>
+      </c>
+      <c r="R126">
         <v>49</v>
       </c>
-      <c r="P126" s="2">
+      <c r="S126" s="2">
         <v>44218</v>
-      </c>
-      <c r="Q126" s="2">
-        <v>44278</v>
-      </c>
-      <c r="R126" s="2">
-        <v>44279</v>
-      </c>
-      <c r="S126" s="2">
-        <v>44211</v>
       </c>
     </row>
     <row r="127" spans="1:19">
@@ -9697,14 +9697,14 @@
       <c r="K127" s="2">
         <v>44210</v>
       </c>
-      <c r="O127">
+      <c r="L127" s="2">
+        <v>44210</v>
+      </c>
+      <c r="P127" s="2">
+        <v>44258</v>
+      </c>
+      <c r="R127">
         <v>34</v>
-      </c>
-      <c r="R127" s="2">
-        <v>44258</v>
-      </c>
-      <c r="S127" s="2">
-        <v>44210</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -9741,20 +9741,20 @@
       <c r="K128" s="2">
         <v>44210</v>
       </c>
+      <c r="L128" s="2">
+        <v>44211</v>
+      </c>
       <c r="M128" s="2">
+        <v>44224</v>
+      </c>
+      <c r="O128" s="2">
         <v>44271</v>
       </c>
-      <c r="O128">
+      <c r="P128" s="2">
+        <v>44272</v>
+      </c>
+      <c r="R128">
         <v>44</v>
-      </c>
-      <c r="P128" s="2">
-        <v>44211</v>
-      </c>
-      <c r="Q128" s="2">
-        <v>44224</v>
-      </c>
-      <c r="R128" s="2">
-        <v>44272</v>
       </c>
       <c r="S128" s="2">
         <v>44211</v>
@@ -9791,20 +9791,20 @@
       <c r="K129" s="2">
         <v>44211</v>
       </c>
+      <c r="L129" s="2">
+        <v>44211</v>
+      </c>
       <c r="M129" s="2">
+        <v>44243</v>
+      </c>
+      <c r="O129" s="2">
         <v>44267.48234953704</v>
       </c>
-      <c r="O129">
+      <c r="P129" s="2">
+        <v>44267</v>
+      </c>
+      <c r="R129">
         <v>40</v>
-      </c>
-      <c r="P129" s="2">
-        <v>44211</v>
-      </c>
-      <c r="Q129" s="2">
-        <v>44243</v>
-      </c>
-      <c r="R129" s="2">
-        <v>44267</v>
       </c>
       <c r="S129" s="2">
         <v>44211</v>
@@ -9844,20 +9844,20 @@
       <c r="K130" s="2">
         <v>44211</v>
       </c>
+      <c r="L130" s="2">
+        <v>44214</v>
+      </c>
       <c r="M130" s="2">
+        <v>44233</v>
+      </c>
+      <c r="O130" s="2">
         <v>44265</v>
       </c>
-      <c r="O130">
+      <c r="P130" s="2">
+        <v>44270</v>
+      </c>
+      <c r="R130">
         <v>41</v>
-      </c>
-      <c r="P130" s="2">
-        <v>44214</v>
-      </c>
-      <c r="Q130" s="2">
-        <v>44233</v>
-      </c>
-      <c r="R130" s="2">
-        <v>44270</v>
       </c>
       <c r="S130" s="2">
         <v>44214</v>
@@ -9897,14 +9897,14 @@
       <c r="K131" s="2">
         <v>44214</v>
       </c>
-      <c r="O131">
+      <c r="L131" s="2">
+        <v>44214</v>
+      </c>
+      <c r="P131" s="2">
+        <v>44260</v>
+      </c>
+      <c r="R131">
         <v>34</v>
-      </c>
-      <c r="R131" s="2">
-        <v>44260</v>
-      </c>
-      <c r="S131" s="2">
-        <v>44214</v>
       </c>
     </row>
     <row r="132" spans="1:19">
@@ -9941,23 +9941,23 @@
       <c r="K132" s="2">
         <v>44214</v>
       </c>
+      <c r="L132" s="2">
+        <v>44214</v>
+      </c>
       <c r="M132" s="2">
+        <v>44229</v>
+      </c>
+      <c r="O132" s="2">
         <v>44266.54266203703</v>
       </c>
-      <c r="O132">
+      <c r="P132" s="2">
+        <v>44270</v>
+      </c>
+      <c r="R132">
         <v>40</v>
       </c>
-      <c r="P132" s="2">
+      <c r="S132" s="2">
         <v>44215</v>
-      </c>
-      <c r="Q132" s="2">
-        <v>44229</v>
-      </c>
-      <c r="R132" s="2">
-        <v>44270</v>
-      </c>
-      <c r="S132" s="2">
-        <v>44214</v>
       </c>
     </row>
     <row r="133" spans="1:19">
@@ -9994,20 +9994,20 @@
       <c r="K133" s="2">
         <v>44214</v>
       </c>
+      <c r="L133" s="2">
+        <v>44214</v>
+      </c>
       <c r="M133" s="2">
+        <v>44228</v>
+      </c>
+      <c r="O133" s="2">
         <v>44239.48740740741</v>
       </c>
-      <c r="O133">
+      <c r="P133" s="2">
+        <v>44266</v>
+      </c>
+      <c r="R133">
         <v>38</v>
-      </c>
-      <c r="P133" s="2">
-        <v>44214</v>
-      </c>
-      <c r="Q133" s="2">
-        <v>44228</v>
-      </c>
-      <c r="R133" s="2">
-        <v>44266</v>
       </c>
       <c r="S133" s="2">
         <v>44214</v>
@@ -10047,23 +10047,23 @@
       <c r="K134" s="2">
         <v>44214</v>
       </c>
+      <c r="L134" s="2">
+        <v>44214</v>
+      </c>
       <c r="M134" s="2">
+        <v>44236</v>
+      </c>
+      <c r="O134" s="2">
         <v>44252.44987268518</v>
       </c>
-      <c r="O134">
+      <c r="P134" s="2">
+        <v>44257</v>
+      </c>
+      <c r="R134">
         <v>31</v>
       </c>
-      <c r="P134" s="2">
+      <c r="S134" s="2">
         <v>44218</v>
-      </c>
-      <c r="Q134" s="2">
-        <v>44236</v>
-      </c>
-      <c r="R134" s="2">
-        <v>44257</v>
-      </c>
-      <c r="S134" s="2">
-        <v>44214</v>
       </c>
     </row>
     <row r="135" spans="1:19">
@@ -10100,20 +10100,20 @@
       <c r="K135" s="2">
         <v>44215</v>
       </c>
+      <c r="L135" s="2">
+        <v>44215</v>
+      </c>
       <c r="M135" s="2">
+        <v>44243</v>
+      </c>
+      <c r="O135" s="2">
         <v>44265</v>
       </c>
-      <c r="O135">
+      <c r="P135" s="2">
+        <v>44271</v>
+      </c>
+      <c r="R135">
         <v>40</v>
-      </c>
-      <c r="P135" s="2">
-        <v>44215</v>
-      </c>
-      <c r="Q135" s="2">
-        <v>44243</v>
-      </c>
-      <c r="R135" s="2">
-        <v>44271</v>
       </c>
       <c r="S135" s="2">
         <v>44215</v>
@@ -10153,23 +10153,23 @@
       <c r="K136" s="2">
         <v>44215</v>
       </c>
+      <c r="L136" s="2">
+        <v>44215</v>
+      </c>
       <c r="M136" s="2">
+        <v>44228</v>
+      </c>
+      <c r="O136" s="2">
         <v>44251</v>
       </c>
-      <c r="O136">
+      <c r="P136" s="2">
+        <v>44256</v>
+      </c>
+      <c r="R136">
         <v>29</v>
       </c>
-      <c r="P136" s="2">
+      <c r="S136" s="2">
         <v>44216</v>
-      </c>
-      <c r="Q136" s="2">
-        <v>44228</v>
-      </c>
-      <c r="R136" s="2">
-        <v>44256</v>
-      </c>
-      <c r="S136" s="2">
-        <v>44215</v>
       </c>
     </row>
     <row r="137" spans="1:19">
@@ -10206,20 +10206,20 @@
       <c r="K137" s="2">
         <v>44215</v>
       </c>
+      <c r="L137" s="2">
+        <v>44215</v>
+      </c>
       <c r="M137" s="2">
+        <v>44235</v>
+      </c>
+      <c r="O137" s="2">
         <v>44260.67193287037</v>
       </c>
-      <c r="O137">
+      <c r="P137" s="2">
+        <v>44263</v>
+      </c>
+      <c r="R137">
         <v>34</v>
-      </c>
-      <c r="P137" s="2">
-        <v>44215</v>
-      </c>
-      <c r="Q137" s="2">
-        <v>44235</v>
-      </c>
-      <c r="R137" s="2">
-        <v>44263</v>
       </c>
       <c r="S137" s="2">
         <v>44215</v>
@@ -10259,14 +10259,14 @@
       <c r="K138" s="2">
         <v>44215</v>
       </c>
-      <c r="O138">
+      <c r="L138" s="2">
+        <v>44221</v>
+      </c>
+      <c r="P138" s="2">
+        <v>44265</v>
+      </c>
+      <c r="R138">
         <v>36</v>
-      </c>
-      <c r="R138" s="2">
-        <v>44265</v>
-      </c>
-      <c r="S138" s="2">
-        <v>44221</v>
       </c>
     </row>
     <row r="139" spans="1:19">
@@ -10303,20 +10303,20 @@
       <c r="K139" s="2">
         <v>44216</v>
       </c>
+      <c r="L139" s="2">
+        <v>44216</v>
+      </c>
       <c r="M139" s="2">
+        <v>44228</v>
+      </c>
+      <c r="O139" s="2">
         <v>44256</v>
       </c>
-      <c r="O139">
+      <c r="P139" s="2">
+        <v>44257</v>
+      </c>
+      <c r="R139">
         <v>29</v>
-      </c>
-      <c r="P139" s="2">
-        <v>44216</v>
-      </c>
-      <c r="Q139" s="2">
-        <v>44228</v>
-      </c>
-      <c r="R139" s="2">
-        <v>44257</v>
       </c>
       <c r="S139" s="2">
         <v>44216</v>
@@ -10356,20 +10356,20 @@
       <c r="K140" s="2">
         <v>44216</v>
       </c>
+      <c r="L140" s="2">
+        <v>44216</v>
+      </c>
       <c r="M140" s="2">
+        <v>44238</v>
+      </c>
+      <c r="O140" s="2">
         <v>44266.73240740741</v>
       </c>
-      <c r="O140">
+      <c r="P140" s="2">
+        <v>44267</v>
+      </c>
+      <c r="R140">
         <v>37</v>
-      </c>
-      <c r="P140" s="2">
-        <v>44216</v>
-      </c>
-      <c r="Q140" s="2">
-        <v>44238</v>
-      </c>
-      <c r="R140" s="2">
-        <v>44267</v>
       </c>
       <c r="S140" s="2">
         <v>44216</v>
@@ -10409,20 +10409,20 @@
       <c r="K141" s="2">
         <v>44217</v>
       </c>
+      <c r="L141" s="2">
+        <v>44217</v>
+      </c>
       <c r="M141" s="2">
+        <v>44247</v>
+      </c>
+      <c r="O141" s="2">
         <v>44264.8328587963</v>
       </c>
-      <c r="O141">
+      <c r="P141" s="2">
+        <v>44272</v>
+      </c>
+      <c r="R141">
         <v>39</v>
-      </c>
-      <c r="P141" s="2">
-        <v>44217</v>
-      </c>
-      <c r="Q141" s="2">
-        <v>44247</v>
-      </c>
-      <c r="R141" s="2">
-        <v>44272</v>
       </c>
       <c r="S141" s="2">
         <v>44217</v>
@@ -10462,20 +10462,20 @@
       <c r="K142" s="2">
         <v>44217</v>
       </c>
+      <c r="L142" s="2">
+        <v>44217</v>
+      </c>
       <c r="M142" s="2">
+        <v>44238</v>
+      </c>
+      <c r="O142" s="2">
         <v>44271.52260416667</v>
       </c>
-      <c r="O142">
+      <c r="P142" s="2">
+        <v>44272</v>
+      </c>
+      <c r="R142">
         <v>39</v>
-      </c>
-      <c r="P142" s="2">
-        <v>44217</v>
-      </c>
-      <c r="Q142" s="2">
-        <v>44238</v>
-      </c>
-      <c r="R142" s="2">
-        <v>44272</v>
       </c>
       <c r="S142" s="2">
         <v>44217</v>
@@ -10515,20 +10515,20 @@
       <c r="K143" s="2">
         <v>44217</v>
       </c>
+      <c r="L143" s="2">
+        <v>44217</v>
+      </c>
       <c r="M143" s="2">
+        <v>44235</v>
+      </c>
+      <c r="O143" s="2">
         <v>44271</v>
       </c>
-      <c r="O143">
+      <c r="P143" s="2">
+        <v>44272</v>
+      </c>
+      <c r="R143">
         <v>39</v>
-      </c>
-      <c r="P143" s="2">
-        <v>44217</v>
-      </c>
-      <c r="Q143" s="2">
-        <v>44235</v>
-      </c>
-      <c r="R143" s="2">
-        <v>44272</v>
       </c>
       <c r="S143" s="2">
         <v>44217</v>
@@ -10568,23 +10568,23 @@
       <c r="K144" s="2">
         <v>44217</v>
       </c>
+      <c r="L144" s="2">
+        <v>44217</v>
+      </c>
       <c r="M144" s="2">
+        <v>44232</v>
+      </c>
+      <c r="O144" s="2">
         <v>44263</v>
       </c>
-      <c r="O144">
+      <c r="P144" s="2">
+        <v>44265</v>
+      </c>
+      <c r="R144">
         <v>34</v>
       </c>
-      <c r="P144" s="2">
+      <c r="S144" s="2">
         <v>44218</v>
-      </c>
-      <c r="Q144" s="2">
-        <v>44232</v>
-      </c>
-      <c r="R144" s="2">
-        <v>44265</v>
-      </c>
-      <c r="S144" s="2">
-        <v>44217</v>
       </c>
     </row>
     <row r="145" spans="1:19">
@@ -10618,14 +10618,14 @@
       <c r="K145" s="2">
         <v>44218</v>
       </c>
-      <c r="O145">
+      <c r="L145" s="2">
+        <v>44218</v>
+      </c>
+      <c r="P145" s="2">
+        <v>44259</v>
+      </c>
+      <c r="R145">
         <v>29</v>
-      </c>
-      <c r="R145" s="2">
-        <v>44259</v>
-      </c>
-      <c r="S145" s="2">
-        <v>44218</v>
       </c>
     </row>
     <row r="146" spans="1:19">
@@ -10659,20 +10659,20 @@
       <c r="K146" s="2">
         <v>44218</v>
       </c>
+      <c r="L146" s="2">
+        <v>44218</v>
+      </c>
       <c r="M146" s="2">
+        <v>44232</v>
+      </c>
+      <c r="O146" s="2">
         <v>44271</v>
       </c>
-      <c r="O146">
+      <c r="P146" s="2">
+        <v>44272</v>
+      </c>
+      <c r="R146">
         <v>38</v>
-      </c>
-      <c r="P146" s="2">
-        <v>44218</v>
-      </c>
-      <c r="Q146" s="2">
-        <v>44232</v>
-      </c>
-      <c r="R146" s="2">
-        <v>44272</v>
       </c>
       <c r="S146" s="2">
         <v>44218</v>
@@ -10712,23 +10712,23 @@
       <c r="K147" s="2">
         <v>44221</v>
       </c>
+      <c r="L147" s="2">
+        <v>44221</v>
+      </c>
       <c r="M147" s="2">
+        <v>44239</v>
+      </c>
+      <c r="O147" s="2">
         <v>44267.44116898148</v>
       </c>
-      <c r="O147">
+      <c r="P147" s="2">
+        <v>44273</v>
+      </c>
+      <c r="R147">
         <v>38</v>
       </c>
-      <c r="P147" s="2">
+      <c r="S147" s="2">
         <v>44222</v>
-      </c>
-      <c r="Q147" s="2">
-        <v>44239</v>
-      </c>
-      <c r="R147" s="2">
-        <v>44273</v>
-      </c>
-      <c r="S147" s="2">
-        <v>44221</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -10765,14 +10765,14 @@
       <c r="K148" s="2">
         <v>44221</v>
       </c>
-      <c r="O148">
+      <c r="L148" s="2">
+        <v>44221</v>
+      </c>
+      <c r="P148" s="2">
+        <v>44263</v>
+      </c>
+      <c r="R148">
         <v>30</v>
-      </c>
-      <c r="R148" s="2">
-        <v>44263</v>
-      </c>
-      <c r="S148" s="2">
-        <v>44221</v>
       </c>
     </row>
     <row r="149" spans="1:19">
@@ -10806,20 +10806,20 @@
       <c r="K149" s="2">
         <v>44221</v>
       </c>
+      <c r="L149" s="2">
+        <v>44221</v>
+      </c>
       <c r="M149" s="2">
+        <v>44232</v>
+      </c>
+      <c r="O149" s="2">
         <v>44266.54266203703</v>
       </c>
-      <c r="O149">
+      <c r="P149" s="2">
+        <v>44267</v>
+      </c>
+      <c r="R149">
         <v>34</v>
-      </c>
-      <c r="P149" s="2">
-        <v>44221</v>
-      </c>
-      <c r="Q149" s="2">
-        <v>44232</v>
-      </c>
-      <c r="R149" s="2">
-        <v>44267</v>
       </c>
       <c r="S149" s="2">
         <v>44221</v>
@@ -10859,20 +10859,20 @@
       <c r="K150" s="2">
         <v>44221</v>
       </c>
+      <c r="L150" s="2">
+        <v>44221</v>
+      </c>
       <c r="M150" s="2">
+        <v>44232</v>
+      </c>
+      <c r="O150" s="2">
         <v>44256.60519675926</v>
       </c>
-      <c r="O150">
+      <c r="P150" s="2">
+        <v>44257</v>
+      </c>
+      <c r="R150">
         <v>26</v>
-      </c>
-      <c r="P150" s="2">
-        <v>44221</v>
-      </c>
-      <c r="Q150" s="2">
-        <v>44232</v>
-      </c>
-      <c r="R150" s="2">
-        <v>44257</v>
       </c>
       <c r="S150" s="2">
         <v>44221</v>
@@ -10912,23 +10912,23 @@
       <c r="K151" s="2">
         <v>44221</v>
       </c>
+      <c r="L151" s="2">
+        <v>44222</v>
+      </c>
       <c r="M151" s="2">
+        <v>44239</v>
+      </c>
+      <c r="O151" s="2">
         <v>44280.52795138889</v>
       </c>
-      <c r="O151">
+      <c r="P151" s="2">
+        <v>44280</v>
+      </c>
+      <c r="R151">
         <v>43</v>
       </c>
-      <c r="P151" s="2">
+      <c r="S151" s="2">
         <v>44221</v>
-      </c>
-      <c r="Q151" s="2">
-        <v>44239</v>
-      </c>
-      <c r="R151" s="2">
-        <v>44280</v>
-      </c>
-      <c r="S151" s="2">
-        <v>44222</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -10965,20 +10965,20 @@
       <c r="K152" s="2">
         <v>44221</v>
       </c>
-      <c r="O152">
+      <c r="L152" s="2">
+        <v>44221</v>
+      </c>
+      <c r="M152" s="2">
+        <v>44237</v>
+      </c>
+      <c r="P152" s="2">
+        <v>44274</v>
+      </c>
+      <c r="R152">
         <v>39</v>
       </c>
-      <c r="P152" s="2">
+      <c r="S152" s="2">
         <v>44223</v>
-      </c>
-      <c r="Q152" s="2">
-        <v>44237</v>
-      </c>
-      <c r="R152" s="2">
-        <v>44274</v>
-      </c>
-      <c r="S152" s="2">
-        <v>44221</v>
       </c>
     </row>
     <row r="153" spans="1:19">
@@ -11015,23 +11015,23 @@
       <c r="K153" s="2">
         <v>44221</v>
       </c>
+      <c r="L153" s="2">
+        <v>44223</v>
+      </c>
       <c r="M153" s="2">
+        <v>44256</v>
+      </c>
+      <c r="O153" s="2">
         <v>44284</v>
       </c>
-      <c r="O153">
+      <c r="P153" s="2">
+        <v>44285</v>
+      </c>
+      <c r="R153">
         <v>46</v>
       </c>
-      <c r="P153" s="2">
+      <c r="S153" s="2">
         <v>44221</v>
-      </c>
-      <c r="Q153" s="2">
-        <v>44256</v>
-      </c>
-      <c r="R153" s="2">
-        <v>44285</v>
-      </c>
-      <c r="S153" s="2">
-        <v>44223</v>
       </c>
     </row>
     <row r="154" spans="1:19">
@@ -11068,23 +11068,23 @@
       <c r="K154" s="2">
         <v>44221</v>
       </c>
+      <c r="L154" s="2">
+        <v>44225</v>
+      </c>
       <c r="M154" s="2">
+        <v>44258</v>
+      </c>
+      <c r="O154" s="2">
         <v>44272.70369212963</v>
       </c>
-      <c r="O154">
+      <c r="P154" s="2">
+        <v>44274</v>
+      </c>
+      <c r="R154">
         <v>39</v>
       </c>
-      <c r="P154" s="2">
+      <c r="S154" s="2">
         <v>44221</v>
-      </c>
-      <c r="Q154" s="2">
-        <v>44258</v>
-      </c>
-      <c r="R154" s="2">
-        <v>44274</v>
-      </c>
-      <c r="S154" s="2">
-        <v>44225</v>
       </c>
     </row>
     <row r="155" spans="1:19">
@@ -11121,20 +11121,20 @@
       <c r="K155" s="2">
         <v>44221</v>
       </c>
-      <c r="O155">
+      <c r="L155" s="2">
+        <v>44225</v>
+      </c>
+      <c r="M155" s="2">
+        <v>44250</v>
+      </c>
+      <c r="P155" s="2">
+        <v>44280</v>
+      </c>
+      <c r="R155">
         <v>43</v>
       </c>
-      <c r="P155" s="2">
+      <c r="S155" s="2">
         <v>44229</v>
-      </c>
-      <c r="Q155" s="2">
-        <v>44250</v>
-      </c>
-      <c r="R155" s="2">
-        <v>44280</v>
-      </c>
-      <c r="S155" s="2">
-        <v>44225</v>
       </c>
     </row>
     <row r="156" spans="1:19">
@@ -11171,17 +11171,17 @@
       <c r="K156" s="2">
         <v>44222</v>
       </c>
-      <c r="M156" s="2">
+      <c r="L156" s="2">
+        <v>44222</v>
+      </c>
+      <c r="O156" s="2">
         <v>44266</v>
       </c>
-      <c r="O156">
+      <c r="P156" s="2">
+        <v>44266</v>
+      </c>
+      <c r="R156">
         <v>32</v>
-      </c>
-      <c r="R156" s="2">
-        <v>44266</v>
-      </c>
-      <c r="S156" s="2">
-        <v>44222</v>
       </c>
     </row>
     <row r="157" spans="1:19">
@@ -11218,23 +11218,23 @@
       <c r="K157" s="2">
         <v>44222</v>
       </c>
+      <c r="L157" s="2">
+        <v>44223</v>
+      </c>
       <c r="M157" s="2">
+        <v>44244</v>
+      </c>
+      <c r="O157" s="2">
         <v>44270.44913194444</v>
       </c>
-      <c r="O157">
+      <c r="P157" s="2">
+        <v>44280</v>
+      </c>
+      <c r="R157">
         <v>42</v>
       </c>
-      <c r="P157" s="2">
+      <c r="S157" s="2">
         <v>44222</v>
-      </c>
-      <c r="Q157" s="2">
-        <v>44244</v>
-      </c>
-      <c r="R157" s="2">
-        <v>44280</v>
-      </c>
-      <c r="S157" s="2">
-        <v>44223</v>
       </c>
     </row>
     <row r="158" spans="1:19">
@@ -11268,20 +11268,20 @@
       <c r="K158" s="2">
         <v>44223</v>
       </c>
+      <c r="L158" s="2">
+        <v>44223</v>
+      </c>
       <c r="M158" s="2">
+        <v>44246</v>
+      </c>
+      <c r="O158" s="2">
         <v>44278.77302083333</v>
       </c>
-      <c r="O158">
+      <c r="P158" s="2">
+        <v>44279</v>
+      </c>
+      <c r="R158">
         <v>40</v>
-      </c>
-      <c r="P158" s="2">
-        <v>44223</v>
-      </c>
-      <c r="Q158" s="2">
-        <v>44246</v>
-      </c>
-      <c r="R158" s="2">
-        <v>44279</v>
       </c>
       <c r="S158" s="2">
         <v>44223</v>
@@ -11321,14 +11321,14 @@
       <c r="K159" s="2">
         <v>44223</v>
       </c>
-      <c r="O159">
+      <c r="L159" s="2">
+        <v>44223</v>
+      </c>
+      <c r="P159" s="2">
+        <v>44271</v>
+      </c>
+      <c r="R159">
         <v>34</v>
-      </c>
-      <c r="R159" s="2">
-        <v>44271</v>
-      </c>
-      <c r="S159" s="2">
-        <v>44223</v>
       </c>
     </row>
     <row r="160" spans="1:19">
@@ -11365,23 +11365,23 @@
       <c r="K160" s="2">
         <v>44223</v>
       </c>
+      <c r="L160" s="2">
+        <v>44224</v>
+      </c>
       <c r="M160" s="2">
+        <v>44239</v>
+      </c>
+      <c r="O160" s="2">
         <v>44271</v>
       </c>
-      <c r="O160">
+      <c r="P160" s="2">
+        <v>44274</v>
+      </c>
+      <c r="R160">
         <v>37</v>
       </c>
-      <c r="P160" s="2">
+      <c r="S160" s="2">
         <v>44225</v>
-      </c>
-      <c r="Q160" s="2">
-        <v>44239</v>
-      </c>
-      <c r="R160" s="2">
-        <v>44274</v>
-      </c>
-      <c r="S160" s="2">
-        <v>44224</v>
       </c>
     </row>
     <row r="161" spans="1:19">
@@ -11418,23 +11418,23 @@
       <c r="K161" s="2">
         <v>44223</v>
       </c>
+      <c r="L161" s="2">
+        <v>44224</v>
+      </c>
       <c r="M161" s="2">
+        <v>44239</v>
+      </c>
+      <c r="O161" s="2">
         <v>44271</v>
       </c>
-      <c r="O161">
+      <c r="P161" s="2">
+        <v>44277</v>
+      </c>
+      <c r="R161">
         <v>38</v>
       </c>
-      <c r="P161" s="2">
+      <c r="S161" s="2">
         <v>44225</v>
-      </c>
-      <c r="Q161" s="2">
-        <v>44239</v>
-      </c>
-      <c r="R161" s="2">
-        <v>44277</v>
-      </c>
-      <c r="S161" s="2">
-        <v>44224</v>
       </c>
     </row>
     <row r="162" spans="1:19">
@@ -11468,20 +11468,20 @@
       <c r="K162" s="2">
         <v>44223</v>
       </c>
-      <c r="O162">
+      <c r="L162" s="2">
+        <v>44223</v>
+      </c>
+      <c r="M162" s="2">
+        <v>44249</v>
+      </c>
+      <c r="P162" s="2">
+        <v>44260</v>
+      </c>
+      <c r="R162">
         <v>27</v>
       </c>
-      <c r="P162" s="2">
+      <c r="S162" s="2">
         <v>44230</v>
-      </c>
-      <c r="Q162" s="2">
-        <v>44249</v>
-      </c>
-      <c r="R162" s="2">
-        <v>44260</v>
-      </c>
-      <c r="S162" s="2">
-        <v>44223</v>
       </c>
     </row>
     <row r="163" spans="1:19">
@@ -11518,23 +11518,23 @@
       <c r="K163" s="2">
         <v>44224</v>
       </c>
+      <c r="L163" s="2">
+        <v>44225</v>
+      </c>
       <c r="M163" s="2">
+        <v>44238</v>
+      </c>
+      <c r="O163" s="2">
         <v>44252.61972222223</v>
       </c>
-      <c r="O163">
+      <c r="P163" s="2">
+        <v>44256</v>
+      </c>
+      <c r="R163">
         <v>22</v>
       </c>
-      <c r="P163" s="2">
+      <c r="S163" s="2">
         <v>44224</v>
-      </c>
-      <c r="Q163" s="2">
-        <v>44238</v>
-      </c>
-      <c r="R163" s="2">
-        <v>44256</v>
-      </c>
-      <c r="S163" s="2">
-        <v>44225</v>
       </c>
     </row>
     <row r="164" spans="1:19">
@@ -11571,20 +11571,20 @@
       <c r="K164" s="2">
         <v>44224</v>
       </c>
+      <c r="L164" s="2">
+        <v>44224</v>
+      </c>
       <c r="M164" s="2">
+        <v>44245</v>
+      </c>
+      <c r="O164" s="2">
         <v>44279.52489583333</v>
       </c>
-      <c r="O164">
+      <c r="P164" s="2">
+        <v>44280</v>
+      </c>
+      <c r="R164">
         <v>40</v>
-      </c>
-      <c r="P164" s="2">
-        <v>44224</v>
-      </c>
-      <c r="Q164" s="2">
-        <v>44245</v>
-      </c>
-      <c r="R164" s="2">
-        <v>44280</v>
       </c>
       <c r="S164" s="2">
         <v>44224</v>
@@ -11624,20 +11624,20 @@
       <c r="K165" s="2">
         <v>44224</v>
       </c>
+      <c r="L165" s="2">
+        <v>44224</v>
+      </c>
       <c r="M165" s="2">
+        <v>44237</v>
+      </c>
+      <c r="O165" s="2">
         <v>44277</v>
       </c>
-      <c r="O165">
+      <c r="P165" s="2">
+        <v>44279</v>
+      </c>
+      <c r="R165">
         <v>39</v>
-      </c>
-      <c r="P165" s="2">
-        <v>44224</v>
-      </c>
-      <c r="Q165" s="2">
-        <v>44237</v>
-      </c>
-      <c r="R165" s="2">
-        <v>44279</v>
       </c>
       <c r="S165" s="2">
         <v>44224</v>
@@ -11677,20 +11677,20 @@
       <c r="K166" s="2">
         <v>44224</v>
       </c>
+      <c r="L166" s="2">
+        <v>44224</v>
+      </c>
       <c r="M166" s="2">
+        <v>44236</v>
+      </c>
+      <c r="O166" s="2">
         <v>44244.54959490741</v>
       </c>
-      <c r="O166">
+      <c r="P166" s="2">
+        <v>44256</v>
+      </c>
+      <c r="R166">
         <v>22</v>
-      </c>
-      <c r="P166" s="2">
-        <v>44224</v>
-      </c>
-      <c r="Q166" s="2">
-        <v>44236</v>
-      </c>
-      <c r="R166" s="2">
-        <v>44256</v>
       </c>
       <c r="S166" s="2">
         <v>44224</v>
@@ -11730,17 +11730,17 @@
       <c r="K167" s="2">
         <v>44225</v>
       </c>
-      <c r="M167" s="2">
+      <c r="L167" s="2">
+        <v>44225</v>
+      </c>
+      <c r="O167" s="2">
         <v>44284</v>
       </c>
-      <c r="O167">
+      <c r="P167" s="2">
+        <v>44284</v>
+      </c>
+      <c r="R167">
         <v>41</v>
-      </c>
-      <c r="R167" s="2">
-        <v>44284</v>
-      </c>
-      <c r="S167" s="2">
-        <v>44225</v>
       </c>
     </row>
     <row r="168" spans="1:19">
@@ -11774,14 +11774,14 @@
       <c r="K168" s="2">
         <v>44228</v>
       </c>
-      <c r="O168">
+      <c r="L168" s="2">
+        <v>44235</v>
+      </c>
+      <c r="P168" s="2">
+        <v>44257</v>
+      </c>
+      <c r="R168">
         <v>21</v>
-      </c>
-      <c r="R168" s="2">
-        <v>44257</v>
-      </c>
-      <c r="S168" s="2">
-        <v>44235</v>
       </c>
     </row>
     <row r="169" spans="1:19">
@@ -11815,14 +11815,14 @@
       <c r="K169" s="2">
         <v>44228</v>
       </c>
-      <c r="O169">
+      <c r="L169" s="2">
+        <v>44229</v>
+      </c>
+      <c r="P169" s="2">
+        <v>44258</v>
+      </c>
+      <c r="R169">
         <v>22</v>
-      </c>
-      <c r="R169" s="2">
-        <v>44258</v>
-      </c>
-      <c r="S169" s="2">
-        <v>44229</v>
       </c>
     </row>
     <row r="170" spans="1:19">
@@ -11856,14 +11856,14 @@
       <c r="K170" s="2">
         <v>44228</v>
       </c>
-      <c r="O170">
+      <c r="L170" s="2">
+        <v>44229</v>
+      </c>
+      <c r="P170" s="2">
+        <v>44258</v>
+      </c>
+      <c r="R170">
         <v>22</v>
-      </c>
-      <c r="R170" s="2">
-        <v>44258</v>
-      </c>
-      <c r="S170" s="2">
-        <v>44229</v>
       </c>
     </row>
     <row r="171" spans="1:19">
@@ -11900,17 +11900,17 @@
       <c r="K171" s="2">
         <v>44229</v>
       </c>
-      <c r="M171" s="2">
+      <c r="L171" s="2">
+        <v>44229</v>
+      </c>
+      <c r="O171" s="2">
         <v>44264</v>
       </c>
-      <c r="O171">
+      <c r="P171" s="2">
+        <v>44264</v>
+      </c>
+      <c r="R171">
         <v>25</v>
-      </c>
-      <c r="R171" s="2">
-        <v>44264</v>
-      </c>
-      <c r="S171" s="2">
-        <v>44229</v>
       </c>
     </row>
     <row r="172" spans="1:19">
@@ -11944,20 +11944,20 @@
       <c r="K172" s="2">
         <v>44229</v>
       </c>
+      <c r="L172" s="2">
+        <v>44229</v>
+      </c>
       <c r="M172" s="2">
+        <v>44243</v>
+      </c>
+      <c r="O172" s="2">
         <v>44267</v>
       </c>
-      <c r="O172">
+      <c r="P172" s="2">
+        <v>44267</v>
+      </c>
+      <c r="R172">
         <v>28</v>
-      </c>
-      <c r="P172" s="2">
-        <v>44229</v>
-      </c>
-      <c r="Q172" s="2">
-        <v>44243</v>
-      </c>
-      <c r="R172" s="2">
-        <v>44267</v>
       </c>
       <c r="S172" s="2">
         <v>44229</v>
@@ -11997,23 +11997,23 @@
       <c r="K173" s="2">
         <v>44229</v>
       </c>
+      <c r="L173" s="2">
+        <v>44231</v>
+      </c>
       <c r="M173" s="2">
+        <v>44257</v>
+      </c>
+      <c r="O173" s="2">
         <v>44277</v>
       </c>
-      <c r="O173">
+      <c r="P173" s="2">
+        <v>44277</v>
+      </c>
+      <c r="R173">
         <v>34</v>
       </c>
-      <c r="P173" s="2">
+      <c r="S173" s="2">
         <v>44229</v>
-      </c>
-      <c r="Q173" s="2">
-        <v>44257</v>
-      </c>
-      <c r="R173" s="2">
-        <v>44277</v>
-      </c>
-      <c r="S173" s="2">
-        <v>44231</v>
       </c>
     </row>
     <row r="174" spans="1:19">
@@ -12047,14 +12047,14 @@
       <c r="K174" s="2">
         <v>44229</v>
       </c>
-      <c r="O174">
+      <c r="L174" s="2">
+        <v>44229</v>
+      </c>
+      <c r="P174" s="2">
+        <v>44257</v>
+      </c>
+      <c r="R174">
         <v>20</v>
-      </c>
-      <c r="R174" s="2">
-        <v>44257</v>
-      </c>
-      <c r="S174" s="2">
-        <v>44229</v>
       </c>
     </row>
     <row r="175" spans="1:19">
@@ -12091,20 +12091,20 @@
       <c r="K175" s="2">
         <v>44229</v>
       </c>
+      <c r="L175" s="2">
+        <v>44229</v>
+      </c>
       <c r="M175" s="2">
+        <v>44243</v>
+      </c>
+      <c r="O175" s="2">
         <v>44251.70243055555</v>
       </c>
-      <c r="O175">
+      <c r="P175" s="2">
+        <v>44264</v>
+      </c>
+      <c r="R175">
         <v>25</v>
-      </c>
-      <c r="P175" s="2">
-        <v>44229</v>
-      </c>
-      <c r="Q175" s="2">
-        <v>44243</v>
-      </c>
-      <c r="R175" s="2">
-        <v>44264</v>
       </c>
       <c r="S175" s="2">
         <v>44229</v>
@@ -12141,14 +12141,14 @@
       <c r="K176" s="2">
         <v>44230</v>
       </c>
-      <c r="O176">
+      <c r="L176" s="2">
+        <v>44235</v>
+      </c>
+      <c r="P176" s="2">
+        <v>44257</v>
+      </c>
+      <c r="R176">
         <v>19</v>
-      </c>
-      <c r="R176" s="2">
-        <v>44257</v>
-      </c>
-      <c r="S176" s="2">
-        <v>44235</v>
       </c>
     </row>
     <row r="177" spans="1:19">
@@ -12185,23 +12185,23 @@
       <c r="K177" s="2">
         <v>44230</v>
       </c>
+      <c r="L177" s="2">
+        <v>44230</v>
+      </c>
       <c r="M177" s="2">
+        <v>44239</v>
+      </c>
+      <c r="O177" s="2">
         <v>44259</v>
       </c>
-      <c r="O177">
+      <c r="P177" s="2">
+        <v>44260</v>
+      </c>
+      <c r="R177">
         <v>22</v>
       </c>
-      <c r="P177" s="2">
+      <c r="S177" s="2">
         <v>44231</v>
-      </c>
-      <c r="Q177" s="2">
-        <v>44239</v>
-      </c>
-      <c r="R177" s="2">
-        <v>44260</v>
-      </c>
-      <c r="S177" s="2">
-        <v>44230</v>
       </c>
     </row>
     <row r="178" spans="1:19">
@@ -12238,17 +12238,17 @@
       <c r="K178" s="2">
         <v>44230</v>
       </c>
-      <c r="M178" s="2">
+      <c r="L178" s="2">
+        <v>44235</v>
+      </c>
+      <c r="O178" s="2">
         <v>44258</v>
       </c>
-      <c r="O178">
+      <c r="P178" s="2">
+        <v>44258</v>
+      </c>
+      <c r="R178">
         <v>20</v>
-      </c>
-      <c r="R178" s="2">
-        <v>44258</v>
-      </c>
-      <c r="S178" s="2">
-        <v>44235</v>
       </c>
     </row>
     <row r="179" spans="1:19">
@@ -12282,17 +12282,17 @@
       <c r="K179" s="2">
         <v>44230</v>
       </c>
-      <c r="M179" s="2">
+      <c r="L179" s="2">
+        <v>44230</v>
+      </c>
+      <c r="O179" s="2">
         <v>44278.52148148148</v>
       </c>
-      <c r="O179">
+      <c r="P179" s="2">
+        <v>44279</v>
+      </c>
+      <c r="R179">
         <v>35</v>
-      </c>
-      <c r="R179" s="2">
-        <v>44279</v>
-      </c>
-      <c r="S179" s="2">
-        <v>44230</v>
       </c>
     </row>
     <row r="180" spans="1:19">
@@ -12329,14 +12329,14 @@
       <c r="K180" s="2">
         <v>44230</v>
       </c>
-      <c r="O180">
+      <c r="L180" s="2">
+        <v>44230</v>
+      </c>
+      <c r="P180" s="2">
+        <v>44258</v>
+      </c>
+      <c r="R180">
         <v>20</v>
-      </c>
-      <c r="R180" s="2">
-        <v>44258</v>
-      </c>
-      <c r="S180" s="2">
-        <v>44230</v>
       </c>
     </row>
     <row r="181" spans="1:19">
@@ -12370,20 +12370,20 @@
       <c r="K181" s="2">
         <v>44231</v>
       </c>
-      <c r="O181">
+      <c r="L181" s="2">
+        <v>44235</v>
+      </c>
+      <c r="M181" s="2">
+        <v>44259</v>
+      </c>
+      <c r="P181" s="2">
+        <v>44273</v>
+      </c>
+      <c r="R181">
         <v>30</v>
       </c>
-      <c r="P181" s="2">
+      <c r="S181" s="2">
         <v>44236</v>
-      </c>
-      <c r="Q181" s="2">
-        <v>44259</v>
-      </c>
-      <c r="R181" s="2">
-        <v>44273</v>
-      </c>
-      <c r="S181" s="2">
-        <v>44235</v>
       </c>
     </row>
     <row r="182" spans="1:19">
@@ -12417,14 +12417,14 @@
       <c r="K182" s="2">
         <v>44231</v>
       </c>
-      <c r="O182">
+      <c r="L182" s="2">
+        <v>44231</v>
+      </c>
+      <c r="P182" s="2">
+        <v>44280</v>
+      </c>
+      <c r="R182">
         <v>35</v>
-      </c>
-      <c r="R182" s="2">
-        <v>44280</v>
-      </c>
-      <c r="S182" s="2">
-        <v>44231</v>
       </c>
     </row>
     <row r="183" spans="1:19">
@@ -12461,23 +12461,23 @@
       <c r="K183" s="2">
         <v>44231</v>
       </c>
+      <c r="L183" s="2">
+        <v>44232</v>
+      </c>
       <c r="M183" s="2">
+        <v>44249</v>
+      </c>
+      <c r="O183" s="2">
         <v>44267</v>
       </c>
-      <c r="O183">
+      <c r="P183" s="2">
+        <v>44270</v>
+      </c>
+      <c r="R183">
         <v>27</v>
       </c>
-      <c r="P183" s="2">
+      <c r="S183" s="2">
         <v>44231</v>
-      </c>
-      <c r="Q183" s="2">
-        <v>44249</v>
-      </c>
-      <c r="R183" s="2">
-        <v>44270</v>
-      </c>
-      <c r="S183" s="2">
-        <v>44232</v>
       </c>
     </row>
     <row r="184" spans="1:19">
@@ -12511,14 +12511,14 @@
       <c r="K184" s="2">
         <v>44231</v>
       </c>
-      <c r="O184">
+      <c r="L184" s="2">
+        <v>44235</v>
+      </c>
+      <c r="P184" s="2">
+        <v>44257</v>
+      </c>
+      <c r="R184">
         <v>18</v>
-      </c>
-      <c r="R184" s="2">
-        <v>44257</v>
-      </c>
-      <c r="S184" s="2">
-        <v>44235</v>
       </c>
     </row>
     <row r="185" spans="1:19">
@@ -12552,14 +12552,14 @@
       <c r="K185" s="2">
         <v>44231</v>
       </c>
-      <c r="O185">
+      <c r="L185" s="2">
+        <v>44235</v>
+      </c>
+      <c r="P185" s="2">
+        <v>44257</v>
+      </c>
+      <c r="R185">
         <v>18</v>
-      </c>
-      <c r="R185" s="2">
-        <v>44257</v>
-      </c>
-      <c r="S185" s="2">
-        <v>44235</v>
       </c>
     </row>
     <row r="186" spans="1:19">
@@ -12596,20 +12596,20 @@
       <c r="K186" s="2">
         <v>44232</v>
       </c>
+      <c r="L186" s="2">
+        <v>44232</v>
+      </c>
       <c r="M186" s="2">
+        <v>44263</v>
+      </c>
+      <c r="O186" s="2">
         <v>44285</v>
       </c>
-      <c r="O186">
+      <c r="P186" s="2">
+        <v>44286</v>
+      </c>
+      <c r="R186">
         <v>38</v>
-      </c>
-      <c r="P186" s="2">
-        <v>44232</v>
-      </c>
-      <c r="Q186" s="2">
-        <v>44263</v>
-      </c>
-      <c r="R186" s="2">
-        <v>44286</v>
       </c>
       <c r="S186" s="2">
         <v>44232</v>
@@ -12646,14 +12646,14 @@
       <c r="K187" s="2">
         <v>44236</v>
       </c>
-      <c r="O187">
+      <c r="L187" s="2">
+        <v>44239</v>
+      </c>
+      <c r="P187" s="2">
+        <v>44271</v>
+      </c>
+      <c r="R187">
         <v>25</v>
-      </c>
-      <c r="R187" s="2">
-        <v>44271</v>
-      </c>
-      <c r="S187" s="2">
-        <v>44239</v>
       </c>
     </row>
     <row r="188" spans="1:19">
@@ -12690,14 +12690,14 @@
       <c r="K188" s="2">
         <v>44236</v>
       </c>
-      <c r="O188">
+      <c r="L188" s="2">
+        <v>44236</v>
+      </c>
+      <c r="P188" s="2">
+        <v>44258</v>
+      </c>
+      <c r="R188">
         <v>16</v>
-      </c>
-      <c r="R188" s="2">
-        <v>44258</v>
-      </c>
-      <c r="S188" s="2">
-        <v>44236</v>
       </c>
     </row>
     <row r="189" spans="1:19">
@@ -12734,20 +12734,20 @@
       <c r="K189" s="2">
         <v>44237</v>
       </c>
+      <c r="L189" s="2">
+        <v>44237</v>
+      </c>
       <c r="M189" s="2">
+        <v>44250</v>
+      </c>
+      <c r="O189" s="2">
         <v>44272</v>
       </c>
-      <c r="O189">
+      <c r="P189" s="2">
+        <v>44272</v>
+      </c>
+      <c r="R189">
         <v>25</v>
-      </c>
-      <c r="P189" s="2">
-        <v>44237</v>
-      </c>
-      <c r="Q189" s="2">
-        <v>44250</v>
-      </c>
-      <c r="R189" s="2">
-        <v>44272</v>
       </c>
       <c r="S189" s="2">
         <v>44237</v>
@@ -12787,20 +12787,20 @@
       <c r="K190" s="2">
         <v>44237</v>
       </c>
+      <c r="L190" s="2">
+        <v>44237</v>
+      </c>
       <c r="M190" s="2">
+        <v>44249</v>
+      </c>
+      <c r="O190" s="2">
         <v>44280.83336805556</v>
       </c>
-      <c r="O190">
+      <c r="P190" s="2">
+        <v>44284</v>
+      </c>
+      <c r="R190">
         <v>33</v>
-      </c>
-      <c r="P190" s="2">
-        <v>44237</v>
-      </c>
-      <c r="Q190" s="2">
-        <v>44249</v>
-      </c>
-      <c r="R190" s="2">
-        <v>44284</v>
       </c>
       <c r="S190" s="2">
         <v>44237</v>
@@ -12840,23 +12840,23 @@
       <c r="K191" s="2">
         <v>44237</v>
       </c>
+      <c r="L191" s="2">
+        <v>44237</v>
+      </c>
       <c r="M191" s="2">
+        <v>44239</v>
+      </c>
+      <c r="O191" s="2">
         <v>44278</v>
       </c>
-      <c r="O191">
+      <c r="P191" s="2">
+        <v>44279</v>
+      </c>
+      <c r="R191">
         <v>30</v>
       </c>
-      <c r="P191" s="2">
+      <c r="S191" s="2">
         <v>44239</v>
-      </c>
-      <c r="Q191" s="2">
-        <v>44239</v>
-      </c>
-      <c r="R191" s="2">
-        <v>44279</v>
-      </c>
-      <c r="S191" s="2">
-        <v>44237</v>
       </c>
     </row>
     <row r="192" spans="1:19">
@@ -12893,20 +12893,20 @@
       <c r="K192" s="2">
         <v>44237</v>
       </c>
+      <c r="L192" s="2">
+        <v>44237</v>
+      </c>
       <c r="M192" s="2">
+        <v>44252</v>
+      </c>
+      <c r="O192" s="2">
         <v>44278</v>
       </c>
-      <c r="O192">
+      <c r="P192" s="2">
+        <v>44279</v>
+      </c>
+      <c r="R192">
         <v>30</v>
-      </c>
-      <c r="P192" s="2">
-        <v>44237</v>
-      </c>
-      <c r="Q192" s="2">
-        <v>44252</v>
-      </c>
-      <c r="R192" s="2">
-        <v>44279</v>
       </c>
       <c r="S192" s="2">
         <v>44237</v>
@@ -12943,14 +12943,14 @@
       <c r="K193" s="2">
         <v>44238</v>
       </c>
-      <c r="O193">
+      <c r="L193" s="2">
+        <v>44238</v>
+      </c>
+      <c r="P193" s="2">
+        <v>44258</v>
+      </c>
+      <c r="R193">
         <v>14</v>
-      </c>
-      <c r="R193" s="2">
-        <v>44258</v>
-      </c>
-      <c r="S193" s="2">
-        <v>44238</v>
       </c>
     </row>
     <row r="194" spans="1:19">
@@ -12987,23 +12987,23 @@
       <c r="K194" s="2">
         <v>44238</v>
       </c>
+      <c r="L194" s="2">
+        <v>44239</v>
+      </c>
       <c r="M194" s="2">
+        <v>44271</v>
+      </c>
+      <c r="O194" s="2">
         <v>44280.51481481481</v>
       </c>
-      <c r="O194">
+      <c r="P194" s="2">
+        <v>44280</v>
+      </c>
+      <c r="R194">
         <v>30</v>
       </c>
-      <c r="P194" s="2">
+      <c r="S194" s="2">
         <v>44238</v>
-      </c>
-      <c r="Q194" s="2">
-        <v>44271</v>
-      </c>
-      <c r="R194" s="2">
-        <v>44280</v>
-      </c>
-      <c r="S194" s="2">
-        <v>44239</v>
       </c>
     </row>
     <row r="195" spans="1:19">
@@ -13037,14 +13037,14 @@
       <c r="K195" s="2">
         <v>44239</v>
       </c>
-      <c r="O195">
+      <c r="L195" s="2">
+        <v>44239</v>
+      </c>
+      <c r="P195" s="2">
+        <v>44267</v>
+      </c>
+      <c r="R195">
         <v>20</v>
-      </c>
-      <c r="R195" s="2">
-        <v>44267</v>
-      </c>
-      <c r="S195" s="2">
-        <v>44239</v>
       </c>
     </row>
     <row r="196" spans="1:19">
@@ -13081,17 +13081,17 @@
       <c r="K196" s="2">
         <v>44239</v>
       </c>
-      <c r="M196" s="2">
+      <c r="L196" s="2">
+        <v>44242</v>
+      </c>
+      <c r="O196" s="2">
         <v>44286</v>
       </c>
-      <c r="O196">
+      <c r="P196" s="2">
+        <v>44286</v>
+      </c>
+      <c r="R196">
         <v>33</v>
-      </c>
-      <c r="R196" s="2">
-        <v>44286</v>
-      </c>
-      <c r="S196" s="2">
-        <v>44242</v>
       </c>
     </row>
     <row r="197" spans="1:19">
@@ -13125,14 +13125,14 @@
       <c r="K197" s="2">
         <v>44239</v>
       </c>
-      <c r="O197">
+      <c r="L197" s="2">
+        <v>44244</v>
+      </c>
+      <c r="P197" s="2">
+        <v>44264</v>
+      </c>
+      <c r="R197">
         <v>17</v>
-      </c>
-      <c r="R197" s="2">
-        <v>44264</v>
-      </c>
-      <c r="S197" s="2">
-        <v>44244</v>
       </c>
     </row>
     <row r="198" spans="1:19">
@@ -13169,17 +13169,17 @@
       <c r="K198" s="2">
         <v>44239</v>
       </c>
-      <c r="M198" s="2">
+      <c r="L198" s="2">
+        <v>44243</v>
+      </c>
+      <c r="O198" s="2">
         <v>44274</v>
       </c>
-      <c r="O198">
+      <c r="P198" s="2">
+        <v>44274</v>
+      </c>
+      <c r="R198">
         <v>25</v>
-      </c>
-      <c r="R198" s="2">
-        <v>44274</v>
-      </c>
-      <c r="S198" s="2">
-        <v>44243</v>
       </c>
     </row>
     <row r="199" spans="1:19">
@@ -13213,17 +13213,17 @@
       <c r="K199" s="2">
         <v>44239</v>
       </c>
-      <c r="M199" s="2">
+      <c r="L199" s="2">
+        <v>44244</v>
+      </c>
+      <c r="O199" s="2">
         <v>44277</v>
       </c>
-      <c r="O199">
+      <c r="P199" s="2">
+        <v>44277</v>
+      </c>
+      <c r="R199">
         <v>26</v>
-      </c>
-      <c r="R199" s="2">
-        <v>44277</v>
-      </c>
-      <c r="S199" s="2">
-        <v>44244</v>
       </c>
     </row>
     <row r="200" spans="1:19">
@@ -13260,20 +13260,20 @@
       <c r="K200" s="2">
         <v>44242</v>
       </c>
+      <c r="L200" s="2">
+        <v>44242</v>
+      </c>
       <c r="M200" s="2">
+        <v>44257</v>
+      </c>
+      <c r="O200" s="2">
         <v>44271.65310185185</v>
       </c>
-      <c r="O200">
+      <c r="P200" s="2">
+        <v>44278</v>
+      </c>
+      <c r="R200">
         <v>26</v>
-      </c>
-      <c r="P200" s="2">
-        <v>44242</v>
-      </c>
-      <c r="Q200" s="2">
-        <v>44257</v>
-      </c>
-      <c r="R200" s="2">
-        <v>44278</v>
       </c>
       <c r="S200" s="2">
         <v>44242</v>
@@ -13310,14 +13310,14 @@
       <c r="K201" s="2">
         <v>44242</v>
       </c>
-      <c r="O201">
+      <c r="L201" s="2">
+        <v>44244</v>
+      </c>
+      <c r="P201" s="2">
+        <v>44264</v>
+      </c>
+      <c r="R201">
         <v>16</v>
-      </c>
-      <c r="R201" s="2">
-        <v>44264</v>
-      </c>
-      <c r="S201" s="2">
-        <v>44244</v>
       </c>
     </row>
     <row r="202" spans="1:19">
@@ -13354,23 +13354,23 @@
       <c r="K202" s="2">
         <v>44242</v>
       </c>
+      <c r="L202" s="2">
+        <v>44243</v>
+      </c>
       <c r="M202" s="2">
+        <v>44266</v>
+      </c>
+      <c r="O202" s="2">
         <v>44277.62225694444</v>
       </c>
-      <c r="O202">
+      <c r="P202" s="2">
+        <v>44279</v>
+      </c>
+      <c r="R202">
         <v>27</v>
       </c>
-      <c r="P202" s="2">
+      <c r="S202" s="2">
         <v>44242</v>
-      </c>
-      <c r="Q202" s="2">
-        <v>44266</v>
-      </c>
-      <c r="R202" s="2">
-        <v>44279</v>
-      </c>
-      <c r="S202" s="2">
-        <v>44243</v>
       </c>
     </row>
     <row r="203" spans="1:19">
@@ -13407,20 +13407,20 @@
       <c r="K203" s="2">
         <v>44242</v>
       </c>
+      <c r="L203" s="2">
+        <v>44242</v>
+      </c>
       <c r="M203" s="2">
+        <v>44256</v>
+      </c>
+      <c r="O203" s="2">
         <v>44266.46635416667</v>
       </c>
-      <c r="O203">
+      <c r="P203" s="2">
+        <v>44270</v>
+      </c>
+      <c r="R203">
         <v>20</v>
-      </c>
-      <c r="P203" s="2">
-        <v>44242</v>
-      </c>
-      <c r="Q203" s="2">
-        <v>44256</v>
-      </c>
-      <c r="R203" s="2">
-        <v>44270</v>
       </c>
       <c r="S203" s="2">
         <v>44242</v>
@@ -13460,23 +13460,23 @@
       <c r="K204" s="2">
         <v>44242</v>
       </c>
+      <c r="L204" s="2">
+        <v>44242</v>
+      </c>
       <c r="M204" s="2">
+        <v>44256</v>
+      </c>
+      <c r="O204" s="2">
         <v>44271.57650462963</v>
       </c>
-      <c r="O204">
+      <c r="P204" s="2">
+        <v>44285</v>
+      </c>
+      <c r="R204">
         <v>31</v>
       </c>
-      <c r="P204" s="2">
+      <c r="S204" s="2">
         <v>44243</v>
-      </c>
-      <c r="Q204" s="2">
-        <v>44256</v>
-      </c>
-      <c r="R204" s="2">
-        <v>44285</v>
-      </c>
-      <c r="S204" s="2">
-        <v>44242</v>
       </c>
     </row>
     <row r="205" spans="1:19">
@@ -13513,20 +13513,20 @@
       <c r="K205" s="2">
         <v>44243</v>
       </c>
+      <c r="L205" s="2">
+        <v>44243</v>
+      </c>
       <c r="M205" s="2">
+        <v>44257</v>
+      </c>
+      <c r="O205" s="2">
         <v>44265.40877314815</v>
       </c>
-      <c r="O205">
+      <c r="P205" s="2">
+        <v>44286</v>
+      </c>
+      <c r="R205">
         <v>31</v>
-      </c>
-      <c r="P205" s="2">
-        <v>44243</v>
-      </c>
-      <c r="Q205" s="2">
-        <v>44257</v>
-      </c>
-      <c r="R205" s="2">
-        <v>44286</v>
       </c>
       <c r="S205" s="2">
         <v>44243</v>
@@ -13563,20 +13563,20 @@
       <c r="K206" s="2">
         <v>44243</v>
       </c>
+      <c r="L206" s="2">
+        <v>44243</v>
+      </c>
       <c r="M206" s="2">
+        <v>44257</v>
+      </c>
+      <c r="O206" s="2">
         <v>44266.41643518519</v>
       </c>
-      <c r="O206">
+      <c r="P206" s="2">
+        <v>44277</v>
+      </c>
+      <c r="R206">
         <v>24</v>
-      </c>
-      <c r="P206" s="2">
-        <v>44243</v>
-      </c>
-      <c r="Q206" s="2">
-        <v>44257</v>
-      </c>
-      <c r="R206" s="2">
-        <v>44277</v>
       </c>
       <c r="S206" s="2">
         <v>44243</v>
@@ -13613,17 +13613,17 @@
       <c r="K207" s="2">
         <v>44243</v>
       </c>
-      <c r="M207" s="2">
+      <c r="L207" s="2">
+        <v>44244</v>
+      </c>
+      <c r="O207" s="2">
         <v>44284</v>
       </c>
-      <c r="O207">
+      <c r="P207" s="2">
+        <v>44284</v>
+      </c>
+      <c r="R207">
         <v>29</v>
-      </c>
-      <c r="R207" s="2">
-        <v>44284</v>
-      </c>
-      <c r="S207" s="2">
-        <v>44244</v>
       </c>
     </row>
     <row r="208" spans="1:19">
@@ -13660,14 +13660,14 @@
       <c r="K208" s="2">
         <v>44244</v>
       </c>
-      <c r="O208">
+      <c r="L208" s="2">
+        <v>44244</v>
+      </c>
+      <c r="P208" s="2">
+        <v>44258</v>
+      </c>
+      <c r="R208">
         <v>10</v>
-      </c>
-      <c r="R208" s="2">
-        <v>44258</v>
-      </c>
-      <c r="S208" s="2">
-        <v>44244</v>
       </c>
     </row>
     <row r="209" spans="1:19">
@@ -13704,17 +13704,17 @@
       <c r="K209" s="2">
         <v>44244</v>
       </c>
-      <c r="M209" s="2">
+      <c r="L209" s="2">
+        <v>44244</v>
+      </c>
+      <c r="O209" s="2">
         <v>44259</v>
       </c>
-      <c r="O209">
+      <c r="P209" s="2">
+        <v>44259</v>
+      </c>
+      <c r="R209">
         <v>11</v>
-      </c>
-      <c r="R209" s="2">
-        <v>44259</v>
-      </c>
-      <c r="S209" s="2">
-        <v>44244</v>
       </c>
     </row>
     <row r="210" spans="1:19">
@@ -13748,14 +13748,14 @@
       <c r="K210" s="2">
         <v>44244</v>
       </c>
-      <c r="O210">
+      <c r="L210" s="2">
+        <v>44244</v>
+      </c>
+      <c r="P210" s="2">
+        <v>44256</v>
+      </c>
+      <c r="R210">
         <v>8</v>
-      </c>
-      <c r="R210" s="2">
-        <v>44256</v>
-      </c>
-      <c r="S210" s="2">
-        <v>44244</v>
       </c>
     </row>
     <row r="211" spans="1:19">
@@ -13789,17 +13789,17 @@
       <c r="K211" s="2">
         <v>44244</v>
       </c>
-      <c r="M211" s="2">
+      <c r="L211" s="2">
+        <v>44244</v>
+      </c>
+      <c r="O211" s="2">
         <v>44284</v>
       </c>
-      <c r="O211">
+      <c r="P211" s="2">
+        <v>44286</v>
+      </c>
+      <c r="R211">
         <v>30</v>
-      </c>
-      <c r="R211" s="2">
-        <v>44286</v>
-      </c>
-      <c r="S211" s="2">
-        <v>44244</v>
       </c>
     </row>
     <row r="212" spans="1:19">
@@ -13833,14 +13833,14 @@
       <c r="K212" s="2">
         <v>44244</v>
       </c>
-      <c r="O212">
+      <c r="L212" s="2">
+        <v>44244</v>
+      </c>
+      <c r="P212" s="2">
+        <v>44256</v>
+      </c>
+      <c r="R212">
         <v>8</v>
-      </c>
-      <c r="R212" s="2">
-        <v>44256</v>
-      </c>
-      <c r="S212" s="2">
-        <v>44244</v>
       </c>
     </row>
     <row r="213" spans="1:19">
@@ -13874,14 +13874,14 @@
       <c r="K213" s="2">
         <v>44245</v>
       </c>
-      <c r="O213">
+      <c r="L213" s="2">
+        <v>44256</v>
+      </c>
+      <c r="P213" s="2">
+        <v>44256</v>
+      </c>
+      <c r="R213">
         <v>7</v>
-      </c>
-      <c r="R213" s="2">
-        <v>44256</v>
-      </c>
-      <c r="S213" s="2">
-        <v>44256</v>
       </c>
     </row>
     <row r="214" spans="1:19">
@@ -13918,23 +13918,23 @@
       <c r="K214" s="2">
         <v>44245</v>
       </c>
+      <c r="L214" s="2">
+        <v>44245</v>
+      </c>
       <c r="M214" s="2">
+        <v>44252</v>
+      </c>
+      <c r="O214" s="2">
         <v>44270.67533564815</v>
       </c>
-      <c r="O214">
+      <c r="P214" s="2">
+        <v>44271</v>
+      </c>
+      <c r="R214">
         <v>18</v>
       </c>
-      <c r="P214" s="2">
+      <c r="S214" s="2">
         <v>44251</v>
-      </c>
-      <c r="Q214" s="2">
-        <v>44252</v>
-      </c>
-      <c r="R214" s="2">
-        <v>44271</v>
-      </c>
-      <c r="S214" s="2">
-        <v>44245</v>
       </c>
     </row>
     <row r="215" spans="1:19">
@@ -13968,17 +13968,17 @@
       <c r="K215" s="2">
         <v>44246</v>
       </c>
-      <c r="M215" s="2">
+      <c r="L215" s="2">
+        <v>44252</v>
+      </c>
+      <c r="O215" s="2">
         <v>44284</v>
       </c>
-      <c r="O215">
+      <c r="P215" s="2">
+        <v>44284</v>
+      </c>
+      <c r="R215">
         <v>26</v>
-      </c>
-      <c r="R215" s="2">
-        <v>44284</v>
-      </c>
-      <c r="S215" s="2">
-        <v>44252</v>
       </c>
     </row>
     <row r="216" spans="1:19">
@@ -14012,14 +14012,14 @@
       <c r="K216" s="2">
         <v>44246</v>
       </c>
-      <c r="O216">
+      <c r="L216" s="2">
+        <v>44252</v>
+      </c>
+      <c r="P216" s="2">
+        <v>44259</v>
+      </c>
+      <c r="R216">
         <v>9</v>
-      </c>
-      <c r="R216" s="2">
-        <v>44259</v>
-      </c>
-      <c r="S216" s="2">
-        <v>44252</v>
       </c>
     </row>
     <row r="217" spans="1:19">
@@ -14056,14 +14056,14 @@
       <c r="K217" s="2">
         <v>44246</v>
       </c>
-      <c r="O217">
+      <c r="L217" s="2">
+        <v>44252</v>
+      </c>
+      <c r="P217" s="2">
+        <v>44259</v>
+      </c>
+      <c r="R217">
         <v>9</v>
-      </c>
-      <c r="R217" s="2">
-        <v>44259</v>
-      </c>
-      <c r="S217" s="2">
-        <v>44252</v>
       </c>
     </row>
     <row r="218" spans="1:19">
@@ -14100,14 +14100,14 @@
       <c r="K218" s="2">
         <v>44246</v>
       </c>
-      <c r="O218">
+      <c r="L218" s="2">
+        <v>44257</v>
+      </c>
+      <c r="P218" s="2">
+        <v>44264</v>
+      </c>
+      <c r="R218">
         <v>12</v>
-      </c>
-      <c r="R218" s="2">
-        <v>44264</v>
-      </c>
-      <c r="S218" s="2">
-        <v>44257</v>
       </c>
     </row>
     <row r="219" spans="1:19">
@@ -14144,14 +14144,14 @@
       <c r="K219" s="2">
         <v>44249</v>
       </c>
-      <c r="O219">
+      <c r="L219" s="2">
+        <v>44257</v>
+      </c>
+      <c r="P219" s="2">
+        <v>44264</v>
+      </c>
+      <c r="R219">
         <v>11</v>
-      </c>
-      <c r="R219" s="2">
-        <v>44264</v>
-      </c>
-      <c r="S219" s="2">
-        <v>44257</v>
       </c>
     </row>
     <row r="220" spans="1:19">
@@ -14185,14 +14185,14 @@
       <c r="K220" s="2">
         <v>44249</v>
       </c>
-      <c r="O220">
+      <c r="L220" s="2">
+        <v>44252</v>
+      </c>
+      <c r="P220" s="2">
+        <v>44260</v>
+      </c>
+      <c r="R220">
         <v>9</v>
-      </c>
-      <c r="R220" s="2">
-        <v>44260</v>
-      </c>
-      <c r="S220" s="2">
-        <v>44252</v>
       </c>
     </row>
     <row r="221" spans="1:19">
@@ -14226,14 +14226,14 @@
       <c r="K221" s="2">
         <v>44249</v>
       </c>
-      <c r="O221">
+      <c r="L221" s="2">
+        <v>44253</v>
+      </c>
+      <c r="P221" s="2">
+        <v>44259</v>
+      </c>
+      <c r="R221">
         <v>8</v>
-      </c>
-      <c r="R221" s="2">
-        <v>44259</v>
-      </c>
-      <c r="S221" s="2">
-        <v>44253</v>
       </c>
     </row>
     <row r="222" spans="1:19">
@@ -14270,14 +14270,14 @@
       <c r="K222" s="2">
         <v>44250</v>
       </c>
-      <c r="O222">
+      <c r="L222" s="2">
+        <v>44257</v>
+      </c>
+      <c r="P222" s="2">
+        <v>44264</v>
+      </c>
+      <c r="R222">
         <v>10</v>
-      </c>
-      <c r="R222" s="2">
-        <v>44264</v>
-      </c>
-      <c r="S222" s="2">
-        <v>44257</v>
       </c>
     </row>
     <row r="223" spans="1:19">
@@ -14314,23 +14314,23 @@
       <c r="K223" s="2">
         <v>44250</v>
       </c>
+      <c r="L223" s="2">
+        <v>44253</v>
+      </c>
       <c r="M223" s="2">
+        <v>44270</v>
+      </c>
+      <c r="O223" s="2">
         <v>44273.65716435185</v>
       </c>
-      <c r="O223">
+      <c r="P223" s="2">
+        <v>44277</v>
+      </c>
+      <c r="R223">
         <v>19</v>
       </c>
-      <c r="P223" s="2">
+      <c r="S223" s="2">
         <v>44257</v>
-      </c>
-      <c r="Q223" s="2">
-        <v>44270</v>
-      </c>
-      <c r="R223" s="2">
-        <v>44277</v>
-      </c>
-      <c r="S223" s="2">
-        <v>44253</v>
       </c>
     </row>
     <row r="224" spans="1:19">
@@ -14367,14 +14367,14 @@
       <c r="K224" s="2">
         <v>44251</v>
       </c>
-      <c r="O224">
+      <c r="L224" s="2">
+        <v>44251</v>
+      </c>
+      <c r="P224" s="2">
+        <v>44259</v>
+      </c>
+      <c r="R224">
         <v>6</v>
-      </c>
-      <c r="R224" s="2">
-        <v>44259</v>
-      </c>
-      <c r="S224" s="2">
-        <v>44251</v>
       </c>
     </row>
     <row r="225" spans="1:19">
@@ -14411,14 +14411,14 @@
       <c r="K225" s="2">
         <v>44251</v>
       </c>
-      <c r="O225">
+      <c r="L225" s="2">
+        <v>44257</v>
+      </c>
+      <c r="P225" s="2">
+        <v>44264</v>
+      </c>
+      <c r="R225">
         <v>9</v>
-      </c>
-      <c r="R225" s="2">
-        <v>44264</v>
-      </c>
-      <c r="S225" s="2">
-        <v>44257</v>
       </c>
     </row>
     <row r="226" spans="1:19">
@@ -14455,20 +14455,20 @@
       <c r="K226" s="2">
         <v>44251</v>
       </c>
+      <c r="L226" s="2">
+        <v>44251</v>
+      </c>
       <c r="M226" s="2">
+        <v>44259</v>
+      </c>
+      <c r="O226" s="2">
         <v>44272.51019675926</v>
       </c>
-      <c r="O226">
+      <c r="P226" s="2">
+        <v>44273</v>
+      </c>
+      <c r="R226">
         <v>16</v>
-      </c>
-      <c r="P226" s="2">
-        <v>44251</v>
-      </c>
-      <c r="Q226" s="2">
-        <v>44259</v>
-      </c>
-      <c r="R226" s="2">
-        <v>44273</v>
       </c>
       <c r="S226" s="2">
         <v>44251</v>
@@ -14505,14 +14505,14 @@
       <c r="K227" s="2">
         <v>44251</v>
       </c>
-      <c r="O227">
+      <c r="L227" s="2">
+        <v>44252</v>
+      </c>
+      <c r="P227" s="2">
+        <v>44258</v>
+      </c>
+      <c r="R227">
         <v>5</v>
-      </c>
-      <c r="R227" s="2">
-        <v>44258</v>
-      </c>
-      <c r="S227" s="2">
-        <v>44252</v>
       </c>
     </row>
     <row r="228" spans="1:19">
@@ -14546,14 +14546,14 @@
       <c r="K228" s="2">
         <v>44252</v>
       </c>
-      <c r="O228">
+      <c r="L228" s="2">
+        <v>44252</v>
+      </c>
+      <c r="P228" s="2">
+        <v>44258</v>
+      </c>
+      <c r="R228">
         <v>4</v>
-      </c>
-      <c r="R228" s="2">
-        <v>44258</v>
-      </c>
-      <c r="S228" s="2">
-        <v>44252</v>
       </c>
     </row>
     <row r="229" spans="1:19">
@@ -14587,14 +14587,14 @@
       <c r="K229" s="2">
         <v>44252</v>
       </c>
-      <c r="O229">
+      <c r="L229" s="2">
+        <v>44252</v>
+      </c>
+      <c r="P229" s="2">
+        <v>44257</v>
+      </c>
+      <c r="R229">
         <v>3</v>
-      </c>
-      <c r="R229" s="2">
-        <v>44257</v>
-      </c>
-      <c r="S229" s="2">
-        <v>44252</v>
       </c>
     </row>
     <row r="230" spans="1:19">
@@ -14631,17 +14631,17 @@
       <c r="K230" s="2">
         <v>44252</v>
       </c>
-      <c r="M230" s="2">
+      <c r="L230" s="2">
+        <v>44252</v>
+      </c>
+      <c r="O230" s="2">
         <v>44272</v>
       </c>
-      <c r="O230">
+      <c r="P230" s="2">
+        <v>44272</v>
+      </c>
+      <c r="R230">
         <v>14</v>
-      </c>
-      <c r="R230" s="2">
-        <v>44272</v>
-      </c>
-      <c r="S230" s="2">
-        <v>44252</v>
       </c>
     </row>
     <row r="231" spans="1:19">
@@ -14678,17 +14678,17 @@
       <c r="K231" s="2">
         <v>44252</v>
       </c>
-      <c r="M231" s="2">
+      <c r="L231" s="2">
+        <v>44257</v>
+      </c>
+      <c r="O231" s="2">
         <v>44258</v>
       </c>
-      <c r="O231">
+      <c r="P231" s="2">
+        <v>44258</v>
+      </c>
+      <c r="R231">
         <v>4</v>
-      </c>
-      <c r="R231" s="2">
-        <v>44258</v>
-      </c>
-      <c r="S231" s="2">
-        <v>44257</v>
       </c>
     </row>
     <row r="232" spans="1:19">
@@ -14722,14 +14722,14 @@
       <c r="K232" s="2">
         <v>44252</v>
       </c>
-      <c r="O232">
+      <c r="L232" s="2">
+        <v>44257</v>
+      </c>
+      <c r="P232" s="2">
+        <v>44260</v>
+      </c>
+      <c r="R232">
         <v>6</v>
-      </c>
-      <c r="R232" s="2">
-        <v>44260</v>
-      </c>
-      <c r="S232" s="2">
-        <v>44257</v>
       </c>
     </row>
     <row r="233" spans="1:19">
@@ -14763,14 +14763,14 @@
       <c r="K233" s="2">
         <v>44252</v>
       </c>
-      <c r="O233">
+      <c r="L233" s="2">
+        <v>44257</v>
+      </c>
+      <c r="P233" s="2">
+        <v>44259</v>
+      </c>
+      <c r="R233">
         <v>5</v>
-      </c>
-      <c r="R233" s="2">
-        <v>44259</v>
-      </c>
-      <c r="S233" s="2">
-        <v>44257</v>
       </c>
     </row>
     <row r="234" spans="1:19">
@@ -14807,11 +14807,11 @@
       <c r="K234" s="2">
         <v>44252</v>
       </c>
-      <c r="O234">
+      <c r="P234" s="2">
+        <v>44256</v>
+      </c>
+      <c r="R234">
         <v>2</v>
-      </c>
-      <c r="R234" s="2">
-        <v>44256</v>
       </c>
     </row>
     <row r="235" spans="1:19">
@@ -14845,14 +14845,14 @@
       <c r="K235" s="2">
         <v>44253</v>
       </c>
-      <c r="O235">
+      <c r="L235" s="2">
+        <v>44257</v>
+      </c>
+      <c r="P235" s="2">
+        <v>44259</v>
+      </c>
+      <c r="R235">
         <v>4</v>
-      </c>
-      <c r="R235" s="2">
-        <v>44259</v>
-      </c>
-      <c r="S235" s="2">
-        <v>44257</v>
       </c>
     </row>
     <row r="236" spans="1:19">
@@ -14886,14 +14886,14 @@
       <c r="K236" s="2">
         <v>44253</v>
       </c>
-      <c r="O236">
+      <c r="L236" s="2">
+        <v>44253</v>
+      </c>
+      <c r="P236" s="2">
+        <v>44260</v>
+      </c>
+      <c r="R236">
         <v>5</v>
-      </c>
-      <c r="R236" s="2">
-        <v>44260</v>
-      </c>
-      <c r="S236" s="2">
-        <v>44253</v>
       </c>
     </row>
     <row r="237" spans="1:19">
@@ -14927,14 +14927,14 @@
       <c r="K237" s="2">
         <v>44253</v>
       </c>
-      <c r="O237">
+      <c r="L237" s="2">
+        <v>44257</v>
+      </c>
+      <c r="P237" s="2">
+        <v>44267</v>
+      </c>
+      <c r="R237">
         <v>10</v>
-      </c>
-      <c r="R237" s="2">
-        <v>44267</v>
-      </c>
-      <c r="S237" s="2">
-        <v>44257</v>
       </c>
     </row>
     <row r="238" spans="1:19">
@@ -14971,20 +14971,20 @@
       <c r="K238" s="2">
         <v>44253</v>
       </c>
+      <c r="L238" s="2">
+        <v>44253</v>
+      </c>
       <c r="M238" s="2">
+        <v>44268</v>
+      </c>
+      <c r="O238" s="2">
         <v>44273.60190972222</v>
       </c>
-      <c r="O238">
+      <c r="P238" s="2">
+        <v>44274</v>
+      </c>
+      <c r="R238">
         <v>15</v>
-      </c>
-      <c r="P238" s="2">
-        <v>44253</v>
-      </c>
-      <c r="Q238" s="2">
-        <v>44268</v>
-      </c>
-      <c r="R238" s="2">
-        <v>44274</v>
       </c>
       <c r="S238" s="2">
         <v>44253</v>
@@ -15021,14 +15021,14 @@
       <c r="K239" s="2">
         <v>44256</v>
       </c>
-      <c r="O239">
+      <c r="L239" s="2">
+        <v>44257</v>
+      </c>
+      <c r="P239" s="2">
+        <v>44260</v>
+      </c>
+      <c r="R239">
         <v>4</v>
-      </c>
-      <c r="R239" s="2">
-        <v>44260</v>
-      </c>
-      <c r="S239" s="2">
-        <v>44257</v>
       </c>
     </row>
     <row r="240" spans="1:19">
@@ -15062,14 +15062,14 @@
       <c r="K240" s="2">
         <v>44256</v>
       </c>
-      <c r="O240">
+      <c r="L240" s="2">
+        <v>44257</v>
+      </c>
+      <c r="P240" s="2">
+        <v>44265</v>
+      </c>
+      <c r="R240">
         <v>7</v>
-      </c>
-      <c r="R240" s="2">
-        <v>44265</v>
-      </c>
-      <c r="S240" s="2">
-        <v>44257</v>
       </c>
     </row>
     <row r="241" spans="1:19">
@@ -15106,14 +15106,14 @@
       <c r="K241" s="2">
         <v>44256</v>
       </c>
-      <c r="O241">
+      <c r="L241" s="2">
+        <v>44256</v>
+      </c>
+      <c r="P241" s="2">
+        <v>44256</v>
+      </c>
+      <c r="R241">
         <v>0</v>
-      </c>
-      <c r="R241" s="2">
-        <v>44256</v>
-      </c>
-      <c r="S241" s="2">
-        <v>44256</v>
       </c>
     </row>
     <row r="242" spans="1:19">
@@ -15147,14 +15147,14 @@
       <c r="K242" s="2">
         <v>44256</v>
       </c>
-      <c r="O242">
+      <c r="L242" s="2">
+        <v>44256</v>
+      </c>
+      <c r="P242" s="2">
+        <v>44259</v>
+      </c>
+      <c r="R242">
         <v>3</v>
-      </c>
-      <c r="R242" s="2">
-        <v>44259</v>
-      </c>
-      <c r="S242" s="2">
-        <v>44256</v>
       </c>
     </row>
     <row r="243" spans="1:19">
@@ -15191,14 +15191,14 @@
       <c r="K243" s="2">
         <v>44256</v>
       </c>
-      <c r="O243">
+      <c r="L243" s="2">
+        <v>44257</v>
+      </c>
+      <c r="P243" s="2">
+        <v>44260</v>
+      </c>
+      <c r="R243">
         <v>4</v>
-      </c>
-      <c r="R243" s="2">
-        <v>44260</v>
-      </c>
-      <c r="S243" s="2">
-        <v>44257</v>
       </c>
     </row>
     <row r="244" spans="1:19">
@@ -15232,20 +15232,20 @@
       <c r="K244" s="2">
         <v>44256</v>
       </c>
+      <c r="L244" s="2">
+        <v>44257</v>
+      </c>
       <c r="M244" s="2">
+        <v>44257</v>
+      </c>
+      <c r="O244" s="2">
         <v>44277.56935185185</v>
       </c>
-      <c r="O244">
+      <c r="P244" s="2">
+        <v>44285</v>
+      </c>
+      <c r="R244">
         <v>21</v>
-      </c>
-      <c r="P244" s="2">
-        <v>44257</v>
-      </c>
-      <c r="Q244" s="2">
-        <v>44257</v>
-      </c>
-      <c r="R244" s="2">
-        <v>44285</v>
       </c>
       <c r="S244" s="2">
         <v>44257</v>
@@ -15282,14 +15282,14 @@
       <c r="K245" s="2">
         <v>44257</v>
       </c>
-      <c r="O245">
+      <c r="L245" s="2">
+        <v>44257</v>
+      </c>
+      <c r="P245" s="2">
+        <v>44260</v>
+      </c>
+      <c r="R245">
         <v>3</v>
-      </c>
-      <c r="R245" s="2">
-        <v>44260</v>
-      </c>
-      <c r="S245" s="2">
-        <v>44257</v>
       </c>
     </row>
     <row r="246" spans="1:19">
@@ -15326,14 +15326,14 @@
       <c r="K246" s="2">
         <v>44257</v>
       </c>
-      <c r="O246">
+      <c r="L246" s="2">
+        <v>44257</v>
+      </c>
+      <c r="P246" s="2">
+        <v>44257</v>
+      </c>
+      <c r="R246">
         <v>0</v>
-      </c>
-      <c r="R246" s="2">
-        <v>44257</v>
-      </c>
-      <c r="S246" s="2">
-        <v>44257</v>
       </c>
     </row>
     <row r="247" spans="1:19">
@@ -15370,14 +15370,14 @@
       <c r="K247" s="2">
         <v>44257</v>
       </c>
-      <c r="O247">
+      <c r="L247" s="2">
+        <v>44257</v>
+      </c>
+      <c r="P247" s="2">
+        <v>44265</v>
+      </c>
+      <c r="R247">
         <v>6</v>
-      </c>
-      <c r="R247" s="2">
-        <v>44265</v>
-      </c>
-      <c r="S247" s="2">
-        <v>44257</v>
       </c>
     </row>
     <row r="248" spans="1:19">
@@ -15414,14 +15414,14 @@
       <c r="K248" s="2">
         <v>44257</v>
       </c>
-      <c r="O248">
+      <c r="L248" s="2">
+        <v>44257</v>
+      </c>
+      <c r="P248" s="2">
+        <v>44257</v>
+      </c>
+      <c r="R248">
         <v>0</v>
-      </c>
-      <c r="R248" s="2">
-        <v>44257</v>
-      </c>
-      <c r="S248" s="2">
-        <v>44257</v>
       </c>
     </row>
     <row r="249" spans="1:19">
@@ -15458,14 +15458,14 @@
       <c r="K249" s="2">
         <v>44257</v>
       </c>
-      <c r="O249">
+      <c r="L249" s="2">
+        <v>44257</v>
+      </c>
+      <c r="P249" s="2">
+        <v>44272</v>
+      </c>
+      <c r="R249">
         <v>11</v>
-      </c>
-      <c r="R249" s="2">
-        <v>44272</v>
-      </c>
-      <c r="S249" s="2">
-        <v>44257</v>
       </c>
     </row>
     <row r="250" spans="1:19">
@@ -15502,14 +15502,14 @@
       <c r="K250" s="2">
         <v>44257</v>
       </c>
-      <c r="O250">
+      <c r="L250" s="2">
+        <v>44257</v>
+      </c>
+      <c r="P250" s="2">
+        <v>44272</v>
+      </c>
+      <c r="R250">
         <v>11</v>
-      </c>
-      <c r="R250" s="2">
-        <v>44272</v>
-      </c>
-      <c r="S250" s="2">
-        <v>44257</v>
       </c>
     </row>
     <row r="251" spans="1:19">
@@ -15543,14 +15543,14 @@
       <c r="K251" s="2">
         <v>44258</v>
       </c>
-      <c r="O251">
+      <c r="L251" s="2">
+        <v>44263</v>
+      </c>
+      <c r="P251" s="2">
+        <v>44279</v>
+      </c>
+      <c r="R251">
         <v>15</v>
-      </c>
-      <c r="R251" s="2">
-        <v>44279</v>
-      </c>
-      <c r="S251" s="2">
-        <v>44263</v>
       </c>
     </row>
     <row r="252" spans="1:19">
@@ -15584,17 +15584,17 @@
       <c r="K252" s="2">
         <v>44258</v>
       </c>
-      <c r="M252" s="2">
+      <c r="L252" s="2">
+        <v>44258</v>
+      </c>
+      <c r="O252" s="2">
         <v>44266</v>
       </c>
-      <c r="O252">
+      <c r="P252" s="2">
+        <v>44266</v>
+      </c>
+      <c r="R252">
         <v>6</v>
-      </c>
-      <c r="R252" s="2">
-        <v>44266</v>
-      </c>
-      <c r="S252" s="2">
-        <v>44258</v>
       </c>
     </row>
     <row r="253" spans="1:19">
@@ -15631,14 +15631,14 @@
       <c r="K253" s="2">
         <v>44258</v>
       </c>
-      <c r="O253">
+      <c r="L253" s="2">
+        <v>44258</v>
+      </c>
+      <c r="P253" s="2">
+        <v>44263</v>
+      </c>
+      <c r="R253">
         <v>3</v>
-      </c>
-      <c r="R253" s="2">
-        <v>44263</v>
-      </c>
-      <c r="S253" s="2">
-        <v>44258</v>
       </c>
     </row>
     <row r="254" spans="1:19">
@@ -15672,14 +15672,14 @@
       <c r="K254" s="2">
         <v>44258</v>
       </c>
-      <c r="O254">
+      <c r="L254" s="2">
+        <v>44263</v>
+      </c>
+      <c r="P254" s="2">
+        <v>44266</v>
+      </c>
+      <c r="R254">
         <v>6</v>
-      </c>
-      <c r="R254" s="2">
-        <v>44266</v>
-      </c>
-      <c r="S254" s="2">
-        <v>44263</v>
       </c>
     </row>
     <row r="255" spans="1:19">
@@ -15713,14 +15713,14 @@
       <c r="K255" s="2">
         <v>44258</v>
       </c>
-      <c r="O255">
+      <c r="L255" s="2">
+        <v>44263</v>
+      </c>
+      <c r="P255" s="2">
+        <v>44281</v>
+      </c>
+      <c r="R255">
         <v>17</v>
-      </c>
-      <c r="R255" s="2">
-        <v>44281</v>
-      </c>
-      <c r="S255" s="2">
-        <v>44263</v>
       </c>
     </row>
     <row r="256" spans="1:19">
@@ -15757,17 +15757,17 @@
       <c r="K256" s="2">
         <v>44258</v>
       </c>
-      <c r="O256">
+      <c r="L256" s="2">
+        <v>44260</v>
+      </c>
+      <c r="P256" s="2">
+        <v>44263</v>
+      </c>
+      <c r="R256">
         <v>3</v>
       </c>
-      <c r="R256" s="2">
-        <v>44263</v>
-      </c>
-      <c r="S256" s="2">
-        <v>44260</v>
-      </c>
-    </row>
-    <row r="257" spans="1:19">
+    </row>
+    <row r="257" spans="1:18">
       <c r="A257">
         <v>12409237</v>
       </c>
@@ -15801,17 +15801,17 @@
       <c r="K257" s="2">
         <v>44258</v>
       </c>
-      <c r="O257">
+      <c r="L257" s="2">
+        <v>44258</v>
+      </c>
+      <c r="P257" s="2">
+        <v>44263</v>
+      </c>
+      <c r="R257">
         <v>3</v>
       </c>
-      <c r="R257" s="2">
-        <v>44263</v>
-      </c>
-      <c r="S257" s="2">
-        <v>44258</v>
-      </c>
-    </row>
-    <row r="258" spans="1:19">
+    </row>
+    <row r="258" spans="1:18">
       <c r="A258">
         <v>12413091</v>
       </c>
@@ -15845,17 +15845,17 @@
       <c r="K258" s="2">
         <v>44259</v>
       </c>
-      <c r="O258">
+      <c r="L258" s="2">
+        <v>44259</v>
+      </c>
+      <c r="P258" s="2">
+        <v>44259</v>
+      </c>
+      <c r="R258">
         <v>0</v>
       </c>
-      <c r="R258" s="2">
-        <v>44259</v>
-      </c>
-      <c r="S258" s="2">
-        <v>44259</v>
-      </c>
-    </row>
-    <row r="259" spans="1:19">
+    </row>
+    <row r="259" spans="1:18">
       <c r="A259">
         <v>12413246</v>
       </c>
@@ -15889,17 +15889,17 @@
       <c r="K259" s="2">
         <v>44259</v>
       </c>
-      <c r="O259">
+      <c r="L259" s="2">
+        <v>44259</v>
+      </c>
+      <c r="P259" s="2">
+        <v>44266</v>
+      </c>
+      <c r="R259">
         <v>5</v>
       </c>
-      <c r="R259" s="2">
-        <v>44266</v>
-      </c>
-      <c r="S259" s="2">
-        <v>44259</v>
-      </c>
-    </row>
-    <row r="260" spans="1:19">
+    </row>
+    <row r="260" spans="1:18">
       <c r="A260">
         <v>12413251</v>
       </c>
@@ -15930,17 +15930,17 @@
       <c r="K260" s="2">
         <v>44259</v>
       </c>
-      <c r="O260">
+      <c r="L260" s="2">
+        <v>44263</v>
+      </c>
+      <c r="P260" s="2">
+        <v>44271</v>
+      </c>
+      <c r="R260">
         <v>8</v>
       </c>
-      <c r="R260" s="2">
-        <v>44271</v>
-      </c>
-      <c r="S260" s="2">
-        <v>44263</v>
-      </c>
-    </row>
-    <row r="261" spans="1:19">
+    </row>
+    <row r="261" spans="1:18">
       <c r="A261">
         <v>12413313</v>
       </c>
@@ -15974,17 +15974,17 @@
       <c r="K261" s="2">
         <v>44259</v>
       </c>
-      <c r="O261">
+      <c r="L261" s="2">
+        <v>44259</v>
+      </c>
+      <c r="P261" s="2">
+        <v>44259</v>
+      </c>
+      <c r="R261">
         <v>0</v>
       </c>
-      <c r="R261" s="2">
-        <v>44259</v>
-      </c>
-      <c r="S261" s="2">
-        <v>44259</v>
-      </c>
-    </row>
-    <row r="262" spans="1:19">
+    </row>
+    <row r="262" spans="1:18">
       <c r="A262">
         <v>12413343</v>
       </c>
@@ -16018,17 +16018,17 @@
       <c r="K262" s="2">
         <v>44259</v>
       </c>
-      <c r="O262">
+      <c r="L262" s="2">
+        <v>44263</v>
+      </c>
+      <c r="P262" s="2">
+        <v>44270</v>
+      </c>
+      <c r="R262">
         <v>7</v>
       </c>
-      <c r="R262" s="2">
-        <v>44270</v>
-      </c>
-      <c r="S262" s="2">
-        <v>44263</v>
-      </c>
-    </row>
-    <row r="263" spans="1:19">
+    </row>
+    <row r="263" spans="1:18">
       <c r="A263">
         <v>12419929</v>
       </c>
@@ -16062,17 +16062,17 @@
       <c r="K263" s="2">
         <v>44260</v>
       </c>
-      <c r="O263">
+      <c r="L263" s="2">
+        <v>44263</v>
+      </c>
+      <c r="P263" s="2">
+        <v>44270</v>
+      </c>
+      <c r="R263">
         <v>6</v>
       </c>
-      <c r="R263" s="2">
-        <v>44270</v>
-      </c>
-      <c r="S263" s="2">
-        <v>44263</v>
-      </c>
-    </row>
-    <row r="264" spans="1:19">
+    </row>
+    <row r="264" spans="1:18">
       <c r="A264">
         <v>12421235</v>
       </c>
@@ -16106,17 +16106,17 @@
       <c r="K264" s="2">
         <v>44260</v>
       </c>
-      <c r="O264">
+      <c r="L264" s="2">
+        <v>44263</v>
+      </c>
+      <c r="P264" s="2">
+        <v>44277</v>
+      </c>
+      <c r="R264">
         <v>11</v>
       </c>
-      <c r="R264" s="2">
-        <v>44277</v>
-      </c>
-      <c r="S264" s="2">
-        <v>44263</v>
-      </c>
-    </row>
-    <row r="265" spans="1:19">
+    </row>
+    <row r="265" spans="1:18">
       <c r="A265">
         <v>12421246</v>
       </c>
@@ -16150,17 +16150,17 @@
       <c r="K265" s="2">
         <v>44260</v>
       </c>
-      <c r="O265">
+      <c r="L265" s="2">
+        <v>44263</v>
+      </c>
+      <c r="P265" s="2">
+        <v>44263</v>
+      </c>
+      <c r="R265">
         <v>1</v>
       </c>
-      <c r="R265" s="2">
-        <v>44263</v>
-      </c>
-      <c r="S265" s="2">
-        <v>44263</v>
-      </c>
-    </row>
-    <row r="266" spans="1:19">
+    </row>
+    <row r="266" spans="1:18">
       <c r="A266">
         <v>12421410</v>
       </c>
@@ -16194,20 +16194,20 @@
       <c r="K266" s="2">
         <v>44260</v>
       </c>
-      <c r="M266" s="2">
+      <c r="L266" s="2">
+        <v>44260</v>
+      </c>
+      <c r="O266" s="2">
         <v>44266</v>
       </c>
-      <c r="O266">
+      <c r="P266" s="2">
+        <v>44266</v>
+      </c>
+      <c r="R266">
         <v>4</v>
       </c>
-      <c r="R266" s="2">
-        <v>44266</v>
-      </c>
-      <c r="S266" s="2">
-        <v>44260</v>
-      </c>
-    </row>
-    <row r="267" spans="1:19">
+    </row>
+    <row r="267" spans="1:18">
       <c r="A267">
         <v>12421496</v>
       </c>
@@ -16238,17 +16238,17 @@
       <c r="K267" s="2">
         <v>44260</v>
       </c>
-      <c r="O267">
+      <c r="L267" s="2">
+        <v>44260</v>
+      </c>
+      <c r="P267" s="2">
+        <v>44265</v>
+      </c>
+      <c r="R267">
         <v>3</v>
       </c>
-      <c r="R267" s="2">
-        <v>44265</v>
-      </c>
-      <c r="S267" s="2">
-        <v>44260</v>
-      </c>
-    </row>
-    <row r="268" spans="1:19">
+    </row>
+    <row r="268" spans="1:18">
       <c r="A268">
         <v>12433100</v>
       </c>
@@ -16279,17 +16279,17 @@
       <c r="K268" s="2">
         <v>44263</v>
       </c>
-      <c r="O268">
+      <c r="L268" s="2">
+        <v>44265</v>
+      </c>
+      <c r="P268" s="2">
+        <v>44266</v>
+      </c>
+      <c r="R268">
         <v>3</v>
       </c>
-      <c r="R268" s="2">
-        <v>44266</v>
-      </c>
-      <c r="S268" s="2">
-        <v>44265</v>
-      </c>
-    </row>
-    <row r="269" spans="1:19">
+    </row>
+    <row r="269" spans="1:18">
       <c r="A269">
         <v>12437623</v>
       </c>
@@ -16320,17 +16320,17 @@
       <c r="K269" s="2">
         <v>44263</v>
       </c>
-      <c r="O269">
+      <c r="L269" s="2">
+        <v>44263</v>
+      </c>
+      <c r="P269" s="2">
+        <v>44263</v>
+      </c>
+      <c r="R269">
         <v>0</v>
       </c>
-      <c r="R269" s="2">
-        <v>44263</v>
-      </c>
-      <c r="S269" s="2">
-        <v>44263</v>
-      </c>
-    </row>
-    <row r="270" spans="1:19">
+    </row>
+    <row r="270" spans="1:18">
       <c r="A270">
         <v>12439270</v>
       </c>
@@ -16361,17 +16361,17 @@
       <c r="K270" s="2">
         <v>44263</v>
       </c>
-      <c r="O270">
+      <c r="L270" s="2">
+        <v>44265</v>
+      </c>
+      <c r="P270" s="2">
+        <v>44267</v>
+      </c>
+      <c r="R270">
         <v>4</v>
       </c>
-      <c r="R270" s="2">
-        <v>44267</v>
-      </c>
-      <c r="S270" s="2">
-        <v>44265</v>
-      </c>
-    </row>
-    <row r="271" spans="1:19">
+    </row>
+    <row r="271" spans="1:18">
       <c r="A271">
         <v>12439552</v>
       </c>
@@ -16405,14 +16405,14 @@
       <c r="K271" s="2">
         <v>44263</v>
       </c>
-      <c r="O271">
+      <c r="P271" s="2">
+        <v>44263</v>
+      </c>
+      <c r="R271">
         <v>0</v>
       </c>
-      <c r="R271" s="2">
-        <v>44263</v>
-      </c>
-    </row>
-    <row r="272" spans="1:19">
+    </row>
+    <row r="272" spans="1:18">
       <c r="A272">
         <v>12439858</v>
       </c>
@@ -16443,17 +16443,17 @@
       <c r="K272" s="2">
         <v>44263</v>
       </c>
-      <c r="O272">
+      <c r="L272" s="2">
+        <v>44265</v>
+      </c>
+      <c r="P272" s="2">
+        <v>44271</v>
+      </c>
+      <c r="R272">
         <v>6</v>
       </c>
-      <c r="R272" s="2">
-        <v>44271</v>
-      </c>
-      <c r="S272" s="2">
-        <v>44265</v>
-      </c>
-    </row>
-    <row r="273" spans="1:19">
+    </row>
+    <row r="273" spans="1:18">
       <c r="A273">
         <v>12442542</v>
       </c>
@@ -16484,17 +16484,17 @@
       <c r="K273" s="2">
         <v>44264</v>
       </c>
-      <c r="O273">
+      <c r="L273" s="2">
+        <v>44265</v>
+      </c>
+      <c r="P273" s="2">
+        <v>44277</v>
+      </c>
+      <c r="R273">
         <v>9</v>
       </c>
-      <c r="R273" s="2">
-        <v>44277</v>
-      </c>
-      <c r="S273" s="2">
-        <v>44265</v>
-      </c>
-    </row>
-    <row r="274" spans="1:19">
+    </row>
+    <row r="274" spans="1:18">
       <c r="A274">
         <v>12443057</v>
       </c>
@@ -16525,17 +16525,17 @@
       <c r="K274" s="2">
         <v>44264</v>
       </c>
-      <c r="O274">
+      <c r="L274" s="2">
+        <v>44265</v>
+      </c>
+      <c r="P274" s="2">
+        <v>44270</v>
+      </c>
+      <c r="R274">
         <v>4</v>
       </c>
-      <c r="R274" s="2">
-        <v>44270</v>
-      </c>
-      <c r="S274" s="2">
-        <v>44265</v>
-      </c>
-    </row>
-    <row r="275" spans="1:19">
+    </row>
+    <row r="275" spans="1:18">
       <c r="A275">
         <v>12445646</v>
       </c>
@@ -16566,17 +16566,17 @@
       <c r="K275" s="2">
         <v>44264</v>
       </c>
-      <c r="O275">
+      <c r="L275" s="2">
+        <v>44265</v>
+      </c>
+      <c r="P275" s="2">
+        <v>44266</v>
+      </c>
+      <c r="R275">
         <v>2</v>
       </c>
-      <c r="R275" s="2">
-        <v>44266</v>
-      </c>
-      <c r="S275" s="2">
-        <v>44265</v>
-      </c>
-    </row>
-    <row r="276" spans="1:19">
+    </row>
+    <row r="276" spans="1:18">
       <c r="A276">
         <v>12447416</v>
       </c>
@@ -16610,17 +16610,17 @@
       <c r="K276" s="2">
         <v>44265</v>
       </c>
-      <c r="O276">
+      <c r="L276" s="2">
+        <v>44265</v>
+      </c>
+      <c r="P276" s="2">
+        <v>44279</v>
+      </c>
+      <c r="R276">
         <v>10</v>
       </c>
-      <c r="R276" s="2">
-        <v>44279</v>
-      </c>
-      <c r="S276" s="2">
-        <v>44265</v>
-      </c>
-    </row>
-    <row r="277" spans="1:19">
+    </row>
+    <row r="277" spans="1:18">
       <c r="A277">
         <v>12447571</v>
       </c>
@@ -16651,17 +16651,17 @@
       <c r="K277" s="2">
         <v>44265</v>
       </c>
-      <c r="O277">
+      <c r="L277" s="2">
+        <v>44265</v>
+      </c>
+      <c r="P277" s="2">
+        <v>44265</v>
+      </c>
+      <c r="R277">
         <v>0</v>
       </c>
-      <c r="R277" s="2">
-        <v>44265</v>
-      </c>
-      <c r="S277" s="2">
-        <v>44265</v>
-      </c>
-    </row>
-    <row r="278" spans="1:19">
+    </row>
+    <row r="278" spans="1:18">
       <c r="A278">
         <v>12447657</v>
       </c>
@@ -16695,17 +16695,17 @@
       <c r="K278" s="2">
         <v>44265</v>
       </c>
-      <c r="O278">
+      <c r="L278" s="2">
+        <v>44265</v>
+      </c>
+      <c r="P278" s="2">
+        <v>44270</v>
+      </c>
+      <c r="R278">
         <v>3</v>
       </c>
-      <c r="R278" s="2">
-        <v>44270</v>
-      </c>
-      <c r="S278" s="2">
-        <v>44265</v>
-      </c>
-    </row>
-    <row r="279" spans="1:19">
+    </row>
+    <row r="279" spans="1:18">
       <c r="A279">
         <v>12447662</v>
       </c>
@@ -16739,20 +16739,20 @@
       <c r="K279" s="2">
         <v>44265</v>
       </c>
-      <c r="M279" s="2">
+      <c r="L279" s="2">
+        <v>44265</v>
+      </c>
+      <c r="O279" s="2">
         <v>44271</v>
       </c>
-      <c r="O279">
+      <c r="P279" s="2">
+        <v>44271</v>
+      </c>
+      <c r="R279">
         <v>4</v>
       </c>
-      <c r="R279" s="2">
-        <v>44271</v>
-      </c>
-      <c r="S279" s="2">
-        <v>44265</v>
-      </c>
-    </row>
-    <row r="280" spans="1:19">
+    </row>
+    <row r="280" spans="1:18">
       <c r="A280">
         <v>12447889</v>
       </c>
@@ -16786,17 +16786,17 @@
       <c r="K280" s="2">
         <v>44265</v>
       </c>
-      <c r="O280">
+      <c r="L280" s="2">
+        <v>44265</v>
+      </c>
+      <c r="P280" s="2">
+        <v>44271</v>
+      </c>
+      <c r="R280">
         <v>4</v>
       </c>
-      <c r="R280" s="2">
-        <v>44271</v>
-      </c>
-      <c r="S280" s="2">
-        <v>44265</v>
-      </c>
-    </row>
-    <row r="281" spans="1:19">
+    </row>
+    <row r="281" spans="1:18">
       <c r="A281">
         <v>12448133</v>
       </c>
@@ -16830,17 +16830,17 @@
       <c r="K281" s="2">
         <v>44265</v>
       </c>
-      <c r="O281">
+      <c r="L281" s="2">
+        <v>44265</v>
+      </c>
+      <c r="P281" s="2">
+        <v>44266</v>
+      </c>
+      <c r="R281">
         <v>1</v>
       </c>
-      <c r="R281" s="2">
-        <v>44266</v>
-      </c>
-      <c r="S281" s="2">
-        <v>44265</v>
-      </c>
-    </row>
-    <row r="282" spans="1:19">
+    </row>
+    <row r="282" spans="1:18">
       <c r="A282">
         <v>12448603</v>
       </c>
@@ -16874,17 +16874,17 @@
       <c r="K282" s="2">
         <v>44265</v>
       </c>
-      <c r="O282">
+      <c r="L282" s="2">
+        <v>44265</v>
+      </c>
+      <c r="P282" s="2">
+        <v>44273</v>
+      </c>
+      <c r="R282">
         <v>6</v>
       </c>
-      <c r="R282" s="2">
-        <v>44273</v>
-      </c>
-      <c r="S282" s="2">
-        <v>44265</v>
-      </c>
-    </row>
-    <row r="283" spans="1:19">
+    </row>
+    <row r="283" spans="1:18">
       <c r="A283">
         <v>12451598</v>
       </c>
@@ -16918,17 +16918,17 @@
       <c r="K283" s="2">
         <v>44266</v>
       </c>
-      <c r="O283">
+      <c r="L283" s="2">
+        <v>44267</v>
+      </c>
+      <c r="P283" s="2">
+        <v>44267</v>
+      </c>
+      <c r="R283">
         <v>1</v>
       </c>
-      <c r="R283" s="2">
-        <v>44267</v>
-      </c>
-      <c r="S283" s="2">
-        <v>44267</v>
-      </c>
-    </row>
-    <row r="284" spans="1:19">
+    </row>
+    <row r="284" spans="1:18">
       <c r="A284">
         <v>12451603</v>
       </c>
@@ -16962,17 +16962,17 @@
       <c r="K284" s="2">
         <v>44266</v>
       </c>
-      <c r="O284">
+      <c r="L284" s="2">
+        <v>44266</v>
+      </c>
+      <c r="P284" s="2">
+        <v>44280</v>
+      </c>
+      <c r="R284">
         <v>10</v>
       </c>
-      <c r="R284" s="2">
-        <v>44280</v>
-      </c>
-      <c r="S284" s="2">
-        <v>44266</v>
-      </c>
-    </row>
-    <row r="285" spans="1:19">
+    </row>
+    <row r="285" spans="1:18">
       <c r="A285">
         <v>12452488</v>
       </c>
@@ -17006,17 +17006,17 @@
       <c r="K285" s="2">
         <v>44266</v>
       </c>
-      <c r="O285">
+      <c r="L285" s="2">
+        <v>44267</v>
+      </c>
+      <c r="P285" s="2">
+        <v>44280</v>
+      </c>
+      <c r="R285">
         <v>10</v>
       </c>
-      <c r="R285" s="2">
-        <v>44280</v>
-      </c>
-      <c r="S285" s="2">
-        <v>44267</v>
-      </c>
-    </row>
-    <row r="286" spans="1:19">
+    </row>
+    <row r="286" spans="1:18">
       <c r="A286">
         <v>12455594</v>
       </c>
@@ -17047,17 +17047,17 @@
       <c r="K286" s="2">
         <v>44267</v>
       </c>
-      <c r="O286">
+      <c r="L286" s="2">
+        <v>44267</v>
+      </c>
+      <c r="P286" s="2">
+        <v>44267</v>
+      </c>
+      <c r="R286">
         <v>0</v>
       </c>
-      <c r="R286" s="2">
-        <v>44267</v>
-      </c>
-      <c r="S286" s="2">
-        <v>44267</v>
-      </c>
-    </row>
-    <row r="287" spans="1:19">
+    </row>
+    <row r="287" spans="1:18">
       <c r="A287">
         <v>12456629</v>
       </c>
@@ -17091,17 +17091,17 @@
       <c r="K287" s="2">
         <v>44267</v>
       </c>
-      <c r="O287">
+      <c r="L287" s="2">
+        <v>44272</v>
+      </c>
+      <c r="P287" s="2">
+        <v>44279</v>
+      </c>
+      <c r="R287">
         <v>8</v>
       </c>
-      <c r="R287" s="2">
-        <v>44279</v>
-      </c>
-      <c r="S287" s="2">
-        <v>44272</v>
-      </c>
-    </row>
-    <row r="288" spans="1:19">
+    </row>
+    <row r="288" spans="1:18">
       <c r="A288">
         <v>12462954</v>
       </c>
@@ -17132,17 +17132,17 @@
       <c r="K288" s="2">
         <v>44270</v>
       </c>
-      <c r="O288">
+      <c r="L288" s="2">
+        <v>44270</v>
+      </c>
+      <c r="P288" s="2">
+        <v>44286</v>
+      </c>
+      <c r="R288">
         <v>12</v>
       </c>
-      <c r="R288" s="2">
-        <v>44286</v>
-      </c>
-      <c r="S288" s="2">
-        <v>44270</v>
-      </c>
-    </row>
-    <row r="289" spans="1:19">
+    </row>
+    <row r="289" spans="1:18">
       <c r="A289">
         <v>12463238</v>
       </c>
@@ -17173,17 +17173,17 @@
       <c r="K289" s="2">
         <v>44270</v>
       </c>
-      <c r="O289">
+      <c r="L289" s="2">
+        <v>44270</v>
+      </c>
+      <c r="P289" s="2">
+        <v>44271</v>
+      </c>
+      <c r="R289">
         <v>1</v>
       </c>
-      <c r="R289" s="2">
-        <v>44271</v>
-      </c>
-      <c r="S289" s="2">
-        <v>44270</v>
-      </c>
-    </row>
-    <row r="290" spans="1:19">
+    </row>
+    <row r="290" spans="1:18">
       <c r="A290">
         <v>12463692</v>
       </c>
@@ -17217,17 +17217,17 @@
       <c r="K290" s="2">
         <v>44270</v>
       </c>
-      <c r="O290">
+      <c r="L290" s="2">
+        <v>44272</v>
+      </c>
+      <c r="P290" s="2">
+        <v>44273</v>
+      </c>
+      <c r="R290">
         <v>3</v>
       </c>
-      <c r="R290" s="2">
-        <v>44273</v>
-      </c>
-      <c r="S290" s="2">
-        <v>44272</v>
-      </c>
-    </row>
-    <row r="291" spans="1:19">
+    </row>
+    <row r="291" spans="1:18">
       <c r="A291">
         <v>12464299</v>
       </c>
@@ -17261,17 +17261,17 @@
       <c r="K291" s="2">
         <v>44270</v>
       </c>
-      <c r="O291">
+      <c r="L291" s="2">
+        <v>44272</v>
+      </c>
+      <c r="P291" s="2">
+        <v>44273</v>
+      </c>
+      <c r="R291">
         <v>3</v>
       </c>
-      <c r="R291" s="2">
-        <v>44273</v>
-      </c>
-      <c r="S291" s="2">
-        <v>44272</v>
-      </c>
-    </row>
-    <row r="292" spans="1:19">
+    </row>
+    <row r="292" spans="1:18">
       <c r="A292">
         <v>12464418</v>
       </c>
@@ -17305,17 +17305,17 @@
       <c r="K292" s="2">
         <v>44270</v>
       </c>
-      <c r="O292">
+      <c r="L292" s="2">
+        <v>44270</v>
+      </c>
+      <c r="P292" s="2">
+        <v>44273</v>
+      </c>
+      <c r="R292">
         <v>3</v>
       </c>
-      <c r="R292" s="2">
-        <v>44273</v>
-      </c>
-      <c r="S292" s="2">
-        <v>44270</v>
-      </c>
-    </row>
-    <row r="293" spans="1:19">
+    </row>
+    <row r="293" spans="1:18">
       <c r="A293">
         <v>12466926</v>
       </c>
@@ -17349,17 +17349,17 @@
       <c r="K293" s="2">
         <v>44271</v>
       </c>
-      <c r="O293">
+      <c r="L293" s="2">
+        <v>44272</v>
+      </c>
+      <c r="P293" s="2">
+        <v>44279</v>
+      </c>
+      <c r="R293">
         <v>6</v>
       </c>
-      <c r="R293" s="2">
-        <v>44279</v>
-      </c>
-      <c r="S293" s="2">
-        <v>44272</v>
-      </c>
-    </row>
-    <row r="294" spans="1:19">
+    </row>
+    <row r="294" spans="1:18">
       <c r="A294">
         <v>12466971</v>
       </c>
@@ -17393,17 +17393,17 @@
       <c r="K294" s="2">
         <v>44271</v>
       </c>
-      <c r="O294">
+      <c r="L294" s="2">
+        <v>44272</v>
+      </c>
+      <c r="P294" s="2">
+        <v>44279</v>
+      </c>
+      <c r="R294">
         <v>6</v>
       </c>
-      <c r="R294" s="2">
-        <v>44279</v>
-      </c>
-      <c r="S294" s="2">
-        <v>44272</v>
-      </c>
-    </row>
-    <row r="295" spans="1:19">
+    </row>
+    <row r="295" spans="1:18">
       <c r="A295">
         <v>12467051</v>
       </c>
@@ -17437,17 +17437,17 @@
       <c r="K295" s="2">
         <v>44271</v>
       </c>
-      <c r="O295">
+      <c r="L295" s="2">
+        <v>44271</v>
+      </c>
+      <c r="P295" s="2">
+        <v>44271</v>
+      </c>
+      <c r="R295">
         <v>0</v>
       </c>
-      <c r="R295" s="2">
-        <v>44271</v>
-      </c>
-      <c r="S295" s="2">
-        <v>44271</v>
-      </c>
-    </row>
-    <row r="296" spans="1:19">
+    </row>
+    <row r="296" spans="1:18">
       <c r="A296">
         <v>12467156</v>
       </c>
@@ -17481,17 +17481,17 @@
       <c r="K296" s="2">
         <v>44271</v>
       </c>
-      <c r="O296">
+      <c r="L296" s="2">
+        <v>44272</v>
+      </c>
+      <c r="P296" s="2">
+        <v>44279</v>
+      </c>
+      <c r="R296">
         <v>6</v>
       </c>
-      <c r="R296" s="2">
-        <v>44279</v>
-      </c>
-      <c r="S296" s="2">
-        <v>44272</v>
-      </c>
-    </row>
-    <row r="297" spans="1:19">
+    </row>
+    <row r="297" spans="1:18">
       <c r="A297">
         <v>12467738</v>
       </c>
@@ -17525,14 +17525,14 @@
       <c r="K297" s="2">
         <v>44271</v>
       </c>
-      <c r="O297">
+      <c r="P297" s="2">
+        <v>44271</v>
+      </c>
+      <c r="R297">
         <v>0</v>
       </c>
-      <c r="R297" s="2">
-        <v>44271</v>
-      </c>
-    </row>
-    <row r="298" spans="1:19">
+    </row>
+    <row r="298" spans="1:18">
       <c r="A298">
         <v>12468911</v>
       </c>
@@ -17566,17 +17566,17 @@
       <c r="K298" s="2">
         <v>44271</v>
       </c>
-      <c r="O298">
+      <c r="L298" s="2">
+        <v>44272</v>
+      </c>
+      <c r="P298" s="2">
+        <v>44273</v>
+      </c>
+      <c r="R298">
         <v>2</v>
       </c>
-      <c r="R298" s="2">
-        <v>44273</v>
-      </c>
-      <c r="S298" s="2">
-        <v>44272</v>
-      </c>
-    </row>
-    <row r="299" spans="1:19">
+    </row>
+    <row r="299" spans="1:18">
       <c r="A299">
         <v>12469207</v>
       </c>
@@ -17610,17 +17610,17 @@
       <c r="K299" s="2">
         <v>44271</v>
       </c>
-      <c r="O299">
+      <c r="L299" s="2">
+        <v>44272</v>
+      </c>
+      <c r="P299" s="2">
+        <v>44279</v>
+      </c>
+      <c r="R299">
         <v>6</v>
       </c>
-      <c r="R299" s="2">
-        <v>44279</v>
-      </c>
-      <c r="S299" s="2">
-        <v>44272</v>
-      </c>
-    </row>
-    <row r="300" spans="1:19">
+    </row>
+    <row r="300" spans="1:18">
       <c r="A300">
         <v>12469212</v>
       </c>
@@ -17654,17 +17654,17 @@
       <c r="K300" s="2">
         <v>44271</v>
       </c>
-      <c r="O300">
+      <c r="L300" s="2">
+        <v>44272</v>
+      </c>
+      <c r="P300" s="2">
+        <v>44279</v>
+      </c>
+      <c r="R300">
         <v>6</v>
       </c>
-      <c r="R300" s="2">
-        <v>44279</v>
-      </c>
-      <c r="S300" s="2">
-        <v>44272</v>
-      </c>
-    </row>
-    <row r="301" spans="1:19">
+    </row>
+    <row r="301" spans="1:18">
       <c r="A301">
         <v>12471083</v>
       </c>
@@ -17698,17 +17698,17 @@
       <c r="K301" s="2">
         <v>44272</v>
       </c>
-      <c r="O301">
+      <c r="L301" s="2">
+        <v>44272</v>
+      </c>
+      <c r="P301" s="2">
+        <v>44280</v>
+      </c>
+      <c r="R301">
         <v>6</v>
       </c>
-      <c r="R301" s="2">
-        <v>44280</v>
-      </c>
-      <c r="S301" s="2">
-        <v>44272</v>
-      </c>
-    </row>
-    <row r="302" spans="1:19">
+    </row>
+    <row r="302" spans="1:18">
       <c r="A302">
         <v>12471186</v>
       </c>
@@ -17742,17 +17742,17 @@
       <c r="K302" s="2">
         <v>44272</v>
       </c>
-      <c r="O302">
+      <c r="L302" s="2">
+        <v>44272</v>
+      </c>
+      <c r="P302" s="2">
+        <v>44277</v>
+      </c>
+      <c r="R302">
         <v>3</v>
       </c>
-      <c r="R302" s="2">
-        <v>44277</v>
-      </c>
-      <c r="S302" s="2">
-        <v>44272</v>
-      </c>
-    </row>
-    <row r="303" spans="1:19">
+    </row>
+    <row r="303" spans="1:18">
       <c r="A303">
         <v>12471555</v>
       </c>
@@ -17786,17 +17786,17 @@
       <c r="K303" s="2">
         <v>44272</v>
       </c>
-      <c r="O303">
+      <c r="L303" s="2">
+        <v>44272</v>
+      </c>
+      <c r="P303" s="2">
+        <v>44279</v>
+      </c>
+      <c r="R303">
         <v>5</v>
       </c>
-      <c r="R303" s="2">
-        <v>44279</v>
-      </c>
-      <c r="S303" s="2">
-        <v>44272</v>
-      </c>
-    </row>
-    <row r="304" spans="1:19">
+    </row>
+    <row r="304" spans="1:18">
       <c r="A304">
         <v>12471560</v>
       </c>
@@ -17827,17 +17827,17 @@
       <c r="K304" s="2">
         <v>44272</v>
       </c>
-      <c r="O304">
+      <c r="L304" s="2">
+        <v>44272</v>
+      </c>
+      <c r="P304" s="2">
+        <v>44279</v>
+      </c>
+      <c r="R304">
         <v>5</v>
       </c>
-      <c r="R304" s="2">
-        <v>44279</v>
-      </c>
-      <c r="S304" s="2">
-        <v>44272</v>
-      </c>
-    </row>
-    <row r="305" spans="1:19">
+    </row>
+    <row r="305" spans="1:18">
       <c r="A305">
         <v>12471878</v>
       </c>
@@ -17871,17 +17871,17 @@
       <c r="K305" s="2">
         <v>44272</v>
       </c>
-      <c r="O305">
+      <c r="L305" s="2">
+        <v>44272</v>
+      </c>
+      <c r="P305" s="2">
+        <v>44272</v>
+      </c>
+      <c r="R305">
         <v>0</v>
       </c>
-      <c r="R305" s="2">
-        <v>44272</v>
-      </c>
-      <c r="S305" s="2">
-        <v>44272</v>
-      </c>
-    </row>
-    <row r="306" spans="1:19">
+    </row>
+    <row r="306" spans="1:18">
       <c r="A306">
         <v>12472186</v>
       </c>
@@ -17912,17 +17912,17 @@
       <c r="K306" s="2">
         <v>44272</v>
       </c>
-      <c r="O306">
+      <c r="L306" s="2">
+        <v>44272</v>
+      </c>
+      <c r="P306" s="2">
+        <v>44274</v>
+      </c>
+      <c r="R306">
         <v>2</v>
       </c>
-      <c r="R306" s="2">
-        <v>44274</v>
-      </c>
-      <c r="S306" s="2">
-        <v>44272</v>
-      </c>
-    </row>
-    <row r="307" spans="1:19">
+    </row>
+    <row r="307" spans="1:18">
       <c r="A307">
         <v>12472284</v>
       </c>
@@ -17956,14 +17956,14 @@
       <c r="K307" s="2">
         <v>44272</v>
       </c>
-      <c r="O307">
+      <c r="P307" s="2">
+        <v>44277</v>
+      </c>
+      <c r="R307">
         <v>3</v>
       </c>
-      <c r="R307" s="2">
-        <v>44277</v>
-      </c>
-    </row>
-    <row r="308" spans="1:19">
+    </row>
+    <row r="308" spans="1:18">
       <c r="A308">
         <v>12472918</v>
       </c>
@@ -17997,17 +17997,17 @@
       <c r="K308" s="2">
         <v>44273</v>
       </c>
-      <c r="O308">
+      <c r="L308" s="2">
+        <v>44278</v>
+      </c>
+      <c r="P308" s="2">
+        <v>44278</v>
+      </c>
+      <c r="R308">
         <v>3</v>
       </c>
-      <c r="R308" s="2">
-        <v>44278</v>
-      </c>
-      <c r="S308" s="2">
-        <v>44278</v>
-      </c>
-    </row>
-    <row r="309" spans="1:19">
+    </row>
+    <row r="309" spans="1:18">
       <c r="A309">
         <v>12473339</v>
       </c>
@@ -18041,17 +18041,17 @@
       <c r="K309" s="2">
         <v>44273</v>
       </c>
-      <c r="O309">
+      <c r="L309" s="2">
+        <v>44273</v>
+      </c>
+      <c r="P309" s="2">
+        <v>44285</v>
+      </c>
+      <c r="R309">
         <v>8</v>
       </c>
-      <c r="R309" s="2">
-        <v>44285</v>
-      </c>
-      <c r="S309" s="2">
-        <v>44273</v>
-      </c>
-    </row>
-    <row r="310" spans="1:19">
+    </row>
+    <row r="310" spans="1:18">
       <c r="A310">
         <v>12474737</v>
       </c>
@@ -18085,17 +18085,17 @@
       <c r="K310" s="2">
         <v>44273</v>
       </c>
-      <c r="O310">
+      <c r="L310" s="2">
+        <v>44278</v>
+      </c>
+      <c r="P310" s="2">
+        <v>44280</v>
+      </c>
+      <c r="R310">
         <v>5</v>
       </c>
-      <c r="R310" s="2">
-        <v>44280</v>
-      </c>
-      <c r="S310" s="2">
-        <v>44278</v>
-      </c>
-    </row>
-    <row r="311" spans="1:19">
+    </row>
+    <row r="311" spans="1:18">
       <c r="A311">
         <v>12477495</v>
       </c>
@@ -18126,17 +18126,17 @@
       <c r="K311" s="2">
         <v>44274</v>
       </c>
-      <c r="O311">
+      <c r="L311" s="2">
+        <v>44278</v>
+      </c>
+      <c r="P311" s="2">
+        <v>44278</v>
+      </c>
+      <c r="R311">
         <v>2</v>
       </c>
-      <c r="R311" s="2">
-        <v>44278</v>
-      </c>
-      <c r="S311" s="2">
-        <v>44278</v>
-      </c>
-    </row>
-    <row r="312" spans="1:19">
+    </row>
+    <row r="312" spans="1:18">
       <c r="A312">
         <v>12477889</v>
       </c>
@@ -18170,17 +18170,17 @@
       <c r="K312" s="2">
         <v>44274</v>
       </c>
-      <c r="O312">
+      <c r="L312" s="2">
+        <v>44274</v>
+      </c>
+      <c r="P312" s="2">
+        <v>44278</v>
+      </c>
+      <c r="R312">
         <v>2</v>
       </c>
-      <c r="R312" s="2">
-        <v>44278</v>
-      </c>
-      <c r="S312" s="2">
-        <v>44274</v>
-      </c>
-    </row>
-    <row r="313" spans="1:19">
+    </row>
+    <row r="313" spans="1:18">
       <c r="A313">
         <v>12477927</v>
       </c>
@@ -18214,17 +18214,17 @@
       <c r="K313" s="2">
         <v>44274</v>
       </c>
-      <c r="O313">
+      <c r="L313" s="2">
+        <v>44274</v>
+      </c>
+      <c r="P313" s="2">
+        <v>44277</v>
+      </c>
+      <c r="R313">
         <v>1</v>
       </c>
-      <c r="R313" s="2">
-        <v>44277</v>
-      </c>
-      <c r="S313" s="2">
-        <v>44274</v>
-      </c>
-    </row>
-    <row r="314" spans="1:19">
+    </row>
+    <row r="314" spans="1:18">
       <c r="A314">
         <v>12478633</v>
       </c>
@@ -18258,17 +18258,17 @@
       <c r="K314" s="2">
         <v>44274</v>
       </c>
-      <c r="O314">
+      <c r="L314" s="2">
+        <v>44274</v>
+      </c>
+      <c r="P314" s="2">
+        <v>44274</v>
+      </c>
+      <c r="R314">
         <v>0</v>
       </c>
-      <c r="R314" s="2">
-        <v>44274</v>
-      </c>
-      <c r="S314" s="2">
-        <v>44274</v>
-      </c>
-    </row>
-    <row r="315" spans="1:19">
+    </row>
+    <row r="315" spans="1:18">
       <c r="A315">
         <v>12480081</v>
       </c>
@@ -18299,17 +18299,17 @@
       <c r="K315" s="2">
         <v>44277</v>
       </c>
-      <c r="O315">
+      <c r="L315" s="2">
+        <v>44278</v>
+      </c>
+      <c r="P315" s="2">
+        <v>44278</v>
+      </c>
+      <c r="R315">
         <v>1</v>
       </c>
-      <c r="R315" s="2">
-        <v>44278</v>
-      </c>
-      <c r="S315" s="2">
-        <v>44278</v>
-      </c>
-    </row>
-    <row r="316" spans="1:19">
+    </row>
+    <row r="316" spans="1:18">
       <c r="A316">
         <v>12480836</v>
       </c>
@@ -18343,17 +18343,17 @@
       <c r="K316" s="2">
         <v>44277</v>
       </c>
-      <c r="O316">
+      <c r="L316" s="2">
+        <v>44278</v>
+      </c>
+      <c r="P316" s="2">
+        <v>44285</v>
+      </c>
+      <c r="R316">
         <v>6</v>
       </c>
-      <c r="R316" s="2">
-        <v>44285</v>
-      </c>
-      <c r="S316" s="2">
-        <v>44278</v>
-      </c>
-    </row>
-    <row r="317" spans="1:19">
+    </row>
+    <row r="317" spans="1:18">
       <c r="A317">
         <v>12484260</v>
       </c>
@@ -18384,17 +18384,17 @@
       <c r="K317" s="2">
         <v>44278</v>
       </c>
-      <c r="O317">
+      <c r="L317" s="2">
+        <v>44278</v>
+      </c>
+      <c r="P317" s="2">
+        <v>44278</v>
+      </c>
+      <c r="R317">
         <v>0</v>
       </c>
-      <c r="R317" s="2">
-        <v>44278</v>
-      </c>
-      <c r="S317" s="2">
-        <v>44278</v>
-      </c>
-    </row>
-    <row r="318" spans="1:19">
+    </row>
+    <row r="318" spans="1:18">
       <c r="A318">
         <v>12484308</v>
       </c>
@@ -18428,17 +18428,17 @@
       <c r="K318" s="2">
         <v>44278</v>
       </c>
-      <c r="O318">
+      <c r="L318" s="2">
+        <v>44278</v>
+      </c>
+      <c r="P318" s="2">
+        <v>44278</v>
+      </c>
+      <c r="R318">
         <v>0</v>
       </c>
-      <c r="R318" s="2">
-        <v>44278</v>
-      </c>
-      <c r="S318" s="2">
-        <v>44278</v>
-      </c>
-    </row>
-    <row r="319" spans="1:19">
+    </row>
+    <row r="319" spans="1:18">
       <c r="A319">
         <v>12484317</v>
       </c>
@@ -18472,17 +18472,17 @@
       <c r="K319" s="2">
         <v>44278</v>
       </c>
-      <c r="O319">
+      <c r="L319" s="2">
+        <v>44278</v>
+      </c>
+      <c r="P319" s="2">
+        <v>44278</v>
+      </c>
+      <c r="R319">
         <v>0</v>
       </c>
-      <c r="R319" s="2">
-        <v>44278</v>
-      </c>
-      <c r="S319" s="2">
-        <v>44278</v>
-      </c>
-    </row>
-    <row r="320" spans="1:19">
+    </row>
+    <row r="320" spans="1:18">
       <c r="A320">
         <v>12486147</v>
       </c>
@@ -18516,17 +18516,17 @@
       <c r="K320" s="2">
         <v>44278</v>
       </c>
-      <c r="O320">
+      <c r="L320" s="2">
+        <v>44278</v>
+      </c>
+      <c r="P320" s="2">
+        <v>44280</v>
+      </c>
+      <c r="R320">
         <v>2</v>
       </c>
-      <c r="R320" s="2">
-        <v>44280</v>
-      </c>
-      <c r="S320" s="2">
-        <v>44278</v>
-      </c>
-    </row>
-    <row r="321" spans="1:19">
+    </row>
+    <row r="321" spans="1:18">
       <c r="A321">
         <v>12489426</v>
       </c>
@@ -18557,14 +18557,14 @@
       <c r="K321" s="2">
         <v>44279</v>
       </c>
-      <c r="O321">
+      <c r="P321" s="2">
+        <v>44280</v>
+      </c>
+      <c r="R321">
         <v>1</v>
       </c>
-      <c r="R321" s="2">
-        <v>44280</v>
-      </c>
-    </row>
-    <row r="322" spans="1:19">
+    </row>
+    <row r="322" spans="1:18">
       <c r="A322">
         <v>12498837</v>
       </c>
@@ -18598,17 +18598,17 @@
       <c r="K322" s="2">
         <v>44281</v>
       </c>
-      <c r="O322">
+      <c r="L322" s="2">
+        <v>44284</v>
+      </c>
+      <c r="P322" s="2">
+        <v>44284</v>
+      </c>
+      <c r="R322">
         <v>1</v>
       </c>
-      <c r="R322" s="2">
-        <v>44284</v>
-      </c>
-      <c r="S322" s="2">
-        <v>44284</v>
-      </c>
-    </row>
-    <row r="323" spans="1:19">
+    </row>
+    <row r="323" spans="1:18">
       <c r="A323">
         <v>12503821</v>
       </c>
@@ -18642,14 +18642,14 @@
       <c r="K323" s="2">
         <v>44284</v>
       </c>
-      <c r="O323">
+      <c r="L323" s="2">
+        <v>44284</v>
+      </c>
+      <c r="P323" s="2">
+        <v>44286</v>
+      </c>
+      <c r="R323">
         <v>2</v>
-      </c>
-      <c r="R323" s="2">
-        <v>44286</v>
-      </c>
-      <c r="S323" s="2">
-        <v>44284</v>
       </c>
     </row>
   </sheetData>
